--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -75020,7 +75020,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
@@ -75058,7 +75058,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
@@ -75096,7 +75096,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1141" t="inlineStr"/>
       <c r="F1141" t="inlineStr"/>
@@ -75134,7 +75134,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1142" t="inlineStr"/>
       <c r="F1142" t="inlineStr"/>
@@ -75172,7 +75172,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
@@ -75210,7 +75210,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1144" t="inlineStr"/>
       <c r="F1144" t="inlineStr"/>
@@ -75248,7 +75248,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1145" t="inlineStr"/>
       <c r="F1145" t="inlineStr"/>
@@ -75286,7 +75286,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1146" t="inlineStr"/>
       <c r="F1146" t="inlineStr"/>
@@ -75324,7 +75324,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1147" t="inlineStr"/>
       <c r="F1147" t="inlineStr"/>
@@ -75362,7 +75362,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
@@ -75400,7 +75400,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
@@ -75438,7 +75438,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
@@ -75476,7 +75476,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1151" t="inlineStr"/>
       <c r="F1151" t="inlineStr"/>
@@ -75514,7 +75514,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
@@ -75552,7 +75552,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
@@ -75590,7 +75590,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
@@ -75628,7 +75628,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
@@ -75666,7 +75666,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
@@ -75704,7 +75704,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
@@ -75742,7 +75742,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
@@ -75780,7 +75780,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
@@ -75818,7 +75818,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
@@ -75856,7 +75856,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
@@ -75894,7 +75894,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
@@ -75932,7 +75932,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
@@ -75970,7 +75970,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
@@ -76008,7 +76008,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
@@ -76046,7 +76046,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
@@ -76084,7 +76084,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1167" t="inlineStr"/>
       <c r="F1167" t="inlineStr"/>
@@ -76122,7 +76122,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1168" t="inlineStr"/>
       <c r="F1168" t="inlineStr"/>
@@ -76160,7 +76160,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
@@ -76194,7 +76194,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
@@ -76232,7 +76232,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
@@ -76270,7 +76270,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1172" t="inlineStr"/>
       <c r="F1172" t="inlineStr"/>
@@ -76308,7 +76308,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
@@ -76346,7 +76346,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
@@ -76384,7 +76384,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
@@ -76422,7 +76422,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
@@ -76460,7 +76460,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
@@ -76498,7 +76498,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
@@ -76536,7 +76536,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
@@ -76574,7 +76574,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
@@ -76612,7 +76612,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
@@ -76650,7 +76650,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
@@ -76688,7 +76688,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
@@ -76726,7 +76726,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
@@ -76764,7 +76764,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
@@ -76802,7 +76802,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
@@ -76840,7 +76840,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1187" t="inlineStr"/>
       <c r="F1187" t="inlineStr"/>
@@ -76878,7 +76878,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1188" t="inlineStr"/>
       <c r="F1188" t="inlineStr"/>
@@ -76916,7 +76916,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1189" t="inlineStr"/>
       <c r="F1189" t="inlineStr"/>
@@ -76954,7 +76954,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
@@ -76992,7 +76992,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
@@ -77030,7 +77030,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr"/>
@@ -77068,7 +77068,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr"/>
@@ -77106,7 +77106,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
@@ -77144,7 +77144,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1195" t="inlineStr"/>
       <c r="F1195" t="inlineStr"/>
@@ -77182,7 +77182,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
@@ -77220,7 +77220,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
@@ -77258,7 +77258,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
@@ -77296,7 +77296,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
@@ -77334,7 +77334,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
@@ -77372,7 +77372,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
@@ -77410,7 +77410,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
@@ -77448,7 +77448,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
@@ -77486,7 +77486,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
@@ -77524,7 +77524,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
@@ -77562,7 +77562,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
@@ -77600,7 +77600,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1207" t="inlineStr"/>
       <c r="F1207" t="inlineStr"/>
@@ -77638,7 +77638,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
@@ -77676,7 +77676,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
@@ -77714,7 +77714,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
@@ -77752,7 +77752,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
@@ -77790,7 +77790,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
@@ -77828,7 +77828,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
@@ -77866,7 +77866,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr"/>
@@ -77904,7 +77904,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
@@ -77942,7 +77942,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
@@ -77980,7 +77980,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
@@ -78018,7 +78018,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
@@ -78056,7 +78056,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
@@ -78094,7 +78094,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
@@ -78132,7 +78132,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
@@ -78170,7 +78170,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
@@ -78208,7 +78208,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
@@ -78246,7 +78246,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
@@ -78284,7 +78284,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1225" t="inlineStr"/>
       <c r="F1225" t="inlineStr"/>
@@ -78322,7 +78322,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1226" t="inlineStr"/>
       <c r="F1226" t="inlineStr"/>
@@ -78360,7 +78360,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1227" t="inlineStr"/>
       <c r="F1227" t="inlineStr"/>
@@ -78398,7 +78398,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
@@ -78436,7 +78436,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
@@ -78474,7 +78474,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1230" t="inlineStr"/>
       <c r="F1230" t="inlineStr"/>
@@ -78512,7 +78512,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
@@ -78550,7 +78550,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr"/>
@@ -78588,7 +78588,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr"/>
@@ -78626,7 +78626,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
@@ -78664,7 +78664,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
@@ -78702,7 +78702,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1236" t="inlineStr"/>
       <c r="F1236" t="inlineStr"/>
@@ -78740,7 +78740,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
@@ -78778,7 +78778,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
@@ -78816,7 +78816,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1239" t="inlineStr"/>
       <c r="F1239" t="inlineStr"/>
@@ -78854,7 +78854,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
@@ -78892,7 +78892,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
@@ -78930,7 +78930,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
@@ -78968,7 +78968,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
@@ -79006,7 +79006,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1244" t="inlineStr"/>
       <c r="F1244" t="inlineStr"/>
@@ -79044,7 +79044,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1245" t="inlineStr"/>
       <c r="F1245" t="inlineStr"/>
@@ -79082,7 +79082,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1246" t="inlineStr"/>
       <c r="F1246" t="inlineStr"/>
@@ -79120,7 +79120,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
@@ -79158,7 +79158,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
@@ -79196,7 +79196,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
@@ -79234,7 +79234,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1250" t="inlineStr"/>
       <c r="F1250" t="inlineStr"/>
@@ -79272,7 +79272,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
@@ -79310,7 +79310,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
@@ -79348,7 +79348,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1253" t="inlineStr"/>
       <c r="F1253" t="inlineStr"/>
@@ -79386,7 +79386,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1254" t="inlineStr"/>
       <c r="F1254" t="inlineStr"/>
@@ -79424,7 +79424,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1255" t="inlineStr"/>
       <c r="F1255" t="inlineStr"/>
@@ -79462,7 +79462,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr"/>
@@ -79500,7 +79500,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
@@ -79538,7 +79538,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
@@ -79576,7 +79576,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1259" t="inlineStr"/>
       <c r="F1259" t="inlineStr"/>
@@ -79614,7 +79614,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1260" t="inlineStr"/>
       <c r="F1260" t="inlineStr"/>
@@ -79652,7 +79652,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
@@ -79690,7 +79690,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
@@ -79728,7 +79728,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
@@ -79766,7 +79766,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
@@ -79804,7 +79804,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1265" t="inlineStr"/>
       <c r="F1265" t="inlineStr"/>
@@ -79842,7 +79842,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
@@ -79880,7 +79880,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
@@ -79918,7 +79918,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
@@ -79956,7 +79956,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
@@ -79994,7 +79994,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
@@ -80032,7 +80032,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1271" t="inlineStr"/>
       <c r="F1271" t="inlineStr"/>
@@ -80070,7 +80070,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
@@ -80108,7 +80108,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1273" t="inlineStr"/>
       <c r="F1273" t="inlineStr"/>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1274" t="inlineStr"/>
       <c r="F1274" t="inlineStr"/>
@@ -80184,7 +80184,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
@@ -80222,7 +80222,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
@@ -80260,7 +80260,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
@@ -80298,7 +80298,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
@@ -80336,7 +80336,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
@@ -80374,7 +80374,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
@@ -80412,7 +80412,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
@@ -80450,7 +80450,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
@@ -80488,7 +80488,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
@@ -80526,7 +80526,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
@@ -80564,7 +80564,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
@@ -80602,7 +80602,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
@@ -80640,7 +80640,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
@@ -80678,7 +80678,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
@@ -80716,7 +80716,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
@@ -80754,7 +80754,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
@@ -80792,7 +80792,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
@@ -80826,7 +80826,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1292" t="inlineStr"/>
       <c r="F1292" t="inlineStr"/>
@@ -80864,7 +80864,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
@@ -80902,7 +80902,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1294" t="inlineStr"/>
       <c r="F1294" t="inlineStr"/>
@@ -80940,7 +80940,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1295" t="inlineStr"/>
       <c r="F1295" t="inlineStr"/>
@@ -80978,7 +80978,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1296" t="inlineStr"/>
       <c r="F1296" t="inlineStr"/>
@@ -81016,7 +81016,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1297" t="inlineStr"/>
       <c r="F1297" t="inlineStr"/>
@@ -81054,7 +81054,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1298" t="inlineStr"/>
       <c r="F1298" t="inlineStr"/>
@@ -81092,7 +81092,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1299" t="inlineStr"/>
       <c r="F1299" t="inlineStr"/>
@@ -81130,7 +81130,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1300" t="inlineStr"/>
       <c r="F1300" t="inlineStr"/>
@@ -81168,7 +81168,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1301" t="inlineStr"/>
       <c r="F1301" t="inlineStr"/>
@@ -81206,7 +81206,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr"/>
@@ -81244,7 +81244,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1303" t="inlineStr"/>
       <c r="F1303" t="inlineStr"/>
@@ -81282,7 +81282,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1304" t="inlineStr"/>
       <c r="F1304" t="inlineStr"/>
@@ -81320,7 +81320,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1305" t="inlineStr"/>
       <c r="F1305" t="inlineStr"/>
@@ -81358,7 +81358,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1306" t="inlineStr"/>
       <c r="F1306" t="inlineStr"/>
@@ -81396,7 +81396,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1307" t="inlineStr"/>
       <c r="F1307" t="inlineStr"/>
@@ -81434,7 +81434,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1308" t="inlineStr"/>
       <c r="F1308" t="inlineStr"/>
@@ -81472,7 +81472,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1309" t="inlineStr"/>
       <c r="F1309" t="inlineStr"/>
@@ -81510,7 +81510,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1310" t="inlineStr"/>
       <c r="F1310" t="inlineStr"/>
@@ -81548,7 +81548,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1311" t="inlineStr"/>
       <c r="F1311" t="inlineStr"/>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1312" t="inlineStr"/>
       <c r="F1312" t="inlineStr"/>
@@ -81624,7 +81624,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1313" t="inlineStr"/>
       <c r="F1313" t="inlineStr"/>
@@ -81662,7 +81662,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1314" t="inlineStr"/>
       <c r="F1314" t="inlineStr"/>
@@ -81700,7 +81700,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>45694</v>
+        <v>45783</v>
       </c>
       <c r="E1315" t="inlineStr"/>
       <c r="F1315" t="inlineStr"/>

--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1087"/>
+  <dimension ref="A1:R1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>SUBCATEGORIA</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -643,6 +649,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,6 +711,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -765,6 +773,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -826,6 +835,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -887,6 +897,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -946,6 +957,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1005,6 +1017,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1064,6 +1077,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1123,6 +1137,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1182,6 +1197,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1241,6 +1257,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1300,6 +1317,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1359,6 +1377,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1418,6 +1437,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1477,6 +1497,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1536,6 +1557,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1597,6 +1619,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1658,6 +1681,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1719,6 +1743,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1774,10 +1799,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>CLEONICE PEREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Wellia de Sousa</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1835,10 +1877,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>GABRIEL FLEITAS DA SILVA</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1896,10 +1955,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>MARIA APARECIDA SEABRA</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1957,10 +2033,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>MICHELE LILIANE PEREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Sac</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Ligações</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2022,6 +2115,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2083,6 +2177,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2144,6 +2239,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2205,6 +2301,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2266,6 +2363,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2327,6 +2425,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2384,10 +2483,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>HALCIONE MOREIRA VINCIGUEIRA</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2447,6 +2563,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2506,6 +2623,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2565,6 +2683,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2622,10 +2741,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>GILBERTO</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Gabriela do Nascimento Souza</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2685,6 +2821,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2744,6 +2881,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2803,6 +2941,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2864,6 +3003,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2925,6 +3065,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2986,6 +3127,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3047,6 +3189,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3108,6 +3251,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3163,10 +3307,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>JAINE DOS SANTOS ROCHA DA SILVA</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Sac</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Plataforma People</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3228,6 +3389,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3289,6 +3451,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3348,6 +3511,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3409,6 +3573,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3472,6 +3637,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3533,6 +3699,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3594,6 +3761,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3657,6 +3825,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3718,6 +3887,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3779,6 +3949,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3834,10 +4005,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>THAISY MENDES DA CONCEIÇÃO</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3901,6 +4089,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3964,6 +4153,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4023,6 +4213,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4082,6 +4273,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4141,6 +4333,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4200,6 +4393,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4259,6 +4453,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4316,10 +4511,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>MATEUS NAPOLEAO ANDRE</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Sac</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Plataforma People</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4381,6 +4593,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4442,6 +4655,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4501,6 +4715,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4562,6 +4777,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4623,6 +4839,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4684,6 +4901,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4743,6 +4961,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4800,10 +5019,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>LUCINETE D COSTA SILVA</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4859,10 +5095,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>JOSIANE MARTINS MENDONÇA LOPES</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4918,10 +5171,27 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>ROSANGELA TEODORO DE FREITAS</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4983,6 +5253,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5046,6 +5317,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5109,6 +5381,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5170,6 +5443,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5231,6 +5505,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5292,12 +5567,19 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LUCAS HENRIQUE</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -5308,15 +5590,34 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SÔNIA GREFFE CHAVES</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -5327,15 +5628,34 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GISLAINE LOPES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -5346,15 +5666,34 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>IZOLDINO ALVES</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -5365,15 +5704,34 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Luana Mikaela Garcia Da Costa</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PIETRA</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -5384,15 +5742,34 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Sandi Suellen Ferreira</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ADELIA ALVES DE MIRANDA</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -5403,15 +5780,34 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ELIZEU DIAS</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -5422,15 +5818,34 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Gabriela do Nascimento Souza</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>WANIA ALINE CHAVES</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -5441,15 +5856,34 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ALICE RAQUEL</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45783</v>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -5460,9 +5894,22 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Luana Mikaela Garcia Da Costa</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -5482,6 +5929,7 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -5501,6 +5949,7 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -5520,6 +5969,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -5539,6 +5989,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -5558,6 +6009,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -5577,6 +6029,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -5596,6 +6049,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -5615,6 +6069,7 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -5634,6 +6089,7 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -5653,6 +6109,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -5672,6 +6129,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -5691,6 +6149,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -5710,6 +6169,7 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -5729,6 +6189,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -5748,6 +6209,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -5767,6 +6229,7 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -5786,6 +6249,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -5805,6 +6269,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -5824,6 +6289,7 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -5843,6 +6309,7 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -5862,6 +6329,7 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -5881,6 +6349,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -5900,6 +6369,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -5919,6 +6389,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -5938,6 +6409,7 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -5957,6 +6429,7 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -5976,6 +6449,7 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -5995,6 +6469,7 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -6014,6 +6489,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -6033,6 +6509,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -6052,6 +6529,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -6071,6 +6549,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -6090,6 +6569,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -6109,6 +6589,7 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -6128,6 +6609,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -6147,6 +6629,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -6166,6 +6649,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -6185,6 +6669,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -6204,6 +6689,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -6223,6 +6709,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -6242,6 +6729,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -6261,6 +6749,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -6280,6 +6769,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -6299,6 +6789,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -6318,6 +6809,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -6337,6 +6829,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -6356,6 +6849,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -6375,6 +6869,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -6394,6 +6889,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -6413,6 +6909,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -6432,6 +6929,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -6451,6 +6949,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -6470,6 +6969,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -6489,6 +6989,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -6508,6 +7009,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -6527,6 +7029,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -6546,6 +7049,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -6565,6 +7069,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -6584,6 +7089,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -6603,6 +7109,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -6622,6 +7129,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -6641,6 +7149,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -6660,6 +7169,7 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -6679,6 +7189,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -6698,6 +7209,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -6717,6 +7229,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -6736,6 +7249,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -6755,6 +7269,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -6774,6 +7289,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -6793,6 +7309,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -6812,6 +7329,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -6831,6 +7349,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -6850,6 +7369,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -6869,6 +7389,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -6888,6 +7409,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -6907,6 +7429,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -6926,6 +7449,7 @@
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -6945,6 +7469,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -6964,6 +7489,7 @@
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -6983,6 +7509,7 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -7002,6 +7529,7 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -7021,6 +7549,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -7040,6 +7569,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -7059,6 +7589,7 @@
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -7078,6 +7609,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -7097,6 +7629,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -7116,6 +7649,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -7135,6 +7669,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -7154,6 +7689,7 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -7173,6 +7709,7 @@
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -7192,6 +7729,7 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -7211,6 +7749,7 @@
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -7230,6 +7769,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -7249,6 +7789,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -7268,6 +7809,7 @@
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -7287,6 +7829,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -7306,6 +7849,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -7325,6 +7869,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -7344,6 +7889,7 @@
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -7363,6 +7909,7 @@
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -7382,6 +7929,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -7401,6 +7949,7 @@
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -7420,6 +7969,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -7439,6 +7989,7 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -7458,6 +8009,7 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -7477,6 +8029,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -7496,6 +8049,7 @@
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -7515,6 +8069,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -7534,6 +8089,7 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -7553,6 +8109,7 @@
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -7572,6 +8129,7 @@
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -7591,6 +8149,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -7610,6 +8169,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -7629,6 +8189,7 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -7648,6 +8209,7 @@
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -7667,6 +8229,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -7686,6 +8249,7 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -7705,6 +8269,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -7724,6 +8289,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -7743,6 +8309,7 @@
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -7762,6 +8329,7 @@
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -7781,6 +8349,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -7800,6 +8369,7 @@
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -7819,6 +8389,7 @@
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -7838,6 +8409,7 @@
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -7857,6 +8429,7 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -7876,6 +8449,7 @@
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -7895,6 +8469,7 @@
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -7914,6 +8489,7 @@
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -7933,6 +8509,7 @@
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -7952,6 +8529,7 @@
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -7971,6 +8549,7 @@
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -7990,6 +8569,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -8009,6 +8589,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -8028,6 +8609,7 @@
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -8047,6 +8629,7 @@
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -8066,6 +8649,7 @@
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
       <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -8085,6 +8669,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -8104,6 +8689,7 @@
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -8123,6 +8709,7 @@
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
       <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -8142,6 +8729,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
       <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -8161,6 +8749,7 @@
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr"/>
       <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -8180,6 +8769,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -8199,6 +8789,7 @@
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -8218,6 +8809,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -8237,6 +8829,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -8256,6 +8849,7 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -8275,6 +8869,7 @@
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -8294,6 +8889,7 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -8313,6 +8909,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -8332,6 +8929,7 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -8351,6 +8949,7 @@
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -8370,6 +8969,7 @@
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -8389,6 +8989,7 @@
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -8408,6 +9009,7 @@
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
       <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -8427,6 +9029,7 @@
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -8446,6 +9049,7 @@
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -8465,6 +9069,7 @@
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -8484,6 +9089,7 @@
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -8503,6 +9109,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -8522,6 +9129,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -8541,6 +9149,7 @@
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -8560,6 +9169,7 @@
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
@@ -8579,6 +9189,7 @@
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
@@ -8598,6 +9209,7 @@
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -8617,6 +9229,7 @@
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -8636,6 +9249,7 @@
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr"/>
       <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
@@ -8655,6 +9269,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
       <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -8674,6 +9289,7 @@
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
       <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -8693,6 +9309,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
       <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -8712,6 +9329,7 @@
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr"/>
       <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
@@ -8731,6 +9349,7 @@
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="inlineStr"/>
+      <c r="R261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -8750,6 +9369,7 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -8769,6 +9389,7 @@
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr"/>
       <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -8788,6 +9409,7 @@
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr"/>
       <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -8807,6 +9429,7 @@
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -8826,6 +9449,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
       <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
@@ -8845,6 +9469,7 @@
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr"/>
       <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -8864,6 +9489,7 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
       <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
@@ -8883,6 +9509,7 @@
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
       <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -8902,6 +9529,7 @@
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
@@ -8921,6 +9549,7 @@
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -8940,6 +9569,7 @@
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -8959,6 +9589,7 @@
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -8978,6 +9609,7 @@
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
       <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
@@ -8997,6 +9629,7 @@
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="inlineStr"/>
       <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -9016,6 +9649,7 @@
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr"/>
       <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
@@ -9035,6 +9669,7 @@
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr"/>
       <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -9054,6 +9689,7 @@
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr"/>
       <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -9073,6 +9709,7 @@
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr"/>
       <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
@@ -9092,6 +9729,7 @@
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr"/>
       <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -9111,6 +9749,7 @@
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr"/>
       <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -9130,6 +9769,7 @@
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr"/>
       <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -9149,6 +9789,7 @@
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr"/>
       <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -9168,6 +9809,7 @@
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="inlineStr"/>
       <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
@@ -9187,6 +9829,7 @@
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr"/>
       <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -9206,6 +9849,7 @@
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr"/>
       <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -9225,6 +9869,7 @@
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -9244,6 +9889,7 @@
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr"/>
       <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -9263,6 +9909,7 @@
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr"/>
       <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -9282,6 +9929,7 @@
       <c r="O290" t="inlineStr"/>
       <c r="P290" t="inlineStr"/>
       <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -9301,6 +9949,7 @@
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -9320,6 +9969,7 @@
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr"/>
@@ -9339,6 +9989,7 @@
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -9358,6 +10009,7 @@
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
@@ -9377,6 +10029,7 @@
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr"/>
       <c r="Q295" t="inlineStr"/>
+      <c r="R295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -9396,6 +10049,7 @@
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -9415,6 +10069,7 @@
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr"/>
       <c r="Q297" t="inlineStr"/>
+      <c r="R297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -9434,6 +10089,7 @@
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr"/>
       <c r="Q298" t="inlineStr"/>
+      <c r="R298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -9453,6 +10109,7 @@
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr"/>
       <c r="Q299" t="inlineStr"/>
+      <c r="R299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -9472,6 +10129,7 @@
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="inlineStr"/>
       <c r="Q300" t="inlineStr"/>
+      <c r="R300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -9491,6 +10149,7 @@
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr"/>
       <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -9510,6 +10169,7 @@
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
       <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -9529,6 +10189,7 @@
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -9548,6 +10209,7 @@
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="inlineStr"/>
+      <c r="R304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -9567,6 +10229,7 @@
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr"/>
       <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -9586,6 +10249,7 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="inlineStr"/>
+      <c r="R306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -9605,6 +10269,7 @@
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr"/>
       <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -9624,6 +10289,7 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr"/>
       <c r="Q308" t="inlineStr"/>
+      <c r="R308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -9643,6 +10309,7 @@
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr"/>
       <c r="Q309" t="inlineStr"/>
+      <c r="R309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -9662,6 +10329,7 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr"/>
       <c r="Q310" t="inlineStr"/>
+      <c r="R310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -9681,6 +10349,7 @@
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr"/>
       <c r="Q311" t="inlineStr"/>
+      <c r="R311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
@@ -9700,6 +10369,7 @@
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr"/>
       <c r="Q312" t="inlineStr"/>
+      <c r="R312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -9719,6 +10389,7 @@
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr"/>
       <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
@@ -9738,6 +10409,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
       <c r="Q314" t="inlineStr"/>
+      <c r="R314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -9757,6 +10429,7 @@
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr"/>
       <c r="Q315" t="inlineStr"/>
+      <c r="R315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -9776,6 +10449,7 @@
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr"/>
       <c r="Q316" t="inlineStr"/>
+      <c r="R316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -9795,6 +10469,7 @@
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr"/>
       <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
@@ -9814,6 +10489,7 @@
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="inlineStr"/>
+      <c r="R318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
@@ -9833,6 +10509,7 @@
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr"/>
       <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -9852,6 +10529,7 @@
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
       <c r="Q320" t="inlineStr"/>
+      <c r="R320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -9871,6 +10549,7 @@
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr"/>
       <c r="Q321" t="inlineStr"/>
+      <c r="R321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -9890,6 +10569,7 @@
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="inlineStr"/>
       <c r="Q322" t="inlineStr"/>
+      <c r="R322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -9909,6 +10589,7 @@
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr"/>
       <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
@@ -9928,6 +10609,7 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr"/>
       <c r="Q324" t="inlineStr"/>
+      <c r="R324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
@@ -9947,6 +10629,7 @@
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr"/>
       <c r="Q325" t="inlineStr"/>
+      <c r="R325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -9966,6 +10649,7 @@
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
       <c r="Q326" t="inlineStr"/>
+      <c r="R326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -9985,6 +10669,7 @@
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr"/>
       <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -10004,6 +10689,7 @@
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="inlineStr"/>
+      <c r="R328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -10023,6 +10709,7 @@
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="inlineStr"/>
+      <c r="R329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
@@ -10042,6 +10729,7 @@
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr"/>
       <c r="Q330" t="inlineStr"/>
+      <c r="R330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -10061,6 +10749,7 @@
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
       <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -10080,6 +10769,7 @@
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr"/>
       <c r="Q332" t="inlineStr"/>
+      <c r="R332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -10099,6 +10789,7 @@
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr"/>
       <c r="Q333" t="inlineStr"/>
+      <c r="R333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -10118,6 +10809,7 @@
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
       <c r="Q334" t="inlineStr"/>
+      <c r="R334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
@@ -10137,6 +10829,7 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr"/>
       <c r="Q335" t="inlineStr"/>
+      <c r="R335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -10156,6 +10849,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr"/>
       <c r="Q336" t="inlineStr"/>
+      <c r="R336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
@@ -10175,6 +10869,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="inlineStr"/>
+      <c r="R337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -10194,6 +10889,7 @@
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="inlineStr"/>
+      <c r="R338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
@@ -10213,6 +10909,7 @@
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr"/>
       <c r="Q339" t="inlineStr"/>
+      <c r="R339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
@@ -10232,6 +10929,7 @@
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr"/>
       <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -10251,6 +10949,7 @@
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="inlineStr"/>
       <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -10270,6 +10969,7 @@
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -10289,6 +10989,7 @@
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr"/>
       <c r="Q343" t="inlineStr"/>
+      <c r="R343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -10308,6 +11009,7 @@
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="inlineStr"/>
       <c r="Q344" t="inlineStr"/>
+      <c r="R344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -10327,6 +11029,7 @@
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -10346,6 +11049,7 @@
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr"/>
       <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -10365,6 +11069,7 @@
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr"/>
       <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -10384,6 +11089,7 @@
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr"/>
       <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -10403,6 +11109,7 @@
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="inlineStr"/>
+      <c r="R349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -10422,6 +11129,7 @@
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="inlineStr"/>
       <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -10441,6 +11149,7 @@
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr"/>
       <c r="Q351" t="inlineStr"/>
+      <c r="R351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -10460,6 +11169,7 @@
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr"/>
       <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -10479,6 +11189,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr"/>
       <c r="Q353" t="inlineStr"/>
+      <c r="R353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -10498,6 +11209,7 @@
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr"/>
       <c r="Q354" t="inlineStr"/>
+      <c r="R354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -10517,6 +11229,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr"/>
       <c r="Q355" t="inlineStr"/>
+      <c r="R355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -10536,6 +11249,7 @@
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr"/>
       <c r="Q356" t="inlineStr"/>
+      <c r="R356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -10555,6 +11269,7 @@
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr"/>
       <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -10574,6 +11289,7 @@
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr"/>
       <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -10593,6 +11309,7 @@
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr"/>
       <c r="Q359" t="inlineStr"/>
+      <c r="R359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -10612,6 +11329,7 @@
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr"/>
       <c r="Q360" t="inlineStr"/>
+      <c r="R360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -10631,6 +11349,7 @@
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr"/>
       <c r="Q361" t="inlineStr"/>
+      <c r="R361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -10650,6 +11369,7 @@
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr"/>
       <c r="Q362" t="inlineStr"/>
+      <c r="R362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -10669,6 +11389,7 @@
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr"/>
       <c r="Q363" t="inlineStr"/>
+      <c r="R363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -10688,6 +11409,7 @@
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr"/>
       <c r="Q364" t="inlineStr"/>
+      <c r="R364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -10707,6 +11429,7 @@
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr"/>
       <c r="Q365" t="inlineStr"/>
+      <c r="R365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -10726,6 +11449,7 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr"/>
       <c r="Q366" t="inlineStr"/>
+      <c r="R366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -10745,6 +11469,7 @@
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr"/>
       <c r="Q367" t="inlineStr"/>
+      <c r="R367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -10764,6 +11489,7 @@
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr"/>
       <c r="Q368" t="inlineStr"/>
+      <c r="R368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -10783,6 +11509,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr"/>
       <c r="Q369" t="inlineStr"/>
+      <c r="R369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -10802,6 +11529,7 @@
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr"/>
       <c r="Q370" t="inlineStr"/>
+      <c r="R370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr"/>
@@ -10821,6 +11549,7 @@
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr"/>
       <c r="Q371" t="inlineStr"/>
+      <c r="R371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr"/>
@@ -10840,6 +11569,7 @@
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr"/>
       <c r="Q372" t="inlineStr"/>
+      <c r="R372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr"/>
@@ -10859,6 +11589,7 @@
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr"/>
       <c r="Q373" t="inlineStr"/>
+      <c r="R373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr"/>
@@ -10878,6 +11609,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr"/>
       <c r="Q374" t="inlineStr"/>
+      <c r="R374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr"/>
@@ -10897,6 +11629,7 @@
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr"/>
       <c r="Q375" t="inlineStr"/>
+      <c r="R375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr"/>
@@ -10916,6 +11649,7 @@
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr"/>
       <c r="Q376" t="inlineStr"/>
+      <c r="R376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr"/>
@@ -10935,6 +11669,7 @@
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr"/>
       <c r="Q377" t="inlineStr"/>
+      <c r="R377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr"/>
@@ -10954,6 +11689,7 @@
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr"/>
       <c r="Q378" t="inlineStr"/>
+      <c r="R378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr"/>
@@ -10973,6 +11709,7 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr"/>
       <c r="Q379" t="inlineStr"/>
+      <c r="R379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr"/>
@@ -10992,6 +11729,7 @@
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr"/>
       <c r="Q380" t="inlineStr"/>
+      <c r="R380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr"/>
@@ -11011,6 +11749,7 @@
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr"/>
       <c r="Q381" t="inlineStr"/>
+      <c r="R381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr"/>
@@ -11030,6 +11769,7 @@
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="inlineStr"/>
       <c r="Q382" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr"/>
@@ -11049,6 +11789,7 @@
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr"/>
       <c r="Q383" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr"/>
@@ -11068,6 +11809,7 @@
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr"/>
       <c r="Q384" t="inlineStr"/>
+      <c r="R384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr"/>
@@ -11087,6 +11829,7 @@
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr"/>
       <c r="Q385" t="inlineStr"/>
+      <c r="R385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr"/>
@@ -11106,6 +11849,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr"/>
       <c r="Q386" t="inlineStr"/>
+      <c r="R386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr"/>
@@ -11125,6 +11869,7 @@
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr"/>
       <c r="Q387" t="inlineStr"/>
+      <c r="R387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr"/>
@@ -11144,6 +11889,7 @@
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
       <c r="Q388" t="inlineStr"/>
+      <c r="R388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr"/>
@@ -11163,6 +11909,7 @@
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr"/>
       <c r="Q389" t="inlineStr"/>
+      <c r="R389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr"/>
@@ -11182,6 +11929,7 @@
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr"/>
       <c r="Q390" t="inlineStr"/>
+      <c r="R390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr"/>
@@ -11201,6 +11949,7 @@
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr"/>
       <c r="Q391" t="inlineStr"/>
+      <c r="R391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr"/>
@@ -11220,6 +11969,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr"/>
       <c r="Q392" t="inlineStr"/>
+      <c r="R392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr"/>
@@ -11239,6 +11989,7 @@
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr"/>
       <c r="Q393" t="inlineStr"/>
+      <c r="R393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr"/>
@@ -11258,6 +12009,7 @@
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="inlineStr"/>
       <c r="Q394" t="inlineStr"/>
+      <c r="R394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr"/>
@@ -11277,6 +12029,7 @@
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr"/>
       <c r="Q395" t="inlineStr"/>
+      <c r="R395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr"/>
@@ -11296,6 +12049,7 @@
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr"/>
       <c r="Q396" t="inlineStr"/>
+      <c r="R396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr"/>
@@ -11315,6 +12069,7 @@
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="inlineStr"/>
       <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr"/>
@@ -11334,6 +12089,7 @@
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr"/>
       <c r="Q398" t="inlineStr"/>
+      <c r="R398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr"/>
@@ -11353,6 +12109,7 @@
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr"/>
       <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr"/>
@@ -11372,6 +12129,7 @@
       <c r="O400" t="inlineStr"/>
       <c r="P400" t="inlineStr"/>
       <c r="Q400" t="inlineStr"/>
+      <c r="R400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr"/>
@@ -11391,6 +12149,7 @@
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="inlineStr"/>
       <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr"/>
@@ -11410,6 +12169,7 @@
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr"/>
       <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr"/>
@@ -11429,6 +12189,7 @@
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr"/>
       <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr"/>
@@ -11448,6 +12209,7 @@
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr"/>
       <c r="Q404" t="inlineStr"/>
+      <c r="R404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr"/>
@@ -11467,6 +12229,7 @@
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="inlineStr"/>
       <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr"/>
@@ -11486,6 +12249,7 @@
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr"/>
       <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr"/>
@@ -11505,6 +12269,7 @@
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr"/>
       <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr"/>
@@ -11524,6 +12289,7 @@
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr"/>
       <c r="Q408" t="inlineStr"/>
+      <c r="R408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr"/>
@@ -11543,6 +12309,7 @@
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="inlineStr"/>
       <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr"/>
@@ -11562,6 +12329,7 @@
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr"/>
       <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr"/>
@@ -11581,6 +12349,7 @@
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr"/>
       <c r="Q411" t="inlineStr"/>
+      <c r="R411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr"/>
@@ -11600,6 +12369,7 @@
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="inlineStr"/>
       <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr"/>
@@ -11619,6 +12389,7 @@
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr"/>
       <c r="Q413" t="inlineStr"/>
+      <c r="R413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr"/>
@@ -11638,6 +12409,7 @@
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr"/>
       <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr"/>
@@ -11657,6 +12429,7 @@
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr"/>
       <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr"/>
@@ -11676,6 +12449,7 @@
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr"/>
       <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr"/>
@@ -11695,6 +12469,7 @@
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr"/>
       <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr"/>
@@ -11714,6 +12489,7 @@
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="inlineStr"/>
       <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr"/>
@@ -11733,6 +12509,7 @@
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="inlineStr"/>
       <c r="Q419" t="inlineStr"/>
+      <c r="R419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr"/>
@@ -11752,6 +12529,7 @@
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr"/>
       <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr"/>
@@ -11771,6 +12549,7 @@
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr"/>
       <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr"/>
@@ -11790,6 +12569,7 @@
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="inlineStr"/>
       <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr"/>
@@ -11809,6 +12589,7 @@
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr"/>
       <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr"/>
@@ -11828,6 +12609,7 @@
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="inlineStr"/>
+      <c r="R424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr"/>
@@ -11847,6 +12629,7 @@
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr"/>
@@ -11866,6 +12649,7 @@
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr"/>
       <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr"/>
@@ -11885,6 +12669,7 @@
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="inlineStr"/>
       <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr"/>
@@ -11904,6 +12689,7 @@
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr"/>
       <c r="Q428" t="inlineStr"/>
+      <c r="R428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr"/>
@@ -11923,6 +12709,7 @@
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr"/>
       <c r="Q429" t="inlineStr"/>
+      <c r="R429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr"/>
@@ -11942,6 +12729,7 @@
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr"/>
       <c r="Q430" t="inlineStr"/>
+      <c r="R430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr"/>
@@ -11961,6 +12749,7 @@
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr"/>
       <c r="Q431" t="inlineStr"/>
+      <c r="R431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr"/>
@@ -11980,6 +12769,7 @@
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr"/>
       <c r="Q432" t="inlineStr"/>
+      <c r="R432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr"/>
@@ -11999,6 +12789,7 @@
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr"/>
       <c r="Q433" t="inlineStr"/>
+      <c r="R433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr"/>
@@ -12018,6 +12809,7 @@
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="inlineStr"/>
+      <c r="R434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr"/>
@@ -12037,6 +12829,7 @@
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="inlineStr"/>
       <c r="Q435" t="inlineStr"/>
+      <c r="R435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr"/>
@@ -12056,6 +12849,7 @@
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="inlineStr"/>
       <c r="Q436" t="inlineStr"/>
+      <c r="R436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr"/>
@@ -12075,6 +12869,7 @@
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr"/>
       <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr"/>
@@ -12094,6 +12889,7 @@
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="inlineStr"/>
       <c r="Q438" t="inlineStr"/>
+      <c r="R438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr"/>
@@ -12113,6 +12909,7 @@
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr"/>
       <c r="Q439" t="inlineStr"/>
+      <c r="R439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr"/>
@@ -12132,6 +12929,7 @@
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="inlineStr"/>
       <c r="Q440" t="inlineStr"/>
+      <c r="R440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr"/>
@@ -12151,6 +12949,7 @@
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="inlineStr"/>
       <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr"/>
@@ -12170,6 +12969,7 @@
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr"/>
+      <c r="R442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr"/>
@@ -12189,6 +12989,7 @@
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="inlineStr"/>
+      <c r="R443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr"/>
@@ -12208,6 +13009,7 @@
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr"/>
       <c r="Q444" t="inlineStr"/>
+      <c r="R444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr"/>
@@ -12227,6 +13029,7 @@
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="inlineStr"/>
       <c r="Q445" t="inlineStr"/>
+      <c r="R445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr"/>
@@ -12246,6 +13049,7 @@
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr"/>
       <c r="Q446" t="inlineStr"/>
+      <c r="R446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr"/>
@@ -12265,6 +13069,7 @@
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr"/>
       <c r="Q447" t="inlineStr"/>
+      <c r="R447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr"/>
@@ -12284,6 +13089,7 @@
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr"/>
       <c r="Q448" t="inlineStr"/>
+      <c r="R448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr"/>
@@ -12303,6 +13109,7 @@
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="inlineStr"/>
+      <c r="R449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr"/>
@@ -12322,6 +13129,7 @@
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr"/>
       <c r="Q450" t="inlineStr"/>
+      <c r="R450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr"/>
@@ -12341,6 +13149,7 @@
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="inlineStr"/>
+      <c r="R451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr"/>
@@ -12360,6 +13169,7 @@
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="inlineStr"/>
+      <c r="R452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr"/>
@@ -12379,6 +13189,7 @@
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr"/>
       <c r="Q453" t="inlineStr"/>
+      <c r="R453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr"/>
@@ -12398,6 +13209,7 @@
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr"/>
       <c r="Q454" t="inlineStr"/>
+      <c r="R454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr"/>
@@ -12417,6 +13229,7 @@
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr"/>
       <c r="Q455" t="inlineStr"/>
+      <c r="R455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr"/>
@@ -12436,6 +13249,7 @@
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="inlineStr"/>
+      <c r="R456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr"/>
@@ -12455,6 +13269,7 @@
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr"/>
       <c r="Q457" t="inlineStr"/>
+      <c r="R457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr"/>
@@ -12474,6 +13289,7 @@
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr"/>
       <c r="Q458" t="inlineStr"/>
+      <c r="R458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr"/>
@@ -12493,6 +13309,7 @@
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr"/>
       <c r="Q459" t="inlineStr"/>
+      <c r="R459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr"/>
@@ -12512,6 +13329,7 @@
       <c r="O460" t="inlineStr"/>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="inlineStr"/>
+      <c r="R460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr"/>
@@ -12531,6 +13349,7 @@
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr"/>
@@ -12550,6 +13369,7 @@
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="inlineStr"/>
       <c r="Q462" t="inlineStr"/>
+      <c r="R462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr"/>
@@ -12569,6 +13389,7 @@
       <c r="O463" t="inlineStr"/>
       <c r="P463" t="inlineStr"/>
       <c r="Q463" t="inlineStr"/>
+      <c r="R463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr"/>
@@ -12588,6 +13409,7 @@
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr"/>
       <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr"/>
@@ -12607,6 +13429,7 @@
       <c r="O465" t="inlineStr"/>
       <c r="P465" t="inlineStr"/>
       <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr"/>
@@ -12626,6 +13449,7 @@
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr"/>
       <c r="Q466" t="inlineStr"/>
+      <c r="R466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr"/>
@@ -12645,6 +13469,7 @@
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="inlineStr"/>
       <c r="Q467" t="inlineStr"/>
+      <c r="R467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr"/>
@@ -12664,6 +13489,7 @@
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="inlineStr"/>
       <c r="Q468" t="inlineStr"/>
+      <c r="R468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr"/>
@@ -12683,6 +13509,7 @@
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr"/>
       <c r="Q469" t="inlineStr"/>
+      <c r="R469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr"/>
@@ -12702,6 +13529,7 @@
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="inlineStr"/>
       <c r="Q470" t="inlineStr"/>
+      <c r="R470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr"/>
@@ -12721,6 +13549,7 @@
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="inlineStr"/>
       <c r="Q471" t="inlineStr"/>
+      <c r="R471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr"/>
@@ -12740,6 +13569,7 @@
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="inlineStr"/>
       <c r="Q472" t="inlineStr"/>
+      <c r="R472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr"/>
@@ -12759,6 +13589,7 @@
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="inlineStr"/>
       <c r="Q473" t="inlineStr"/>
+      <c r="R473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr"/>
@@ -12778,6 +13609,7 @@
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr"/>
       <c r="Q474" t="inlineStr"/>
+      <c r="R474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr"/>
@@ -12797,6 +13629,7 @@
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr"/>
       <c r="Q475" t="inlineStr"/>
+      <c r="R475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr"/>
@@ -12816,6 +13649,7 @@
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="inlineStr"/>
       <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr"/>
@@ -12835,6 +13669,7 @@
       <c r="O477" t="inlineStr"/>
       <c r="P477" t="inlineStr"/>
       <c r="Q477" t="inlineStr"/>
+      <c r="R477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr"/>
@@ -12854,6 +13689,7 @@
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr"/>
@@ -12873,6 +13709,7 @@
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr"/>
       <c r="Q479" t="inlineStr"/>
+      <c r="R479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr"/>
@@ -12892,6 +13729,7 @@
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr"/>
       <c r="Q480" t="inlineStr"/>
+      <c r="R480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr"/>
@@ -12911,6 +13749,7 @@
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr"/>
       <c r="Q481" t="inlineStr"/>
+      <c r="R481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr"/>
@@ -12930,6 +13769,7 @@
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="inlineStr"/>
       <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr"/>
@@ -12949,6 +13789,7 @@
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr"/>
       <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr"/>
@@ -12968,6 +13809,7 @@
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr"/>
       <c r="Q484" t="inlineStr"/>
+      <c r="R484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr"/>
@@ -12987,6 +13829,7 @@
       <c r="O485" t="inlineStr"/>
       <c r="P485" t="inlineStr"/>
       <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr"/>
@@ -13006,6 +13849,7 @@
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="inlineStr"/>
       <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr"/>
@@ -13025,6 +13869,7 @@
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="inlineStr"/>
+      <c r="R487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr"/>
@@ -13044,6 +13889,7 @@
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="inlineStr"/>
       <c r="Q488" t="inlineStr"/>
+      <c r="R488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr"/>
@@ -13063,6 +13909,7 @@
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="inlineStr"/>
       <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr"/>
@@ -13082,6 +13929,7 @@
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="inlineStr"/>
+      <c r="R490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr"/>
@@ -13101,6 +13949,7 @@
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr"/>
       <c r="Q491" t="inlineStr"/>
+      <c r="R491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr"/>
@@ -13120,6 +13969,7 @@
       <c r="O492" t="inlineStr"/>
       <c r="P492" t="inlineStr"/>
       <c r="Q492" t="inlineStr"/>
+      <c r="R492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr"/>
@@ -13139,6 +13989,7 @@
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="inlineStr"/>
       <c r="Q493" t="inlineStr"/>
+      <c r="R493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr"/>
@@ -13158,6 +14009,7 @@
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr"/>
       <c r="Q494" t="inlineStr"/>
+      <c r="R494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr"/>
@@ -13177,6 +14029,7 @@
       <c r="O495" t="inlineStr"/>
       <c r="P495" t="inlineStr"/>
       <c r="Q495" t="inlineStr"/>
+      <c r="R495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr"/>
@@ -13196,6 +14049,7 @@
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr"/>
       <c r="Q496" t="inlineStr"/>
+      <c r="R496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr"/>
@@ -13215,6 +14069,7 @@
       <c r="O497" t="inlineStr"/>
       <c r="P497" t="inlineStr"/>
       <c r="Q497" t="inlineStr"/>
+      <c r="R497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr"/>
@@ -13234,6 +14089,7 @@
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="inlineStr"/>
       <c r="Q498" t="inlineStr"/>
+      <c r="R498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr"/>
@@ -13253,6 +14109,7 @@
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="inlineStr"/>
       <c r="Q499" t="inlineStr"/>
+      <c r="R499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr"/>
@@ -13272,6 +14129,7 @@
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="inlineStr"/>
       <c r="Q500" t="inlineStr"/>
+      <c r="R500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr"/>
@@ -13291,6 +14149,7 @@
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="inlineStr"/>
       <c r="Q501" t="inlineStr"/>
+      <c r="R501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr"/>
@@ -13310,6 +14169,7 @@
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr"/>
       <c r="Q502" t="inlineStr"/>
+      <c r="R502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr"/>
@@ -13329,6 +14189,7 @@
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="inlineStr"/>
       <c r="Q503" t="inlineStr"/>
+      <c r="R503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr"/>
@@ -13348,6 +14209,7 @@
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="inlineStr"/>
       <c r="Q504" t="inlineStr"/>
+      <c r="R504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr"/>
@@ -13367,6 +14229,7 @@
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="inlineStr"/>
       <c r="Q505" t="inlineStr"/>
+      <c r="R505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr"/>
@@ -13386,6 +14249,7 @@
       <c r="O506" t="inlineStr"/>
       <c r="P506" t="inlineStr"/>
       <c r="Q506" t="inlineStr"/>
+      <c r="R506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr"/>
@@ -13405,6 +14269,7 @@
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="inlineStr"/>
       <c r="Q507" t="inlineStr"/>
+      <c r="R507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr"/>
@@ -13424,6 +14289,7 @@
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="inlineStr"/>
       <c r="Q508" t="inlineStr"/>
+      <c r="R508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr"/>
@@ -13443,6 +14309,7 @@
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="inlineStr"/>
       <c r="Q509" t="inlineStr"/>
+      <c r="R509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr"/>
@@ -13462,6 +14329,7 @@
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr"/>
       <c r="Q510" t="inlineStr"/>
+      <c r="R510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr"/>
@@ -13481,6 +14349,7 @@
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="inlineStr"/>
       <c r="Q511" t="inlineStr"/>
+      <c r="R511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr"/>
@@ -13500,6 +14369,7 @@
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr"/>
       <c r="Q512" t="inlineStr"/>
+      <c r="R512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr"/>
@@ -13519,6 +14389,7 @@
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="inlineStr"/>
       <c r="Q513" t="inlineStr"/>
+      <c r="R513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr"/>
@@ -13538,6 +14409,7 @@
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="inlineStr"/>
       <c r="Q514" t="inlineStr"/>
+      <c r="R514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr"/>
@@ -13557,6 +14429,7 @@
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="inlineStr"/>
       <c r="Q515" t="inlineStr"/>
+      <c r="R515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr"/>
@@ -13576,6 +14449,7 @@
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="inlineStr"/>
       <c r="Q516" t="inlineStr"/>
+      <c r="R516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr"/>
@@ -13595,6 +14469,7 @@
       <c r="O517" t="inlineStr"/>
       <c r="P517" t="inlineStr"/>
       <c r="Q517" t="inlineStr"/>
+      <c r="R517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr"/>
@@ -13614,6 +14489,7 @@
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="inlineStr"/>
       <c r="Q518" t="inlineStr"/>
+      <c r="R518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr"/>
@@ -13633,6 +14509,7 @@
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="inlineStr"/>
       <c r="Q519" t="inlineStr"/>
+      <c r="R519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr"/>
@@ -13652,6 +14529,7 @@
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="inlineStr"/>
       <c r="Q520" t="inlineStr"/>
+      <c r="R520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr"/>
@@ -13671,6 +14549,7 @@
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="inlineStr"/>
       <c r="Q521" t="inlineStr"/>
+      <c r="R521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr"/>
@@ -13690,6 +14569,7 @@
       <c r="O522" t="inlineStr"/>
       <c r="P522" t="inlineStr"/>
       <c r="Q522" t="inlineStr"/>
+      <c r="R522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr"/>
@@ -13709,6 +14589,7 @@
       <c r="O523" t="inlineStr"/>
       <c r="P523" t="inlineStr"/>
       <c r="Q523" t="inlineStr"/>
+      <c r="R523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr"/>
@@ -13728,6 +14609,7 @@
       <c r="O524" t="inlineStr"/>
       <c r="P524" t="inlineStr"/>
       <c r="Q524" t="inlineStr"/>
+      <c r="R524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr"/>
@@ -13747,6 +14629,7 @@
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="inlineStr"/>
       <c r="Q525" t="inlineStr"/>
+      <c r="R525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr"/>
@@ -13766,6 +14649,7 @@
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="inlineStr"/>
       <c r="Q526" t="inlineStr"/>
+      <c r="R526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr"/>
@@ -13785,6 +14669,7 @@
       <c r="O527" t="inlineStr"/>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="inlineStr"/>
+      <c r="R527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr"/>
@@ -13804,6 +14689,7 @@
       <c r="O528" t="inlineStr"/>
       <c r="P528" t="inlineStr"/>
       <c r="Q528" t="inlineStr"/>
+      <c r="R528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr"/>
@@ -13823,6 +14709,7 @@
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="inlineStr"/>
       <c r="Q529" t="inlineStr"/>
+      <c r="R529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr"/>
@@ -13842,6 +14729,7 @@
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="inlineStr"/>
       <c r="Q530" t="inlineStr"/>
+      <c r="R530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr"/>
@@ -13861,6 +14749,7 @@
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="inlineStr"/>
       <c r="Q531" t="inlineStr"/>
+      <c r="R531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr"/>
@@ -13880,6 +14769,7 @@
       <c r="O532" t="inlineStr"/>
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="inlineStr"/>
+      <c r="R532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr"/>
@@ -13899,6 +14789,7 @@
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="inlineStr"/>
       <c r="Q533" t="inlineStr"/>
+      <c r="R533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr"/>
@@ -13918,6 +14809,7 @@
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="inlineStr"/>
       <c r="Q534" t="inlineStr"/>
+      <c r="R534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr"/>
@@ -13937,6 +14829,7 @@
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="inlineStr"/>
+      <c r="R535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr"/>
@@ -13956,6 +14849,7 @@
       <c r="O536" t="inlineStr"/>
       <c r="P536" t="inlineStr"/>
       <c r="Q536" t="inlineStr"/>
+      <c r="R536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr"/>
@@ -13975,6 +14869,7 @@
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="inlineStr"/>
       <c r="Q537" t="inlineStr"/>
+      <c r="R537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr"/>
@@ -13994,6 +14889,7 @@
       <c r="O538" t="inlineStr"/>
       <c r="P538" t="inlineStr"/>
       <c r="Q538" t="inlineStr"/>
+      <c r="R538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr"/>
@@ -14013,6 +14909,7 @@
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="inlineStr"/>
       <c r="Q539" t="inlineStr"/>
+      <c r="R539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr"/>
@@ -14032,6 +14929,7 @@
       <c r="O540" t="inlineStr"/>
       <c r="P540" t="inlineStr"/>
       <c r="Q540" t="inlineStr"/>
+      <c r="R540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr"/>
@@ -14051,6 +14949,7 @@
       <c r="O541" t="inlineStr"/>
       <c r="P541" t="inlineStr"/>
       <c r="Q541" t="inlineStr"/>
+      <c r="R541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr"/>
@@ -14070,6 +14969,7 @@
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="inlineStr"/>
       <c r="Q542" t="inlineStr"/>
+      <c r="R542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr"/>
@@ -14089,6 +14989,7 @@
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="inlineStr"/>
       <c r="Q543" t="inlineStr"/>
+      <c r="R543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr"/>
@@ -14108,6 +15009,7 @@
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="inlineStr"/>
       <c r="Q544" t="inlineStr"/>
+      <c r="R544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr"/>
@@ -14127,6 +15029,7 @@
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="inlineStr"/>
       <c r="Q545" t="inlineStr"/>
+      <c r="R545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr"/>
@@ -14146,6 +15049,7 @@
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="inlineStr"/>
       <c r="Q546" t="inlineStr"/>
+      <c r="R546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr"/>
@@ -14165,6 +15069,7 @@
       <c r="O547" t="inlineStr"/>
       <c r="P547" t="inlineStr"/>
       <c r="Q547" t="inlineStr"/>
+      <c r="R547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr"/>
@@ -14184,6 +15089,7 @@
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="inlineStr"/>
       <c r="Q548" t="inlineStr"/>
+      <c r="R548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr"/>
@@ -14203,6 +15109,7 @@
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="inlineStr"/>
       <c r="Q549" t="inlineStr"/>
+      <c r="R549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr"/>
@@ -14222,6 +15129,7 @@
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
       <c r="Q550" t="inlineStr"/>
+      <c r="R550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr"/>
@@ -14241,6 +15149,7 @@
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="inlineStr"/>
       <c r="Q551" t="inlineStr"/>
+      <c r="R551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr"/>
@@ -14260,6 +15169,7 @@
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="inlineStr"/>
       <c r="Q552" t="inlineStr"/>
+      <c r="R552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr"/>
@@ -14279,6 +15189,7 @@
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="inlineStr"/>
       <c r="Q553" t="inlineStr"/>
+      <c r="R553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr"/>
@@ -14298,6 +15209,7 @@
       <c r="O554" t="inlineStr"/>
       <c r="P554" t="inlineStr"/>
       <c r="Q554" t="inlineStr"/>
+      <c r="R554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr"/>
@@ -14317,6 +15229,7 @@
       <c r="O555" t="inlineStr"/>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="inlineStr"/>
+      <c r="R555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr"/>
@@ -14336,6 +15249,7 @@
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="inlineStr"/>
       <c r="Q556" t="inlineStr"/>
+      <c r="R556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr"/>
@@ -14355,6 +15269,7 @@
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="inlineStr"/>
       <c r="Q557" t="inlineStr"/>
+      <c r="R557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr"/>
@@ -14374,6 +15289,7 @@
       <c r="O558" t="inlineStr"/>
       <c r="P558" t="inlineStr"/>
       <c r="Q558" t="inlineStr"/>
+      <c r="R558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr"/>
@@ -14393,6 +15309,7 @@
       <c r="O559" t="inlineStr"/>
       <c r="P559" t="inlineStr"/>
       <c r="Q559" t="inlineStr"/>
+      <c r="R559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr"/>
@@ -14412,6 +15329,7 @@
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="inlineStr"/>
       <c r="Q560" t="inlineStr"/>
+      <c r="R560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr"/>
@@ -14431,6 +15349,7 @@
       <c r="O561" t="inlineStr"/>
       <c r="P561" t="inlineStr"/>
       <c r="Q561" t="inlineStr"/>
+      <c r="R561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr"/>
@@ -14450,6 +15369,7 @@
       <c r="O562" t="inlineStr"/>
       <c r="P562" t="inlineStr"/>
       <c r="Q562" t="inlineStr"/>
+      <c r="R562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr"/>
@@ -14469,6 +15389,7 @@
       <c r="O563" t="inlineStr"/>
       <c r="P563" t="inlineStr"/>
       <c r="Q563" t="inlineStr"/>
+      <c r="R563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr"/>
@@ -14488,6 +15409,7 @@
       <c r="O564" t="inlineStr"/>
       <c r="P564" t="inlineStr"/>
       <c r="Q564" t="inlineStr"/>
+      <c r="R564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr"/>
@@ -14507,6 +15429,7 @@
       <c r="O565" t="inlineStr"/>
       <c r="P565" t="inlineStr"/>
       <c r="Q565" t="inlineStr"/>
+      <c r="R565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr"/>
@@ -14526,6 +15449,7 @@
       <c r="O566" t="inlineStr"/>
       <c r="P566" t="inlineStr"/>
       <c r="Q566" t="inlineStr"/>
+      <c r="R566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr"/>
@@ -14545,6 +15469,7 @@
       <c r="O567" t="inlineStr"/>
       <c r="P567" t="inlineStr"/>
       <c r="Q567" t="inlineStr"/>
+      <c r="R567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr"/>
@@ -14564,6 +15489,7 @@
       <c r="O568" t="inlineStr"/>
       <c r="P568" t="inlineStr"/>
       <c r="Q568" t="inlineStr"/>
+      <c r="R568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr"/>
@@ -14583,6 +15509,7 @@
       <c r="O569" t="inlineStr"/>
       <c r="P569" t="inlineStr"/>
       <c r="Q569" t="inlineStr"/>
+      <c r="R569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr"/>
@@ -14602,6 +15529,7 @@
       <c r="O570" t="inlineStr"/>
       <c r="P570" t="inlineStr"/>
       <c r="Q570" t="inlineStr"/>
+      <c r="R570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr"/>
@@ -14621,6 +15549,7 @@
       <c r="O571" t="inlineStr"/>
       <c r="P571" t="inlineStr"/>
       <c r="Q571" t="inlineStr"/>
+      <c r="R571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr"/>
@@ -14640,6 +15569,7 @@
       <c r="O572" t="inlineStr"/>
       <c r="P572" t="inlineStr"/>
       <c r="Q572" t="inlineStr"/>
+      <c r="R572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr"/>
@@ -14659,6 +15589,7 @@
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="inlineStr"/>
       <c r="Q573" t="inlineStr"/>
+      <c r="R573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr"/>
@@ -14678,6 +15609,7 @@
       <c r="O574" t="inlineStr"/>
       <c r="P574" t="inlineStr"/>
       <c r="Q574" t="inlineStr"/>
+      <c r="R574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr"/>
@@ -14697,6 +15629,7 @@
       <c r="O575" t="inlineStr"/>
       <c r="P575" t="inlineStr"/>
       <c r="Q575" t="inlineStr"/>
+      <c r="R575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr"/>
@@ -14716,6 +15649,7 @@
       <c r="O576" t="inlineStr"/>
       <c r="P576" t="inlineStr"/>
       <c r="Q576" t="inlineStr"/>
+      <c r="R576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr"/>
@@ -14735,6 +15669,7 @@
       <c r="O577" t="inlineStr"/>
       <c r="P577" t="inlineStr"/>
       <c r="Q577" t="inlineStr"/>
+      <c r="R577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr"/>
@@ -14754,6 +15689,7 @@
       <c r="O578" t="inlineStr"/>
       <c r="P578" t="inlineStr"/>
       <c r="Q578" t="inlineStr"/>
+      <c r="R578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr"/>
@@ -14773,6 +15709,7 @@
       <c r="O579" t="inlineStr"/>
       <c r="P579" t="inlineStr"/>
       <c r="Q579" t="inlineStr"/>
+      <c r="R579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr"/>
@@ -14792,6 +15729,7 @@
       <c r="O580" t="inlineStr"/>
       <c r="P580" t="inlineStr"/>
       <c r="Q580" t="inlineStr"/>
+      <c r="R580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr"/>
@@ -14811,6 +15749,7 @@
       <c r="O581" t="inlineStr"/>
       <c r="P581" t="inlineStr"/>
       <c r="Q581" t="inlineStr"/>
+      <c r="R581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr"/>
@@ -14830,6 +15769,7 @@
       <c r="O582" t="inlineStr"/>
       <c r="P582" t="inlineStr"/>
       <c r="Q582" t="inlineStr"/>
+      <c r="R582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr"/>
@@ -14849,6 +15789,7 @@
       <c r="O583" t="inlineStr"/>
       <c r="P583" t="inlineStr"/>
       <c r="Q583" t="inlineStr"/>
+      <c r="R583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr"/>
@@ -14868,6 +15809,7 @@
       <c r="O584" t="inlineStr"/>
       <c r="P584" t="inlineStr"/>
       <c r="Q584" t="inlineStr"/>
+      <c r="R584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr"/>
@@ -14887,6 +15829,7 @@
       <c r="O585" t="inlineStr"/>
       <c r="P585" t="inlineStr"/>
       <c r="Q585" t="inlineStr"/>
+      <c r="R585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr"/>
@@ -14906,6 +15849,7 @@
       <c r="O586" t="inlineStr"/>
       <c r="P586" t="inlineStr"/>
       <c r="Q586" t="inlineStr"/>
+      <c r="R586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr"/>
@@ -14925,6 +15869,7 @@
       <c r="O587" t="inlineStr"/>
       <c r="P587" t="inlineStr"/>
       <c r="Q587" t="inlineStr"/>
+      <c r="R587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr"/>
@@ -14944,6 +15889,7 @@
       <c r="O588" t="inlineStr"/>
       <c r="P588" t="inlineStr"/>
       <c r="Q588" t="inlineStr"/>
+      <c r="R588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr"/>
@@ -14963,6 +15909,7 @@
       <c r="O589" t="inlineStr"/>
       <c r="P589" t="inlineStr"/>
       <c r="Q589" t="inlineStr"/>
+      <c r="R589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr"/>
@@ -14982,6 +15929,7 @@
       <c r="O590" t="inlineStr"/>
       <c r="P590" t="inlineStr"/>
       <c r="Q590" t="inlineStr"/>
+      <c r="R590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr"/>
@@ -15001,6 +15949,7 @@
       <c r="O591" t="inlineStr"/>
       <c r="P591" t="inlineStr"/>
       <c r="Q591" t="inlineStr"/>
+      <c r="R591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr"/>
@@ -15020,6 +15969,7 @@
       <c r="O592" t="inlineStr"/>
       <c r="P592" t="inlineStr"/>
       <c r="Q592" t="inlineStr"/>
+      <c r="R592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr"/>
@@ -15039,6 +15989,7 @@
       <c r="O593" t="inlineStr"/>
       <c r="P593" t="inlineStr"/>
       <c r="Q593" t="inlineStr"/>
+      <c r="R593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr"/>
@@ -15058,6 +16009,7 @@
       <c r="O594" t="inlineStr"/>
       <c r="P594" t="inlineStr"/>
       <c r="Q594" t="inlineStr"/>
+      <c r="R594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr"/>
@@ -15077,6 +16029,7 @@
       <c r="O595" t="inlineStr"/>
       <c r="P595" t="inlineStr"/>
       <c r="Q595" t="inlineStr"/>
+      <c r="R595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr"/>
@@ -15096,6 +16049,7 @@
       <c r="O596" t="inlineStr"/>
       <c r="P596" t="inlineStr"/>
       <c r="Q596" t="inlineStr"/>
+      <c r="R596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr"/>
@@ -15115,6 +16069,7 @@
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="inlineStr"/>
       <c r="Q597" t="inlineStr"/>
+      <c r="R597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr"/>
@@ -15134,6 +16089,7 @@
       <c r="O598" t="inlineStr"/>
       <c r="P598" t="inlineStr"/>
       <c r="Q598" t="inlineStr"/>
+      <c r="R598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr"/>
@@ -15153,6 +16109,7 @@
       <c r="O599" t="inlineStr"/>
       <c r="P599" t="inlineStr"/>
       <c r="Q599" t="inlineStr"/>
+      <c r="R599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr"/>
@@ -15172,6 +16129,7 @@
       <c r="O600" t="inlineStr"/>
       <c r="P600" t="inlineStr"/>
       <c r="Q600" t="inlineStr"/>
+      <c r="R600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr"/>
@@ -15191,6 +16149,7 @@
       <c r="O601" t="inlineStr"/>
       <c r="P601" t="inlineStr"/>
       <c r="Q601" t="inlineStr"/>
+      <c r="R601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr"/>
@@ -15210,6 +16169,7 @@
       <c r="O602" t="inlineStr"/>
       <c r="P602" t="inlineStr"/>
       <c r="Q602" t="inlineStr"/>
+      <c r="R602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr"/>
@@ -15229,6 +16189,7 @@
       <c r="O603" t="inlineStr"/>
       <c r="P603" t="inlineStr"/>
       <c r="Q603" t="inlineStr"/>
+      <c r="R603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr"/>
@@ -15248,6 +16209,7 @@
       <c r="O604" t="inlineStr"/>
       <c r="P604" t="inlineStr"/>
       <c r="Q604" t="inlineStr"/>
+      <c r="R604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr"/>
@@ -15267,6 +16229,7 @@
       <c r="O605" t="inlineStr"/>
       <c r="P605" t="inlineStr"/>
       <c r="Q605" t="inlineStr"/>
+      <c r="R605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr"/>
@@ -15286,6 +16249,7 @@
       <c r="O606" t="inlineStr"/>
       <c r="P606" t="inlineStr"/>
       <c r="Q606" t="inlineStr"/>
+      <c r="R606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr"/>
@@ -15305,6 +16269,7 @@
       <c r="O607" t="inlineStr"/>
       <c r="P607" t="inlineStr"/>
       <c r="Q607" t="inlineStr"/>
+      <c r="R607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr"/>
@@ -15324,6 +16289,7 @@
       <c r="O608" t="inlineStr"/>
       <c r="P608" t="inlineStr"/>
       <c r="Q608" t="inlineStr"/>
+      <c r="R608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr"/>
@@ -15343,6 +16309,7 @@
       <c r="O609" t="inlineStr"/>
       <c r="P609" t="inlineStr"/>
       <c r="Q609" t="inlineStr"/>
+      <c r="R609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr"/>
@@ -15362,6 +16329,7 @@
       <c r="O610" t="inlineStr"/>
       <c r="P610" t="inlineStr"/>
       <c r="Q610" t="inlineStr"/>
+      <c r="R610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr"/>
@@ -15381,6 +16349,7 @@
       <c r="O611" t="inlineStr"/>
       <c r="P611" t="inlineStr"/>
       <c r="Q611" t="inlineStr"/>
+      <c r="R611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr"/>
@@ -15400,6 +16369,7 @@
       <c r="O612" t="inlineStr"/>
       <c r="P612" t="inlineStr"/>
       <c r="Q612" t="inlineStr"/>
+      <c r="R612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr"/>
@@ -15419,6 +16389,7 @@
       <c r="O613" t="inlineStr"/>
       <c r="P613" t="inlineStr"/>
       <c r="Q613" t="inlineStr"/>
+      <c r="R613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr"/>
@@ -15438,6 +16409,7 @@
       <c r="O614" t="inlineStr"/>
       <c r="P614" t="inlineStr"/>
       <c r="Q614" t="inlineStr"/>
+      <c r="R614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr"/>
@@ -15457,6 +16429,7 @@
       <c r="O615" t="inlineStr"/>
       <c r="P615" t="inlineStr"/>
       <c r="Q615" t="inlineStr"/>
+      <c r="R615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr"/>
@@ -15476,6 +16449,7 @@
       <c r="O616" t="inlineStr"/>
       <c r="P616" t="inlineStr"/>
       <c r="Q616" t="inlineStr"/>
+      <c r="R616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr"/>
@@ -15495,6 +16469,7 @@
       <c r="O617" t="inlineStr"/>
       <c r="P617" t="inlineStr"/>
       <c r="Q617" t="inlineStr"/>
+      <c r="R617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr"/>
@@ -15514,6 +16489,7 @@
       <c r="O618" t="inlineStr"/>
       <c r="P618" t="inlineStr"/>
       <c r="Q618" t="inlineStr"/>
+      <c r="R618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr"/>
@@ -15533,6 +16509,7 @@
       <c r="O619" t="inlineStr"/>
       <c r="P619" t="inlineStr"/>
       <c r="Q619" t="inlineStr"/>
+      <c r="R619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr"/>
@@ -15552,6 +16529,7 @@
       <c r="O620" t="inlineStr"/>
       <c r="P620" t="inlineStr"/>
       <c r="Q620" t="inlineStr"/>
+      <c r="R620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr"/>
@@ -15571,6 +16549,7 @@
       <c r="O621" t="inlineStr"/>
       <c r="P621" t="inlineStr"/>
       <c r="Q621" t="inlineStr"/>
+      <c r="R621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr"/>
@@ -15590,6 +16569,7 @@
       <c r="O622" t="inlineStr"/>
       <c r="P622" t="inlineStr"/>
       <c r="Q622" t="inlineStr"/>
+      <c r="R622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr"/>
@@ -15609,6 +16589,7 @@
       <c r="O623" t="inlineStr"/>
       <c r="P623" t="inlineStr"/>
       <c r="Q623" t="inlineStr"/>
+      <c r="R623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr"/>
@@ -15628,6 +16609,7 @@
       <c r="O624" t="inlineStr"/>
       <c r="P624" t="inlineStr"/>
       <c r="Q624" t="inlineStr"/>
+      <c r="R624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr"/>
@@ -15647,6 +16629,7 @@
       <c r="O625" t="inlineStr"/>
       <c r="P625" t="inlineStr"/>
       <c r="Q625" t="inlineStr"/>
+      <c r="R625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr"/>
@@ -15666,6 +16649,7 @@
       <c r="O626" t="inlineStr"/>
       <c r="P626" t="inlineStr"/>
       <c r="Q626" t="inlineStr"/>
+      <c r="R626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr"/>
@@ -15685,6 +16669,7 @@
       <c r="O627" t="inlineStr"/>
       <c r="P627" t="inlineStr"/>
       <c r="Q627" t="inlineStr"/>
+      <c r="R627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr"/>
@@ -15704,6 +16689,7 @@
       <c r="O628" t="inlineStr"/>
       <c r="P628" t="inlineStr"/>
       <c r="Q628" t="inlineStr"/>
+      <c r="R628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr"/>
@@ -15723,6 +16709,7 @@
       <c r="O629" t="inlineStr"/>
       <c r="P629" t="inlineStr"/>
       <c r="Q629" t="inlineStr"/>
+      <c r="R629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr"/>
@@ -15742,6 +16729,7 @@
       <c r="O630" t="inlineStr"/>
       <c r="P630" t="inlineStr"/>
       <c r="Q630" t="inlineStr"/>
+      <c r="R630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr"/>
@@ -15761,6 +16749,7 @@
       <c r="O631" t="inlineStr"/>
       <c r="P631" t="inlineStr"/>
       <c r="Q631" t="inlineStr"/>
+      <c r="R631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr"/>
@@ -15780,6 +16769,7 @@
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="inlineStr"/>
       <c r="Q632" t="inlineStr"/>
+      <c r="R632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr"/>
@@ -15799,6 +16789,7 @@
       <c r="O633" t="inlineStr"/>
       <c r="P633" t="inlineStr"/>
       <c r="Q633" t="inlineStr"/>
+      <c r="R633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr"/>
@@ -15818,6 +16809,7 @@
       <c r="O634" t="inlineStr"/>
       <c r="P634" t="inlineStr"/>
       <c r="Q634" t="inlineStr"/>
+      <c r="R634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr"/>
@@ -15837,6 +16829,7 @@
       <c r="O635" t="inlineStr"/>
       <c r="P635" t="inlineStr"/>
       <c r="Q635" t="inlineStr"/>
+      <c r="R635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr"/>
@@ -15856,6 +16849,7 @@
       <c r="O636" t="inlineStr"/>
       <c r="P636" t="inlineStr"/>
       <c r="Q636" t="inlineStr"/>
+      <c r="R636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr"/>
@@ -15875,6 +16869,7 @@
       <c r="O637" t="inlineStr"/>
       <c r="P637" t="inlineStr"/>
       <c r="Q637" t="inlineStr"/>
+      <c r="R637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr"/>
@@ -15894,6 +16889,7 @@
       <c r="O638" t="inlineStr"/>
       <c r="P638" t="inlineStr"/>
       <c r="Q638" t="inlineStr"/>
+      <c r="R638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr"/>
@@ -15913,6 +16909,7 @@
       <c r="O639" t="inlineStr"/>
       <c r="P639" t="inlineStr"/>
       <c r="Q639" t="inlineStr"/>
+      <c r="R639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr"/>
@@ -15932,6 +16929,7 @@
       <c r="O640" t="inlineStr"/>
       <c r="P640" t="inlineStr"/>
       <c r="Q640" t="inlineStr"/>
+      <c r="R640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr"/>
@@ -15951,6 +16949,7 @@
       <c r="O641" t="inlineStr"/>
       <c r="P641" t="inlineStr"/>
       <c r="Q641" t="inlineStr"/>
+      <c r="R641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr"/>
@@ -15970,6 +16969,7 @@
       <c r="O642" t="inlineStr"/>
       <c r="P642" t="inlineStr"/>
       <c r="Q642" t="inlineStr"/>
+      <c r="R642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr"/>
@@ -15989,6 +16989,7 @@
       <c r="O643" t="inlineStr"/>
       <c r="P643" t="inlineStr"/>
       <c r="Q643" t="inlineStr"/>
+      <c r="R643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr"/>
@@ -16008,6 +17009,7 @@
       <c r="O644" t="inlineStr"/>
       <c r="P644" t="inlineStr"/>
       <c r="Q644" t="inlineStr"/>
+      <c r="R644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr"/>
@@ -16027,6 +17029,7 @@
       <c r="O645" t="inlineStr"/>
       <c r="P645" t="inlineStr"/>
       <c r="Q645" t="inlineStr"/>
+      <c r="R645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr"/>
@@ -16046,6 +17049,7 @@
       <c r="O646" t="inlineStr"/>
       <c r="P646" t="inlineStr"/>
       <c r="Q646" t="inlineStr"/>
+      <c r="R646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr"/>
@@ -16065,6 +17069,7 @@
       <c r="O647" t="inlineStr"/>
       <c r="P647" t="inlineStr"/>
       <c r="Q647" t="inlineStr"/>
+      <c r="R647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr"/>
@@ -16084,6 +17089,7 @@
       <c r="O648" t="inlineStr"/>
       <c r="P648" t="inlineStr"/>
       <c r="Q648" t="inlineStr"/>
+      <c r="R648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr"/>
@@ -16103,6 +17109,7 @@
       <c r="O649" t="inlineStr"/>
       <c r="P649" t="inlineStr"/>
       <c r="Q649" t="inlineStr"/>
+      <c r="R649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr"/>
@@ -16122,6 +17129,7 @@
       <c r="O650" t="inlineStr"/>
       <c r="P650" t="inlineStr"/>
       <c r="Q650" t="inlineStr"/>
+      <c r="R650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr"/>
@@ -16141,6 +17149,7 @@
       <c r="O651" t="inlineStr"/>
       <c r="P651" t="inlineStr"/>
       <c r="Q651" t="inlineStr"/>
+      <c r="R651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr"/>
@@ -16160,6 +17169,7 @@
       <c r="O652" t="inlineStr"/>
       <c r="P652" t="inlineStr"/>
       <c r="Q652" t="inlineStr"/>
+      <c r="R652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr"/>
@@ -16179,6 +17189,7 @@
       <c r="O653" t="inlineStr"/>
       <c r="P653" t="inlineStr"/>
       <c r="Q653" t="inlineStr"/>
+      <c r="R653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr"/>
@@ -16198,6 +17209,7 @@
       <c r="O654" t="inlineStr"/>
       <c r="P654" t="inlineStr"/>
       <c r="Q654" t="inlineStr"/>
+      <c r="R654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr"/>
@@ -16217,6 +17229,7 @@
       <c r="O655" t="inlineStr"/>
       <c r="P655" t="inlineStr"/>
       <c r="Q655" t="inlineStr"/>
+      <c r="R655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr"/>
@@ -16236,6 +17249,7 @@
       <c r="O656" t="inlineStr"/>
       <c r="P656" t="inlineStr"/>
       <c r="Q656" t="inlineStr"/>
+      <c r="R656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr"/>
@@ -16255,6 +17269,7 @@
       <c r="O657" t="inlineStr"/>
       <c r="P657" t="inlineStr"/>
       <c r="Q657" t="inlineStr"/>
+      <c r="R657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr"/>
@@ -16274,6 +17289,7 @@
       <c r="O658" t="inlineStr"/>
       <c r="P658" t="inlineStr"/>
       <c r="Q658" t="inlineStr"/>
+      <c r="R658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr"/>
@@ -16293,6 +17309,7 @@
       <c r="O659" t="inlineStr"/>
       <c r="P659" t="inlineStr"/>
       <c r="Q659" t="inlineStr"/>
+      <c r="R659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr"/>
@@ -16312,6 +17329,7 @@
       <c r="O660" t="inlineStr"/>
       <c r="P660" t="inlineStr"/>
       <c r="Q660" t="inlineStr"/>
+      <c r="R660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr"/>
@@ -16331,6 +17349,7 @@
       <c r="O661" t="inlineStr"/>
       <c r="P661" t="inlineStr"/>
       <c r="Q661" t="inlineStr"/>
+      <c r="R661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr"/>
@@ -16350,6 +17369,7 @@
       <c r="O662" t="inlineStr"/>
       <c r="P662" t="inlineStr"/>
       <c r="Q662" t="inlineStr"/>
+      <c r="R662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr"/>
@@ -16369,6 +17389,7 @@
       <c r="O663" t="inlineStr"/>
       <c r="P663" t="inlineStr"/>
       <c r="Q663" t="inlineStr"/>
+      <c r="R663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr"/>
@@ -16388,6 +17409,7 @@
       <c r="O664" t="inlineStr"/>
       <c r="P664" t="inlineStr"/>
       <c r="Q664" t="inlineStr"/>
+      <c r="R664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr"/>
@@ -16407,6 +17429,7 @@
       <c r="O665" t="inlineStr"/>
       <c r="P665" t="inlineStr"/>
       <c r="Q665" t="inlineStr"/>
+      <c r="R665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr"/>
@@ -16426,6 +17449,7 @@
       <c r="O666" t="inlineStr"/>
       <c r="P666" t="inlineStr"/>
       <c r="Q666" t="inlineStr"/>
+      <c r="R666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr"/>
@@ -16445,6 +17469,7 @@
       <c r="O667" t="inlineStr"/>
       <c r="P667" t="inlineStr"/>
       <c r="Q667" t="inlineStr"/>
+      <c r="R667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr"/>
@@ -16464,6 +17489,7 @@
       <c r="O668" t="inlineStr"/>
       <c r="P668" t="inlineStr"/>
       <c r="Q668" t="inlineStr"/>
+      <c r="R668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr"/>
@@ -16483,6 +17509,7 @@
       <c r="O669" t="inlineStr"/>
       <c r="P669" t="inlineStr"/>
       <c r="Q669" t="inlineStr"/>
+      <c r="R669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr"/>
@@ -16502,6 +17529,7 @@
       <c r="O670" t="inlineStr"/>
       <c r="P670" t="inlineStr"/>
       <c r="Q670" t="inlineStr"/>
+      <c r="R670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr"/>
@@ -16521,6 +17549,7 @@
       <c r="O671" t="inlineStr"/>
       <c r="P671" t="inlineStr"/>
       <c r="Q671" t="inlineStr"/>
+      <c r="R671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr"/>
@@ -16540,6 +17569,7 @@
       <c r="O672" t="inlineStr"/>
       <c r="P672" t="inlineStr"/>
       <c r="Q672" t="inlineStr"/>
+      <c r="R672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr"/>
@@ -16559,6 +17589,7 @@
       <c r="O673" t="inlineStr"/>
       <c r="P673" t="inlineStr"/>
       <c r="Q673" t="inlineStr"/>
+      <c r="R673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr"/>
@@ -16578,6 +17609,7 @@
       <c r="O674" t="inlineStr"/>
       <c r="P674" t="inlineStr"/>
       <c r="Q674" t="inlineStr"/>
+      <c r="R674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr"/>
@@ -16597,6 +17629,7 @@
       <c r="O675" t="inlineStr"/>
       <c r="P675" t="inlineStr"/>
       <c r="Q675" t="inlineStr"/>
+      <c r="R675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr"/>
@@ -16616,6 +17649,7 @@
       <c r="O676" t="inlineStr"/>
       <c r="P676" t="inlineStr"/>
       <c r="Q676" t="inlineStr"/>
+      <c r="R676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr"/>
@@ -16635,6 +17669,7 @@
       <c r="O677" t="inlineStr"/>
       <c r="P677" t="inlineStr"/>
       <c r="Q677" t="inlineStr"/>
+      <c r="R677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr"/>
@@ -16654,6 +17689,7 @@
       <c r="O678" t="inlineStr"/>
       <c r="P678" t="inlineStr"/>
       <c r="Q678" t="inlineStr"/>
+      <c r="R678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr"/>
@@ -16673,6 +17709,7 @@
       <c r="O679" t="inlineStr"/>
       <c r="P679" t="inlineStr"/>
       <c r="Q679" t="inlineStr"/>
+      <c r="R679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr"/>
@@ -16692,6 +17729,7 @@
       <c r="O680" t="inlineStr"/>
       <c r="P680" t="inlineStr"/>
       <c r="Q680" t="inlineStr"/>
+      <c r="R680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr"/>
@@ -16711,6 +17749,7 @@
       <c r="O681" t="inlineStr"/>
       <c r="P681" t="inlineStr"/>
       <c r="Q681" t="inlineStr"/>
+      <c r="R681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr"/>
@@ -16730,6 +17769,7 @@
       <c r="O682" t="inlineStr"/>
       <c r="P682" t="inlineStr"/>
       <c r="Q682" t="inlineStr"/>
+      <c r="R682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr"/>
@@ -16749,6 +17789,7 @@
       <c r="O683" t="inlineStr"/>
       <c r="P683" t="inlineStr"/>
       <c r="Q683" t="inlineStr"/>
+      <c r="R683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr"/>
@@ -16768,6 +17809,7 @@
       <c r="O684" t="inlineStr"/>
       <c r="P684" t="inlineStr"/>
       <c r="Q684" t="inlineStr"/>
+      <c r="R684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr"/>
@@ -16787,6 +17829,7 @@
       <c r="O685" t="inlineStr"/>
       <c r="P685" t="inlineStr"/>
       <c r="Q685" t="inlineStr"/>
+      <c r="R685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr"/>
@@ -16806,6 +17849,7 @@
       <c r="O686" t="inlineStr"/>
       <c r="P686" t="inlineStr"/>
       <c r="Q686" t="inlineStr"/>
+      <c r="R686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr"/>
@@ -16825,6 +17869,7 @@
       <c r="O687" t="inlineStr"/>
       <c r="P687" t="inlineStr"/>
       <c r="Q687" t="inlineStr"/>
+      <c r="R687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr"/>
@@ -16844,6 +17889,7 @@
       <c r="O688" t="inlineStr"/>
       <c r="P688" t="inlineStr"/>
       <c r="Q688" t="inlineStr"/>
+      <c r="R688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr"/>
@@ -16863,6 +17909,7 @@
       <c r="O689" t="inlineStr"/>
       <c r="P689" t="inlineStr"/>
       <c r="Q689" t="inlineStr"/>
+      <c r="R689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr"/>
@@ -16882,6 +17929,7 @@
       <c r="O690" t="inlineStr"/>
       <c r="P690" t="inlineStr"/>
       <c r="Q690" t="inlineStr"/>
+      <c r="R690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr"/>
@@ -16901,6 +17949,7 @@
       <c r="O691" t="inlineStr"/>
       <c r="P691" t="inlineStr"/>
       <c r="Q691" t="inlineStr"/>
+      <c r="R691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr"/>
@@ -16920,6 +17969,7 @@
       <c r="O692" t="inlineStr"/>
       <c r="P692" t="inlineStr"/>
       <c r="Q692" t="inlineStr"/>
+      <c r="R692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr"/>
@@ -16939,6 +17989,7 @@
       <c r="O693" t="inlineStr"/>
       <c r="P693" t="inlineStr"/>
       <c r="Q693" t="inlineStr"/>
+      <c r="R693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr"/>
@@ -16958,6 +18009,7 @@
       <c r="O694" t="inlineStr"/>
       <c r="P694" t="inlineStr"/>
       <c r="Q694" t="inlineStr"/>
+      <c r="R694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr"/>
@@ -16977,6 +18029,7 @@
       <c r="O695" t="inlineStr"/>
       <c r="P695" t="inlineStr"/>
       <c r="Q695" t="inlineStr"/>
+      <c r="R695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr"/>
@@ -16996,6 +18049,7 @@
       <c r="O696" t="inlineStr"/>
       <c r="P696" t="inlineStr"/>
       <c r="Q696" t="inlineStr"/>
+      <c r="R696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr"/>
@@ -17015,6 +18069,7 @@
       <c r="O697" t="inlineStr"/>
       <c r="P697" t="inlineStr"/>
       <c r="Q697" t="inlineStr"/>
+      <c r="R697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr"/>
@@ -17034,6 +18089,7 @@
       <c r="O698" t="inlineStr"/>
       <c r="P698" t="inlineStr"/>
       <c r="Q698" t="inlineStr"/>
+      <c r="R698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr"/>
@@ -17053,6 +18109,7 @@
       <c r="O699" t="inlineStr"/>
       <c r="P699" t="inlineStr"/>
       <c r="Q699" t="inlineStr"/>
+      <c r="R699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr"/>
@@ -17072,6 +18129,7 @@
       <c r="O700" t="inlineStr"/>
       <c r="P700" t="inlineStr"/>
       <c r="Q700" t="inlineStr"/>
+      <c r="R700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr"/>
@@ -17091,6 +18149,7 @@
       <c r="O701" t="inlineStr"/>
       <c r="P701" t="inlineStr"/>
       <c r="Q701" t="inlineStr"/>
+      <c r="R701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr"/>
@@ -17110,6 +18169,7 @@
       <c r="O702" t="inlineStr"/>
       <c r="P702" t="inlineStr"/>
       <c r="Q702" t="inlineStr"/>
+      <c r="R702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr"/>
@@ -17129,6 +18189,7 @@
       <c r="O703" t="inlineStr"/>
       <c r="P703" t="inlineStr"/>
       <c r="Q703" t="inlineStr"/>
+      <c r="R703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr"/>
@@ -17148,6 +18209,7 @@
       <c r="O704" t="inlineStr"/>
       <c r="P704" t="inlineStr"/>
       <c r="Q704" t="inlineStr"/>
+      <c r="R704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr"/>
@@ -17167,6 +18229,7 @@
       <c r="O705" t="inlineStr"/>
       <c r="P705" t="inlineStr"/>
       <c r="Q705" t="inlineStr"/>
+      <c r="R705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr"/>
@@ -17186,6 +18249,7 @@
       <c r="O706" t="inlineStr"/>
       <c r="P706" t="inlineStr"/>
       <c r="Q706" t="inlineStr"/>
+      <c r="R706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr"/>
@@ -17205,6 +18269,7 @@
       <c r="O707" t="inlineStr"/>
       <c r="P707" t="inlineStr"/>
       <c r="Q707" t="inlineStr"/>
+      <c r="R707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr"/>
@@ -17224,6 +18289,7 @@
       <c r="O708" t="inlineStr"/>
       <c r="P708" t="inlineStr"/>
       <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr"/>
@@ -17243,6 +18309,7 @@
       <c r="O709" t="inlineStr"/>
       <c r="P709" t="inlineStr"/>
       <c r="Q709" t="inlineStr"/>
+      <c r="R709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr"/>
@@ -17262,6 +18329,7 @@
       <c r="O710" t="inlineStr"/>
       <c r="P710" t="inlineStr"/>
       <c r="Q710" t="inlineStr"/>
+      <c r="R710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr"/>
@@ -17281,6 +18349,7 @@
       <c r="O711" t="inlineStr"/>
       <c r="P711" t="inlineStr"/>
       <c r="Q711" t="inlineStr"/>
+      <c r="R711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr"/>
@@ -17300,6 +18369,7 @@
       <c r="O712" t="inlineStr"/>
       <c r="P712" t="inlineStr"/>
       <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr"/>
@@ -17319,6 +18389,7 @@
       <c r="O713" t="inlineStr"/>
       <c r="P713" t="inlineStr"/>
       <c r="Q713" t="inlineStr"/>
+      <c r="R713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr"/>
@@ -17338,6 +18409,7 @@
       <c r="O714" t="inlineStr"/>
       <c r="P714" t="inlineStr"/>
       <c r="Q714" t="inlineStr"/>
+      <c r="R714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr"/>
@@ -17357,6 +18429,7 @@
       <c r="O715" t="inlineStr"/>
       <c r="P715" t="inlineStr"/>
       <c r="Q715" t="inlineStr"/>
+      <c r="R715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr"/>
@@ -17376,6 +18449,7 @@
       <c r="O716" t="inlineStr"/>
       <c r="P716" t="inlineStr"/>
       <c r="Q716" t="inlineStr"/>
+      <c r="R716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr"/>
@@ -17395,6 +18469,7 @@
       <c r="O717" t="inlineStr"/>
       <c r="P717" t="inlineStr"/>
       <c r="Q717" t="inlineStr"/>
+      <c r="R717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr"/>
@@ -17414,6 +18489,7 @@
       <c r="O718" t="inlineStr"/>
       <c r="P718" t="inlineStr"/>
       <c r="Q718" t="inlineStr"/>
+      <c r="R718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr"/>
@@ -17433,6 +18509,7 @@
       <c r="O719" t="inlineStr"/>
       <c r="P719" t="inlineStr"/>
       <c r="Q719" t="inlineStr"/>
+      <c r="R719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr"/>
@@ -17452,6 +18529,7 @@
       <c r="O720" t="inlineStr"/>
       <c r="P720" t="inlineStr"/>
       <c r="Q720" t="inlineStr"/>
+      <c r="R720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr"/>
@@ -17471,6 +18549,7 @@
       <c r="O721" t="inlineStr"/>
       <c r="P721" t="inlineStr"/>
       <c r="Q721" t="inlineStr"/>
+      <c r="R721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr"/>
@@ -17490,6 +18569,7 @@
       <c r="O722" t="inlineStr"/>
       <c r="P722" t="inlineStr"/>
       <c r="Q722" t="inlineStr"/>
+      <c r="R722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr"/>
@@ -17509,6 +18589,7 @@
       <c r="O723" t="inlineStr"/>
       <c r="P723" t="inlineStr"/>
       <c r="Q723" t="inlineStr"/>
+      <c r="R723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr"/>
@@ -17528,6 +18609,7 @@
       <c r="O724" t="inlineStr"/>
       <c r="P724" t="inlineStr"/>
       <c r="Q724" t="inlineStr"/>
+      <c r="R724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr"/>
@@ -17547,6 +18629,7 @@
       <c r="O725" t="inlineStr"/>
       <c r="P725" t="inlineStr"/>
       <c r="Q725" t="inlineStr"/>
+      <c r="R725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr"/>
@@ -17566,6 +18649,7 @@
       <c r="O726" t="inlineStr"/>
       <c r="P726" t="inlineStr"/>
       <c r="Q726" t="inlineStr"/>
+      <c r="R726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr"/>
@@ -17585,6 +18669,7 @@
       <c r="O727" t="inlineStr"/>
       <c r="P727" t="inlineStr"/>
       <c r="Q727" t="inlineStr"/>
+      <c r="R727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr"/>
@@ -17604,6 +18689,7 @@
       <c r="O728" t="inlineStr"/>
       <c r="P728" t="inlineStr"/>
       <c r="Q728" t="inlineStr"/>
+      <c r="R728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr"/>
@@ -17623,6 +18709,7 @@
       <c r="O729" t="inlineStr"/>
       <c r="P729" t="inlineStr"/>
       <c r="Q729" t="inlineStr"/>
+      <c r="R729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr"/>
@@ -17642,6 +18729,7 @@
       <c r="O730" t="inlineStr"/>
       <c r="P730" t="inlineStr"/>
       <c r="Q730" t="inlineStr"/>
+      <c r="R730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr"/>
@@ -17661,6 +18749,7 @@
       <c r="O731" t="inlineStr"/>
       <c r="P731" t="inlineStr"/>
       <c r="Q731" t="inlineStr"/>
+      <c r="R731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr"/>
@@ -17680,6 +18769,7 @@
       <c r="O732" t="inlineStr"/>
       <c r="P732" t="inlineStr"/>
       <c r="Q732" t="inlineStr"/>
+      <c r="R732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr"/>
@@ -17699,6 +18789,7 @@
       <c r="O733" t="inlineStr"/>
       <c r="P733" t="inlineStr"/>
       <c r="Q733" t="inlineStr"/>
+      <c r="R733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr"/>
@@ -17718,6 +18809,7 @@
       <c r="O734" t="inlineStr"/>
       <c r="P734" t="inlineStr"/>
       <c r="Q734" t="inlineStr"/>
+      <c r="R734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr"/>
@@ -17737,6 +18829,7 @@
       <c r="O735" t="inlineStr"/>
       <c r="P735" t="inlineStr"/>
       <c r="Q735" t="inlineStr"/>
+      <c r="R735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr"/>
@@ -17756,6 +18849,7 @@
       <c r="O736" t="inlineStr"/>
       <c r="P736" t="inlineStr"/>
       <c r="Q736" t="inlineStr"/>
+      <c r="R736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr"/>
@@ -17775,6 +18869,7 @@
       <c r="O737" t="inlineStr"/>
       <c r="P737" t="inlineStr"/>
       <c r="Q737" t="inlineStr"/>
+      <c r="R737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr"/>
@@ -17794,6 +18889,7 @@
       <c r="O738" t="inlineStr"/>
       <c r="P738" t="inlineStr"/>
       <c r="Q738" t="inlineStr"/>
+      <c r="R738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr"/>
@@ -17813,6 +18909,7 @@
       <c r="O739" t="inlineStr"/>
       <c r="P739" t="inlineStr"/>
       <c r="Q739" t="inlineStr"/>
+      <c r="R739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr"/>
@@ -17832,6 +18929,7 @@
       <c r="O740" t="inlineStr"/>
       <c r="P740" t="inlineStr"/>
       <c r="Q740" t="inlineStr"/>
+      <c r="R740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr"/>
@@ -17851,6 +18949,7 @@
       <c r="O741" t="inlineStr"/>
       <c r="P741" t="inlineStr"/>
       <c r="Q741" t="inlineStr"/>
+      <c r="R741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr"/>
@@ -17870,6 +18969,7 @@
       <c r="O742" t="inlineStr"/>
       <c r="P742" t="inlineStr"/>
       <c r="Q742" t="inlineStr"/>
+      <c r="R742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr"/>
@@ -17889,6 +18989,7 @@
       <c r="O743" t="inlineStr"/>
       <c r="P743" t="inlineStr"/>
       <c r="Q743" t="inlineStr"/>
+      <c r="R743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr"/>
@@ -17908,6 +19009,7 @@
       <c r="O744" t="inlineStr"/>
       <c r="P744" t="inlineStr"/>
       <c r="Q744" t="inlineStr"/>
+      <c r="R744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr"/>
@@ -17927,6 +19029,7 @@
       <c r="O745" t="inlineStr"/>
       <c r="P745" t="inlineStr"/>
       <c r="Q745" t="inlineStr"/>
+      <c r="R745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr"/>
@@ -17946,6 +19049,7 @@
       <c r="O746" t="inlineStr"/>
       <c r="P746" t="inlineStr"/>
       <c r="Q746" t="inlineStr"/>
+      <c r="R746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr"/>
@@ -17965,6 +19069,7 @@
       <c r="O747" t="inlineStr"/>
       <c r="P747" t="inlineStr"/>
       <c r="Q747" t="inlineStr"/>
+      <c r="R747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr"/>
@@ -17984,6 +19089,7 @@
       <c r="O748" t="inlineStr"/>
       <c r="P748" t="inlineStr"/>
       <c r="Q748" t="inlineStr"/>
+      <c r="R748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr"/>
@@ -18003,6 +19109,7 @@
       <c r="O749" t="inlineStr"/>
       <c r="P749" t="inlineStr"/>
       <c r="Q749" t="inlineStr"/>
+      <c r="R749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr"/>
@@ -18022,6 +19129,7 @@
       <c r="O750" t="inlineStr"/>
       <c r="P750" t="inlineStr"/>
       <c r="Q750" t="inlineStr"/>
+      <c r="R750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr"/>
@@ -18041,6 +19149,7 @@
       <c r="O751" t="inlineStr"/>
       <c r="P751" t="inlineStr"/>
       <c r="Q751" t="inlineStr"/>
+      <c r="R751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr"/>
@@ -18060,6 +19169,7 @@
       <c r="O752" t="inlineStr"/>
       <c r="P752" t="inlineStr"/>
       <c r="Q752" t="inlineStr"/>
+      <c r="R752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr"/>
@@ -18079,6 +19189,7 @@
       <c r="O753" t="inlineStr"/>
       <c r="P753" t="inlineStr"/>
       <c r="Q753" t="inlineStr"/>
+      <c r="R753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr"/>
@@ -18098,6 +19209,7 @@
       <c r="O754" t="inlineStr"/>
       <c r="P754" t="inlineStr"/>
       <c r="Q754" t="inlineStr"/>
+      <c r="R754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr"/>
@@ -18117,6 +19229,7 @@
       <c r="O755" t="inlineStr"/>
       <c r="P755" t="inlineStr"/>
       <c r="Q755" t="inlineStr"/>
+      <c r="R755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr"/>
@@ -18136,6 +19249,7 @@
       <c r="O756" t="inlineStr"/>
       <c r="P756" t="inlineStr"/>
       <c r="Q756" t="inlineStr"/>
+      <c r="R756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr"/>
@@ -18155,6 +19269,7 @@
       <c r="O757" t="inlineStr"/>
       <c r="P757" t="inlineStr"/>
       <c r="Q757" t="inlineStr"/>
+      <c r="R757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr"/>
@@ -18174,6 +19289,7 @@
       <c r="O758" t="inlineStr"/>
       <c r="P758" t="inlineStr"/>
       <c r="Q758" t="inlineStr"/>
+      <c r="R758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr"/>
@@ -18193,6 +19309,7 @@
       <c r="O759" t="inlineStr"/>
       <c r="P759" t="inlineStr"/>
       <c r="Q759" t="inlineStr"/>
+      <c r="R759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr"/>
@@ -18212,6 +19329,7 @@
       <c r="O760" t="inlineStr"/>
       <c r="P760" t="inlineStr"/>
       <c r="Q760" t="inlineStr"/>
+      <c r="R760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr"/>
@@ -18231,6 +19349,7 @@
       <c r="O761" t="inlineStr"/>
       <c r="P761" t="inlineStr"/>
       <c r="Q761" t="inlineStr"/>
+      <c r="R761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr"/>
@@ -18250,6 +19369,7 @@
       <c r="O762" t="inlineStr"/>
       <c r="P762" t="inlineStr"/>
       <c r="Q762" t="inlineStr"/>
+      <c r="R762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr"/>
@@ -18269,6 +19389,7 @@
       <c r="O763" t="inlineStr"/>
       <c r="P763" t="inlineStr"/>
       <c r="Q763" t="inlineStr"/>
+      <c r="R763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr"/>
@@ -18288,6 +19409,7 @@
       <c r="O764" t="inlineStr"/>
       <c r="P764" t="inlineStr"/>
       <c r="Q764" t="inlineStr"/>
+      <c r="R764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr"/>
@@ -18307,6 +19429,7 @@
       <c r="O765" t="inlineStr"/>
       <c r="P765" t="inlineStr"/>
       <c r="Q765" t="inlineStr"/>
+      <c r="R765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr"/>
@@ -18326,6 +19449,7 @@
       <c r="O766" t="inlineStr"/>
       <c r="P766" t="inlineStr"/>
       <c r="Q766" t="inlineStr"/>
+      <c r="R766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr"/>
@@ -18345,6 +19469,7 @@
       <c r="O767" t="inlineStr"/>
       <c r="P767" t="inlineStr"/>
       <c r="Q767" t="inlineStr"/>
+      <c r="R767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr"/>
@@ -18364,6 +19489,7 @@
       <c r="O768" t="inlineStr"/>
       <c r="P768" t="inlineStr"/>
       <c r="Q768" t="inlineStr"/>
+      <c r="R768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr"/>
@@ -18383,6 +19509,7 @@
       <c r="O769" t="inlineStr"/>
       <c r="P769" t="inlineStr"/>
       <c r="Q769" t="inlineStr"/>
+      <c r="R769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr"/>
@@ -18402,6 +19529,7 @@
       <c r="O770" t="inlineStr"/>
       <c r="P770" t="inlineStr"/>
       <c r="Q770" t="inlineStr"/>
+      <c r="R770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr"/>
@@ -18421,6 +19549,7 @@
       <c r="O771" t="inlineStr"/>
       <c r="P771" t="inlineStr"/>
       <c r="Q771" t="inlineStr"/>
+      <c r="R771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr"/>
@@ -18440,6 +19569,7 @@
       <c r="O772" t="inlineStr"/>
       <c r="P772" t="inlineStr"/>
       <c r="Q772" t="inlineStr"/>
+      <c r="R772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr"/>
@@ -18459,6 +19589,7 @@
       <c r="O773" t="inlineStr"/>
       <c r="P773" t="inlineStr"/>
       <c r="Q773" t="inlineStr"/>
+      <c r="R773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr"/>
@@ -18478,6 +19609,7 @@
       <c r="O774" t="inlineStr"/>
       <c r="P774" t="inlineStr"/>
       <c r="Q774" t="inlineStr"/>
+      <c r="R774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr"/>
@@ -18497,6 +19629,7 @@
       <c r="O775" t="inlineStr"/>
       <c r="P775" t="inlineStr"/>
       <c r="Q775" t="inlineStr"/>
+      <c r="R775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr"/>
@@ -18516,6 +19649,7 @@
       <c r="O776" t="inlineStr"/>
       <c r="P776" t="inlineStr"/>
       <c r="Q776" t="inlineStr"/>
+      <c r="R776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr"/>
@@ -18535,6 +19669,7 @@
       <c r="O777" t="inlineStr"/>
       <c r="P777" t="inlineStr"/>
       <c r="Q777" t="inlineStr"/>
+      <c r="R777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr"/>
@@ -18554,6 +19689,7 @@
       <c r="O778" t="inlineStr"/>
       <c r="P778" t="inlineStr"/>
       <c r="Q778" t="inlineStr"/>
+      <c r="R778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr"/>
@@ -18573,6 +19709,7 @@
       <c r="O779" t="inlineStr"/>
       <c r="P779" t="inlineStr"/>
       <c r="Q779" t="inlineStr"/>
+      <c r="R779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr"/>
@@ -18592,6 +19729,7 @@
       <c r="O780" t="inlineStr"/>
       <c r="P780" t="inlineStr"/>
       <c r="Q780" t="inlineStr"/>
+      <c r="R780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr"/>
@@ -18611,6 +19749,7 @@
       <c r="O781" t="inlineStr"/>
       <c r="P781" t="inlineStr"/>
       <c r="Q781" t="inlineStr"/>
+      <c r="R781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr"/>
@@ -18630,6 +19769,7 @@
       <c r="O782" t="inlineStr"/>
       <c r="P782" t="inlineStr"/>
       <c r="Q782" t="inlineStr"/>
+      <c r="R782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr"/>
@@ -18649,6 +19789,7 @@
       <c r="O783" t="inlineStr"/>
       <c r="P783" t="inlineStr"/>
       <c r="Q783" t="inlineStr"/>
+      <c r="R783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr"/>
@@ -18668,6 +19809,7 @@
       <c r="O784" t="inlineStr"/>
       <c r="P784" t="inlineStr"/>
       <c r="Q784" t="inlineStr"/>
+      <c r="R784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr"/>
@@ -18687,6 +19829,7 @@
       <c r="O785" t="inlineStr"/>
       <c r="P785" t="inlineStr"/>
       <c r="Q785" t="inlineStr"/>
+      <c r="R785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr"/>
@@ -18706,6 +19849,7 @@
       <c r="O786" t="inlineStr"/>
       <c r="P786" t="inlineStr"/>
       <c r="Q786" t="inlineStr"/>
+      <c r="R786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr"/>
@@ -18725,6 +19869,7 @@
       <c r="O787" t="inlineStr"/>
       <c r="P787" t="inlineStr"/>
       <c r="Q787" t="inlineStr"/>
+      <c r="R787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr"/>
@@ -18744,6 +19889,7 @@
       <c r="O788" t="inlineStr"/>
       <c r="P788" t="inlineStr"/>
       <c r="Q788" t="inlineStr"/>
+      <c r="R788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr"/>
@@ -18763,6 +19909,7 @@
       <c r="O789" t="inlineStr"/>
       <c r="P789" t="inlineStr"/>
       <c r="Q789" t="inlineStr"/>
+      <c r="R789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr"/>
@@ -18782,6 +19929,7 @@
       <c r="O790" t="inlineStr"/>
       <c r="P790" t="inlineStr"/>
       <c r="Q790" t="inlineStr"/>
+      <c r="R790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr"/>
@@ -18801,6 +19949,7 @@
       <c r="O791" t="inlineStr"/>
       <c r="P791" t="inlineStr"/>
       <c r="Q791" t="inlineStr"/>
+      <c r="R791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr"/>
@@ -18820,6 +19969,7 @@
       <c r="O792" t="inlineStr"/>
       <c r="P792" t="inlineStr"/>
       <c r="Q792" t="inlineStr"/>
+      <c r="R792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr"/>
@@ -18839,6 +19989,7 @@
       <c r="O793" t="inlineStr"/>
       <c r="P793" t="inlineStr"/>
       <c r="Q793" t="inlineStr"/>
+      <c r="R793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr"/>
@@ -18858,6 +20009,7 @@
       <c r="O794" t="inlineStr"/>
       <c r="P794" t="inlineStr"/>
       <c r="Q794" t="inlineStr"/>
+      <c r="R794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr"/>
@@ -18877,6 +20029,7 @@
       <c r="O795" t="inlineStr"/>
       <c r="P795" t="inlineStr"/>
       <c r="Q795" t="inlineStr"/>
+      <c r="R795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr"/>
@@ -18896,6 +20049,7 @@
       <c r="O796" t="inlineStr"/>
       <c r="P796" t="inlineStr"/>
       <c r="Q796" t="inlineStr"/>
+      <c r="R796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr"/>
@@ -18915,6 +20069,7 @@
       <c r="O797" t="inlineStr"/>
       <c r="P797" t="inlineStr"/>
       <c r="Q797" t="inlineStr"/>
+      <c r="R797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr"/>
@@ -18934,6 +20089,7 @@
       <c r="O798" t="inlineStr"/>
       <c r="P798" t="inlineStr"/>
       <c r="Q798" t="inlineStr"/>
+      <c r="R798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr"/>
@@ -18953,6 +20109,7 @@
       <c r="O799" t="inlineStr"/>
       <c r="P799" t="inlineStr"/>
       <c r="Q799" t="inlineStr"/>
+      <c r="R799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr"/>
@@ -18972,6 +20129,7 @@
       <c r="O800" t="inlineStr"/>
       <c r="P800" t="inlineStr"/>
       <c r="Q800" t="inlineStr"/>
+      <c r="R800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr"/>
@@ -18991,6 +20149,7 @@
       <c r="O801" t="inlineStr"/>
       <c r="P801" t="inlineStr"/>
       <c r="Q801" t="inlineStr"/>
+      <c r="R801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr"/>
@@ -19010,6 +20169,7 @@
       <c r="O802" t="inlineStr"/>
       <c r="P802" t="inlineStr"/>
       <c r="Q802" t="inlineStr"/>
+      <c r="R802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr"/>
@@ -19029,6 +20189,7 @@
       <c r="O803" t="inlineStr"/>
       <c r="P803" t="inlineStr"/>
       <c r="Q803" t="inlineStr"/>
+      <c r="R803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr"/>
@@ -19048,6 +20209,7 @@
       <c r="O804" t="inlineStr"/>
       <c r="P804" t="inlineStr"/>
       <c r="Q804" t="inlineStr"/>
+      <c r="R804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr"/>
@@ -19067,6 +20229,7 @@
       <c r="O805" t="inlineStr"/>
       <c r="P805" t="inlineStr"/>
       <c r="Q805" t="inlineStr"/>
+      <c r="R805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr"/>
@@ -19086,6 +20249,7 @@
       <c r="O806" t="inlineStr"/>
       <c r="P806" t="inlineStr"/>
       <c r="Q806" t="inlineStr"/>
+      <c r="R806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr"/>
@@ -19105,6 +20269,7 @@
       <c r="O807" t="inlineStr"/>
       <c r="P807" t="inlineStr"/>
       <c r="Q807" t="inlineStr"/>
+      <c r="R807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr"/>
@@ -19124,6 +20289,7 @@
       <c r="O808" t="inlineStr"/>
       <c r="P808" t="inlineStr"/>
       <c r="Q808" t="inlineStr"/>
+      <c r="R808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr"/>
@@ -19143,6 +20309,7 @@
       <c r="O809" t="inlineStr"/>
       <c r="P809" t="inlineStr"/>
       <c r="Q809" t="inlineStr"/>
+      <c r="R809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr"/>
@@ -19162,6 +20329,7 @@
       <c r="O810" t="inlineStr"/>
       <c r="P810" t="inlineStr"/>
       <c r="Q810" t="inlineStr"/>
+      <c r="R810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr"/>
@@ -19181,6 +20349,7 @@
       <c r="O811" t="inlineStr"/>
       <c r="P811" t="inlineStr"/>
       <c r="Q811" t="inlineStr"/>
+      <c r="R811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr"/>
@@ -19200,6 +20369,7 @@
       <c r="O812" t="inlineStr"/>
       <c r="P812" t="inlineStr"/>
       <c r="Q812" t="inlineStr"/>
+      <c r="R812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr"/>
@@ -19219,6 +20389,7 @@
       <c r="O813" t="inlineStr"/>
       <c r="P813" t="inlineStr"/>
       <c r="Q813" t="inlineStr"/>
+      <c r="R813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr"/>
@@ -19238,6 +20409,7 @@
       <c r="O814" t="inlineStr"/>
       <c r="P814" t="inlineStr"/>
       <c r="Q814" t="inlineStr"/>
+      <c r="R814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr"/>
@@ -19257,6 +20429,7 @@
       <c r="O815" t="inlineStr"/>
       <c r="P815" t="inlineStr"/>
       <c r="Q815" t="inlineStr"/>
+      <c r="R815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr"/>
@@ -19276,6 +20449,7 @@
       <c r="O816" t="inlineStr"/>
       <c r="P816" t="inlineStr"/>
       <c r="Q816" t="inlineStr"/>
+      <c r="R816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr"/>
@@ -19295,6 +20469,7 @@
       <c r="O817" t="inlineStr"/>
       <c r="P817" t="inlineStr"/>
       <c r="Q817" t="inlineStr"/>
+      <c r="R817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr"/>
@@ -19314,6 +20489,7 @@
       <c r="O818" t="inlineStr"/>
       <c r="P818" t="inlineStr"/>
       <c r="Q818" t="inlineStr"/>
+      <c r="R818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr"/>
@@ -19333,6 +20509,7 @@
       <c r="O819" t="inlineStr"/>
       <c r="P819" t="inlineStr"/>
       <c r="Q819" t="inlineStr"/>
+      <c r="R819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr"/>
@@ -19352,6 +20529,7 @@
       <c r="O820" t="inlineStr"/>
       <c r="P820" t="inlineStr"/>
       <c r="Q820" t="inlineStr"/>
+      <c r="R820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr"/>
@@ -19371,6 +20549,7 @@
       <c r="O821" t="inlineStr"/>
       <c r="P821" t="inlineStr"/>
       <c r="Q821" t="inlineStr"/>
+      <c r="R821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr"/>
@@ -19390,6 +20569,7 @@
       <c r="O822" t="inlineStr"/>
       <c r="P822" t="inlineStr"/>
       <c r="Q822" t="inlineStr"/>
+      <c r="R822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr"/>
@@ -19409,6 +20589,7 @@
       <c r="O823" t="inlineStr"/>
       <c r="P823" t="inlineStr"/>
       <c r="Q823" t="inlineStr"/>
+      <c r="R823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr"/>
@@ -19428,6 +20609,7 @@
       <c r="O824" t="inlineStr"/>
       <c r="P824" t="inlineStr"/>
       <c r="Q824" t="inlineStr"/>
+      <c r="R824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr"/>
@@ -19447,6 +20629,7 @@
       <c r="O825" t="inlineStr"/>
       <c r="P825" t="inlineStr"/>
       <c r="Q825" t="inlineStr"/>
+      <c r="R825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr"/>
@@ -19466,6 +20649,7 @@
       <c r="O826" t="inlineStr"/>
       <c r="P826" t="inlineStr"/>
       <c r="Q826" t="inlineStr"/>
+      <c r="R826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr"/>
@@ -19485,6 +20669,7 @@
       <c r="O827" t="inlineStr"/>
       <c r="P827" t="inlineStr"/>
       <c r="Q827" t="inlineStr"/>
+      <c r="R827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr"/>
@@ -19504,6 +20689,7 @@
       <c r="O828" t="inlineStr"/>
       <c r="P828" t="inlineStr"/>
       <c r="Q828" t="inlineStr"/>
+      <c r="R828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr"/>
@@ -19523,6 +20709,7 @@
       <c r="O829" t="inlineStr"/>
       <c r="P829" t="inlineStr"/>
       <c r="Q829" t="inlineStr"/>
+      <c r="R829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr"/>
@@ -19542,6 +20729,7 @@
       <c r="O830" t="inlineStr"/>
       <c r="P830" t="inlineStr"/>
       <c r="Q830" t="inlineStr"/>
+      <c r="R830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr"/>
@@ -19561,6 +20749,7 @@
       <c r="O831" t="inlineStr"/>
       <c r="P831" t="inlineStr"/>
       <c r="Q831" t="inlineStr"/>
+      <c r="R831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr"/>
@@ -19580,6 +20769,7 @@
       <c r="O832" t="inlineStr"/>
       <c r="P832" t="inlineStr"/>
       <c r="Q832" t="inlineStr"/>
+      <c r="R832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr"/>
@@ -19599,6 +20789,7 @@
       <c r="O833" t="inlineStr"/>
       <c r="P833" t="inlineStr"/>
       <c r="Q833" t="inlineStr"/>
+      <c r="R833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr"/>
@@ -19618,6 +20809,7 @@
       <c r="O834" t="inlineStr"/>
       <c r="P834" t="inlineStr"/>
       <c r="Q834" t="inlineStr"/>
+      <c r="R834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr"/>
@@ -19637,6 +20829,7 @@
       <c r="O835" t="inlineStr"/>
       <c r="P835" t="inlineStr"/>
       <c r="Q835" t="inlineStr"/>
+      <c r="R835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr"/>
@@ -19656,6 +20849,7 @@
       <c r="O836" t="inlineStr"/>
       <c r="P836" t="inlineStr"/>
       <c r="Q836" t="inlineStr"/>
+      <c r="R836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr"/>
@@ -19675,6 +20869,7 @@
       <c r="O837" t="inlineStr"/>
       <c r="P837" t="inlineStr"/>
       <c r="Q837" t="inlineStr"/>
+      <c r="R837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr"/>
@@ -19694,6 +20889,7 @@
       <c r="O838" t="inlineStr"/>
       <c r="P838" t="inlineStr"/>
       <c r="Q838" t="inlineStr"/>
+      <c r="R838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr"/>
@@ -19713,6 +20909,7 @@
       <c r="O839" t="inlineStr"/>
       <c r="P839" t="inlineStr"/>
       <c r="Q839" t="inlineStr"/>
+      <c r="R839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr"/>
@@ -19732,6 +20929,7 @@
       <c r="O840" t="inlineStr"/>
       <c r="P840" t="inlineStr"/>
       <c r="Q840" t="inlineStr"/>
+      <c r="R840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr"/>
@@ -19751,6 +20949,7 @@
       <c r="O841" t="inlineStr"/>
       <c r="P841" t="inlineStr"/>
       <c r="Q841" t="inlineStr"/>
+      <c r="R841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr"/>
@@ -19770,6 +20969,7 @@
       <c r="O842" t="inlineStr"/>
       <c r="P842" t="inlineStr"/>
       <c r="Q842" t="inlineStr"/>
+      <c r="R842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr"/>
@@ -19789,6 +20989,7 @@
       <c r="O843" t="inlineStr"/>
       <c r="P843" t="inlineStr"/>
       <c r="Q843" t="inlineStr"/>
+      <c r="R843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr"/>
@@ -19808,6 +21009,7 @@
       <c r="O844" t="inlineStr"/>
       <c r="P844" t="inlineStr"/>
       <c r="Q844" t="inlineStr"/>
+      <c r="R844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr"/>
@@ -19827,6 +21029,7 @@
       <c r="O845" t="inlineStr"/>
       <c r="P845" t="inlineStr"/>
       <c r="Q845" t="inlineStr"/>
+      <c r="R845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr"/>
@@ -19846,6 +21049,7 @@
       <c r="O846" t="inlineStr"/>
       <c r="P846" t="inlineStr"/>
       <c r="Q846" t="inlineStr"/>
+      <c r="R846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr"/>
@@ -19865,6 +21069,7 @@
       <c r="O847" t="inlineStr"/>
       <c r="P847" t="inlineStr"/>
       <c r="Q847" t="inlineStr"/>
+      <c r="R847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr"/>
@@ -19884,6 +21089,7 @@
       <c r="O848" t="inlineStr"/>
       <c r="P848" t="inlineStr"/>
       <c r="Q848" t="inlineStr"/>
+      <c r="R848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr"/>
@@ -19903,6 +21109,7 @@
       <c r="O849" t="inlineStr"/>
       <c r="P849" t="inlineStr"/>
       <c r="Q849" t="inlineStr"/>
+      <c r="R849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr"/>
@@ -19922,6 +21129,7 @@
       <c r="O850" t="inlineStr"/>
       <c r="P850" t="inlineStr"/>
       <c r="Q850" t="inlineStr"/>
+      <c r="R850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr"/>
@@ -19941,6 +21149,7 @@
       <c r="O851" t="inlineStr"/>
       <c r="P851" t="inlineStr"/>
       <c r="Q851" t="inlineStr"/>
+      <c r="R851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr"/>
@@ -19960,6 +21169,7 @@
       <c r="O852" t="inlineStr"/>
       <c r="P852" t="inlineStr"/>
       <c r="Q852" t="inlineStr"/>
+      <c r="R852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr"/>
@@ -19979,6 +21189,7 @@
       <c r="O853" t="inlineStr"/>
       <c r="P853" t="inlineStr"/>
       <c r="Q853" t="inlineStr"/>
+      <c r="R853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr"/>
@@ -19998,6 +21209,7 @@
       <c r="O854" t="inlineStr"/>
       <c r="P854" t="inlineStr"/>
       <c r="Q854" t="inlineStr"/>
+      <c r="R854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr"/>
@@ -20017,6 +21229,7 @@
       <c r="O855" t="inlineStr"/>
       <c r="P855" t="inlineStr"/>
       <c r="Q855" t="inlineStr"/>
+      <c r="R855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr"/>
@@ -20036,6 +21249,7 @@
       <c r="O856" t="inlineStr"/>
       <c r="P856" t="inlineStr"/>
       <c r="Q856" t="inlineStr"/>
+      <c r="R856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr"/>
@@ -20055,6 +21269,7 @@
       <c r="O857" t="inlineStr"/>
       <c r="P857" t="inlineStr"/>
       <c r="Q857" t="inlineStr"/>
+      <c r="R857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr"/>
@@ -20074,6 +21289,7 @@
       <c r="O858" t="inlineStr"/>
       <c r="P858" t="inlineStr"/>
       <c r="Q858" t="inlineStr"/>
+      <c r="R858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr"/>
@@ -20093,6 +21309,7 @@
       <c r="O859" t="inlineStr"/>
       <c r="P859" t="inlineStr"/>
       <c r="Q859" t="inlineStr"/>
+      <c r="R859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr"/>
@@ -20112,6 +21329,7 @@
       <c r="O860" t="inlineStr"/>
       <c r="P860" t="inlineStr"/>
       <c r="Q860" t="inlineStr"/>
+      <c r="R860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr"/>
@@ -20131,6 +21349,7 @@
       <c r="O861" t="inlineStr"/>
       <c r="P861" t="inlineStr"/>
       <c r="Q861" t="inlineStr"/>
+      <c r="R861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr"/>
@@ -20150,6 +21369,7 @@
       <c r="O862" t="inlineStr"/>
       <c r="P862" t="inlineStr"/>
       <c r="Q862" t="inlineStr"/>
+      <c r="R862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr"/>
@@ -20169,6 +21389,7 @@
       <c r="O863" t="inlineStr"/>
       <c r="P863" t="inlineStr"/>
       <c r="Q863" t="inlineStr"/>
+      <c r="R863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr"/>
@@ -20188,6 +21409,7 @@
       <c r="O864" t="inlineStr"/>
       <c r="P864" t="inlineStr"/>
       <c r="Q864" t="inlineStr"/>
+      <c r="R864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr"/>
@@ -20207,6 +21429,7 @@
       <c r="O865" t="inlineStr"/>
       <c r="P865" t="inlineStr"/>
       <c r="Q865" t="inlineStr"/>
+      <c r="R865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr"/>
@@ -20226,6 +21449,7 @@
       <c r="O866" t="inlineStr"/>
       <c r="P866" t="inlineStr"/>
       <c r="Q866" t="inlineStr"/>
+      <c r="R866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr"/>
@@ -20245,6 +21469,7 @@
       <c r="O867" t="inlineStr"/>
       <c r="P867" t="inlineStr"/>
       <c r="Q867" t="inlineStr"/>
+      <c r="R867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr"/>
@@ -20264,6 +21489,7 @@
       <c r="O868" t="inlineStr"/>
       <c r="P868" t="inlineStr"/>
       <c r="Q868" t="inlineStr"/>
+      <c r="R868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr"/>
@@ -20283,6 +21509,7 @@
       <c r="O869" t="inlineStr"/>
       <c r="P869" t="inlineStr"/>
       <c r="Q869" t="inlineStr"/>
+      <c r="R869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr"/>
@@ -20302,6 +21529,7 @@
       <c r="O870" t="inlineStr"/>
       <c r="P870" t="inlineStr"/>
       <c r="Q870" t="inlineStr"/>
+      <c r="R870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr"/>
@@ -20321,6 +21549,7 @@
       <c r="O871" t="inlineStr"/>
       <c r="P871" t="inlineStr"/>
       <c r="Q871" t="inlineStr"/>
+      <c r="R871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr"/>
@@ -20340,6 +21569,7 @@
       <c r="O872" t="inlineStr"/>
       <c r="P872" t="inlineStr"/>
       <c r="Q872" t="inlineStr"/>
+      <c r="R872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr"/>
@@ -20359,6 +21589,7 @@
       <c r="O873" t="inlineStr"/>
       <c r="P873" t="inlineStr"/>
       <c r="Q873" t="inlineStr"/>
+      <c r="R873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr"/>
@@ -20378,6 +21609,7 @@
       <c r="O874" t="inlineStr"/>
       <c r="P874" t="inlineStr"/>
       <c r="Q874" t="inlineStr"/>
+      <c r="R874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr"/>
@@ -20397,6 +21629,7 @@
       <c r="O875" t="inlineStr"/>
       <c r="P875" t="inlineStr"/>
       <c r="Q875" t="inlineStr"/>
+      <c r="R875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr"/>
@@ -20416,6 +21649,7 @@
       <c r="O876" t="inlineStr"/>
       <c r="P876" t="inlineStr"/>
       <c r="Q876" t="inlineStr"/>
+      <c r="R876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr"/>
@@ -20435,6 +21669,7 @@
       <c r="O877" t="inlineStr"/>
       <c r="P877" t="inlineStr"/>
       <c r="Q877" t="inlineStr"/>
+      <c r="R877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr"/>
@@ -20454,6 +21689,7 @@
       <c r="O878" t="inlineStr"/>
       <c r="P878" t="inlineStr"/>
       <c r="Q878" t="inlineStr"/>
+      <c r="R878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr"/>
@@ -20473,6 +21709,7 @@
       <c r="O879" t="inlineStr"/>
       <c r="P879" t="inlineStr"/>
       <c r="Q879" t="inlineStr"/>
+      <c r="R879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr"/>
@@ -20492,6 +21729,7 @@
       <c r="O880" t="inlineStr"/>
       <c r="P880" t="inlineStr"/>
       <c r="Q880" t="inlineStr"/>
+      <c r="R880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr"/>
@@ -20511,6 +21749,7 @@
       <c r="O881" t="inlineStr"/>
       <c r="P881" t="inlineStr"/>
       <c r="Q881" t="inlineStr"/>
+      <c r="R881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr"/>
@@ -20530,6 +21769,7 @@
       <c r="O882" t="inlineStr"/>
       <c r="P882" t="inlineStr"/>
       <c r="Q882" t="inlineStr"/>
+      <c r="R882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr"/>
@@ -20549,6 +21789,7 @@
       <c r="O883" t="inlineStr"/>
       <c r="P883" t="inlineStr"/>
       <c r="Q883" t="inlineStr"/>
+      <c r="R883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr"/>
@@ -20568,6 +21809,7 @@
       <c r="O884" t="inlineStr"/>
       <c r="P884" t="inlineStr"/>
       <c r="Q884" t="inlineStr"/>
+      <c r="R884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr"/>
@@ -20587,6 +21829,7 @@
       <c r="O885" t="inlineStr"/>
       <c r="P885" t="inlineStr"/>
       <c r="Q885" t="inlineStr"/>
+      <c r="R885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr"/>
@@ -20606,6 +21849,7 @@
       <c r="O886" t="inlineStr"/>
       <c r="P886" t="inlineStr"/>
       <c r="Q886" t="inlineStr"/>
+      <c r="R886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr"/>
@@ -20625,6 +21869,7 @@
       <c r="O887" t="inlineStr"/>
       <c r="P887" t="inlineStr"/>
       <c r="Q887" t="inlineStr"/>
+      <c r="R887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr"/>
@@ -20644,6 +21889,7 @@
       <c r="O888" t="inlineStr"/>
       <c r="P888" t="inlineStr"/>
       <c r="Q888" t="inlineStr"/>
+      <c r="R888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr"/>
@@ -20663,6 +21909,7 @@
       <c r="O889" t="inlineStr"/>
       <c r="P889" t="inlineStr"/>
       <c r="Q889" t="inlineStr"/>
+      <c r="R889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr"/>
@@ -20682,6 +21929,7 @@
       <c r="O890" t="inlineStr"/>
       <c r="P890" t="inlineStr"/>
       <c r="Q890" t="inlineStr"/>
+      <c r="R890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr"/>
@@ -20701,6 +21949,7 @@
       <c r="O891" t="inlineStr"/>
       <c r="P891" t="inlineStr"/>
       <c r="Q891" t="inlineStr"/>
+      <c r="R891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr"/>
@@ -20720,6 +21969,7 @@
       <c r="O892" t="inlineStr"/>
       <c r="P892" t="inlineStr"/>
       <c r="Q892" t="inlineStr"/>
+      <c r="R892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr"/>
@@ -20739,6 +21989,7 @@
       <c r="O893" t="inlineStr"/>
       <c r="P893" t="inlineStr"/>
       <c r="Q893" t="inlineStr"/>
+      <c r="R893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr"/>
@@ -20758,6 +22009,7 @@
       <c r="O894" t="inlineStr"/>
       <c r="P894" t="inlineStr"/>
       <c r="Q894" t="inlineStr"/>
+      <c r="R894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr"/>
@@ -20777,6 +22029,7 @@
       <c r="O895" t="inlineStr"/>
       <c r="P895" t="inlineStr"/>
       <c r="Q895" t="inlineStr"/>
+      <c r="R895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr"/>
@@ -20796,6 +22049,7 @@
       <c r="O896" t="inlineStr"/>
       <c r="P896" t="inlineStr"/>
       <c r="Q896" t="inlineStr"/>
+      <c r="R896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr"/>
@@ -20815,6 +22069,7 @@
       <c r="O897" t="inlineStr"/>
       <c r="P897" t="inlineStr"/>
       <c r="Q897" t="inlineStr"/>
+      <c r="R897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr"/>
@@ -20834,6 +22089,7 @@
       <c r="O898" t="inlineStr"/>
       <c r="P898" t="inlineStr"/>
       <c r="Q898" t="inlineStr"/>
+      <c r="R898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr"/>
@@ -20853,6 +22109,7 @@
       <c r="O899" t="inlineStr"/>
       <c r="P899" t="inlineStr"/>
       <c r="Q899" t="inlineStr"/>
+      <c r="R899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr"/>
@@ -20872,6 +22129,7 @@
       <c r="O900" t="inlineStr"/>
       <c r="P900" t="inlineStr"/>
       <c r="Q900" t="inlineStr"/>
+      <c r="R900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr"/>
@@ -20891,6 +22149,7 @@
       <c r="O901" t="inlineStr"/>
       <c r="P901" t="inlineStr"/>
       <c r="Q901" t="inlineStr"/>
+      <c r="R901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr"/>
@@ -20910,6 +22169,7 @@
       <c r="O902" t="inlineStr"/>
       <c r="P902" t="inlineStr"/>
       <c r="Q902" t="inlineStr"/>
+      <c r="R902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr"/>
@@ -20929,6 +22189,7 @@
       <c r="O903" t="inlineStr"/>
       <c r="P903" t="inlineStr"/>
       <c r="Q903" t="inlineStr"/>
+      <c r="R903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr"/>
@@ -20948,6 +22209,7 @@
       <c r="O904" t="inlineStr"/>
       <c r="P904" t="inlineStr"/>
       <c r="Q904" t="inlineStr"/>
+      <c r="R904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr"/>
@@ -20967,6 +22229,7 @@
       <c r="O905" t="inlineStr"/>
       <c r="P905" t="inlineStr"/>
       <c r="Q905" t="inlineStr"/>
+      <c r="R905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr"/>
@@ -20986,6 +22249,7 @@
       <c r="O906" t="inlineStr"/>
       <c r="P906" t="inlineStr"/>
       <c r="Q906" t="inlineStr"/>
+      <c r="R906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr"/>
@@ -21005,6 +22269,7 @@
       <c r="O907" t="inlineStr"/>
       <c r="P907" t="inlineStr"/>
       <c r="Q907" t="inlineStr"/>
+      <c r="R907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr"/>
@@ -21024,6 +22289,7 @@
       <c r="O908" t="inlineStr"/>
       <c r="P908" t="inlineStr"/>
       <c r="Q908" t="inlineStr"/>
+      <c r="R908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr"/>
@@ -21043,6 +22309,7 @@
       <c r="O909" t="inlineStr"/>
       <c r="P909" t="inlineStr"/>
       <c r="Q909" t="inlineStr"/>
+      <c r="R909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr"/>
@@ -21062,6 +22329,7 @@
       <c r="O910" t="inlineStr"/>
       <c r="P910" t="inlineStr"/>
       <c r="Q910" t="inlineStr"/>
+      <c r="R910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr"/>
@@ -21081,6 +22349,7 @@
       <c r="O911" t="inlineStr"/>
       <c r="P911" t="inlineStr"/>
       <c r="Q911" t="inlineStr"/>
+      <c r="R911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr"/>
@@ -21100,6 +22369,7 @@
       <c r="O912" t="inlineStr"/>
       <c r="P912" t="inlineStr"/>
       <c r="Q912" t="inlineStr"/>
+      <c r="R912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr"/>
@@ -21119,6 +22389,7 @@
       <c r="O913" t="inlineStr"/>
       <c r="P913" t="inlineStr"/>
       <c r="Q913" t="inlineStr"/>
+      <c r="R913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr"/>
@@ -21138,6 +22409,7 @@
       <c r="O914" t="inlineStr"/>
       <c r="P914" t="inlineStr"/>
       <c r="Q914" t="inlineStr"/>
+      <c r="R914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr"/>
@@ -21157,6 +22429,7 @@
       <c r="O915" t="inlineStr"/>
       <c r="P915" t="inlineStr"/>
       <c r="Q915" t="inlineStr"/>
+      <c r="R915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr"/>
@@ -21176,6 +22449,7 @@
       <c r="O916" t="inlineStr"/>
       <c r="P916" t="inlineStr"/>
       <c r="Q916" t="inlineStr"/>
+      <c r="R916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr"/>
@@ -21195,6 +22469,7 @@
       <c r="O917" t="inlineStr"/>
       <c r="P917" t="inlineStr"/>
       <c r="Q917" t="inlineStr"/>
+      <c r="R917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr"/>
@@ -21214,6 +22489,7 @@
       <c r="O918" t="inlineStr"/>
       <c r="P918" t="inlineStr"/>
       <c r="Q918" t="inlineStr"/>
+      <c r="R918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr"/>
@@ -21233,6 +22509,7 @@
       <c r="O919" t="inlineStr"/>
       <c r="P919" t="inlineStr"/>
       <c r="Q919" t="inlineStr"/>
+      <c r="R919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr"/>
@@ -21252,6 +22529,7 @@
       <c r="O920" t="inlineStr"/>
       <c r="P920" t="inlineStr"/>
       <c r="Q920" t="inlineStr"/>
+      <c r="R920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr"/>
@@ -21271,6 +22549,7 @@
       <c r="O921" t="inlineStr"/>
       <c r="P921" t="inlineStr"/>
       <c r="Q921" t="inlineStr"/>
+      <c r="R921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr"/>
@@ -21290,6 +22569,7 @@
       <c r="O922" t="inlineStr"/>
       <c r="P922" t="inlineStr"/>
       <c r="Q922" t="inlineStr"/>
+      <c r="R922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr"/>
@@ -21309,6 +22589,7 @@
       <c r="O923" t="inlineStr"/>
       <c r="P923" t="inlineStr"/>
       <c r="Q923" t="inlineStr"/>
+      <c r="R923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr"/>
@@ -21328,6 +22609,7 @@
       <c r="O924" t="inlineStr"/>
       <c r="P924" t="inlineStr"/>
       <c r="Q924" t="inlineStr"/>
+      <c r="R924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr"/>
@@ -21347,6 +22629,7 @@
       <c r="O925" t="inlineStr"/>
       <c r="P925" t="inlineStr"/>
       <c r="Q925" t="inlineStr"/>
+      <c r="R925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr"/>
@@ -21366,6 +22649,7 @@
       <c r="O926" t="inlineStr"/>
       <c r="P926" t="inlineStr"/>
       <c r="Q926" t="inlineStr"/>
+      <c r="R926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr"/>
@@ -21385,6 +22669,7 @@
       <c r="O927" t="inlineStr"/>
       <c r="P927" t="inlineStr"/>
       <c r="Q927" t="inlineStr"/>
+      <c r="R927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr"/>
@@ -21404,6 +22689,7 @@
       <c r="O928" t="inlineStr"/>
       <c r="P928" t="inlineStr"/>
       <c r="Q928" t="inlineStr"/>
+      <c r="R928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr"/>
@@ -21423,6 +22709,7 @@
       <c r="O929" t="inlineStr"/>
       <c r="P929" t="inlineStr"/>
       <c r="Q929" t="inlineStr"/>
+      <c r="R929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr"/>
@@ -21442,6 +22729,7 @@
       <c r="O930" t="inlineStr"/>
       <c r="P930" t="inlineStr"/>
       <c r="Q930" t="inlineStr"/>
+      <c r="R930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr"/>
@@ -21461,6 +22749,7 @@
       <c r="O931" t="inlineStr"/>
       <c r="P931" t="inlineStr"/>
       <c r="Q931" t="inlineStr"/>
+      <c r="R931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr"/>
@@ -21480,6 +22769,7 @@
       <c r="O932" t="inlineStr"/>
       <c r="P932" t="inlineStr"/>
       <c r="Q932" t="inlineStr"/>
+      <c r="R932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr"/>
@@ -21499,6 +22789,7 @@
       <c r="O933" t="inlineStr"/>
       <c r="P933" t="inlineStr"/>
       <c r="Q933" t="inlineStr"/>
+      <c r="R933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr"/>
@@ -21518,6 +22809,7 @@
       <c r="O934" t="inlineStr"/>
       <c r="P934" t="inlineStr"/>
       <c r="Q934" t="inlineStr"/>
+      <c r="R934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr"/>
@@ -21537,6 +22829,7 @@
       <c r="O935" t="inlineStr"/>
       <c r="P935" t="inlineStr"/>
       <c r="Q935" t="inlineStr"/>
+      <c r="R935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr"/>
@@ -21556,6 +22849,7 @@
       <c r="O936" t="inlineStr"/>
       <c r="P936" t="inlineStr"/>
       <c r="Q936" t="inlineStr"/>
+      <c r="R936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr"/>
@@ -21575,6 +22869,7 @@
       <c r="O937" t="inlineStr"/>
       <c r="P937" t="inlineStr"/>
       <c r="Q937" t="inlineStr"/>
+      <c r="R937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr"/>
@@ -21594,6 +22889,7 @@
       <c r="O938" t="inlineStr"/>
       <c r="P938" t="inlineStr"/>
       <c r="Q938" t="inlineStr"/>
+      <c r="R938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr"/>
@@ -21613,6 +22909,7 @@
       <c r="O939" t="inlineStr"/>
       <c r="P939" t="inlineStr"/>
       <c r="Q939" t="inlineStr"/>
+      <c r="R939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr"/>
@@ -21632,6 +22929,7 @@
       <c r="O940" t="inlineStr"/>
       <c r="P940" t="inlineStr"/>
       <c r="Q940" t="inlineStr"/>
+      <c r="R940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr"/>
@@ -21651,6 +22949,7 @@
       <c r="O941" t="inlineStr"/>
       <c r="P941" t="inlineStr"/>
       <c r="Q941" t="inlineStr"/>
+      <c r="R941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr"/>
@@ -21670,6 +22969,7 @@
       <c r="O942" t="inlineStr"/>
       <c r="P942" t="inlineStr"/>
       <c r="Q942" t="inlineStr"/>
+      <c r="R942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr"/>
@@ -21689,6 +22989,7 @@
       <c r="O943" t="inlineStr"/>
       <c r="P943" t="inlineStr"/>
       <c r="Q943" t="inlineStr"/>
+      <c r="R943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr"/>
@@ -21708,6 +23009,7 @@
       <c r="O944" t="inlineStr"/>
       <c r="P944" t="inlineStr"/>
       <c r="Q944" t="inlineStr"/>
+      <c r="R944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr"/>
@@ -21727,6 +23029,7 @@
       <c r="O945" t="inlineStr"/>
       <c r="P945" t="inlineStr"/>
       <c r="Q945" t="inlineStr"/>
+      <c r="R945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr"/>
@@ -21746,6 +23049,7 @@
       <c r="O946" t="inlineStr"/>
       <c r="P946" t="inlineStr"/>
       <c r="Q946" t="inlineStr"/>
+      <c r="R946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr"/>
@@ -21765,6 +23069,7 @@
       <c r="O947" t="inlineStr"/>
       <c r="P947" t="inlineStr"/>
       <c r="Q947" t="inlineStr"/>
+      <c r="R947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr"/>
@@ -21784,6 +23089,7 @@
       <c r="O948" t="inlineStr"/>
       <c r="P948" t="inlineStr"/>
       <c r="Q948" t="inlineStr"/>
+      <c r="R948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr"/>
@@ -21803,6 +23109,7 @@
       <c r="O949" t="inlineStr"/>
       <c r="P949" t="inlineStr"/>
       <c r="Q949" t="inlineStr"/>
+      <c r="R949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr"/>
@@ -21822,6 +23129,7 @@
       <c r="O950" t="inlineStr"/>
       <c r="P950" t="inlineStr"/>
       <c r="Q950" t="inlineStr"/>
+      <c r="R950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr"/>
@@ -21841,6 +23149,7 @@
       <c r="O951" t="inlineStr"/>
       <c r="P951" t="inlineStr"/>
       <c r="Q951" t="inlineStr"/>
+      <c r="R951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr"/>
@@ -21860,6 +23169,7 @@
       <c r="O952" t="inlineStr"/>
       <c r="P952" t="inlineStr"/>
       <c r="Q952" t="inlineStr"/>
+      <c r="R952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr"/>
@@ -21879,6 +23189,7 @@
       <c r="O953" t="inlineStr"/>
       <c r="P953" t="inlineStr"/>
       <c r="Q953" t="inlineStr"/>
+      <c r="R953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr"/>
@@ -21898,6 +23209,7 @@
       <c r="O954" t="inlineStr"/>
       <c r="P954" t="inlineStr"/>
       <c r="Q954" t="inlineStr"/>
+      <c r="R954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr"/>
@@ -21917,6 +23229,7 @@
       <c r="O955" t="inlineStr"/>
       <c r="P955" t="inlineStr"/>
       <c r="Q955" t="inlineStr"/>
+      <c r="R955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr"/>
@@ -21936,6 +23249,7 @@
       <c r="O956" t="inlineStr"/>
       <c r="P956" t="inlineStr"/>
       <c r="Q956" t="inlineStr"/>
+      <c r="R956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr"/>
@@ -21955,6 +23269,7 @@
       <c r="O957" t="inlineStr"/>
       <c r="P957" t="inlineStr"/>
       <c r="Q957" t="inlineStr"/>
+      <c r="R957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr"/>
@@ -21974,6 +23289,7 @@
       <c r="O958" t="inlineStr"/>
       <c r="P958" t="inlineStr"/>
       <c r="Q958" t="inlineStr"/>
+      <c r="R958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr"/>
@@ -21993,6 +23309,7 @@
       <c r="O959" t="inlineStr"/>
       <c r="P959" t="inlineStr"/>
       <c r="Q959" t="inlineStr"/>
+      <c r="R959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr"/>
@@ -22012,6 +23329,7 @@
       <c r="O960" t="inlineStr"/>
       <c r="P960" t="inlineStr"/>
       <c r="Q960" t="inlineStr"/>
+      <c r="R960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr"/>
@@ -22031,6 +23349,7 @@
       <c r="O961" t="inlineStr"/>
       <c r="P961" t="inlineStr"/>
       <c r="Q961" t="inlineStr"/>
+      <c r="R961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr"/>
@@ -22050,6 +23369,7 @@
       <c r="O962" t="inlineStr"/>
       <c r="P962" t="inlineStr"/>
       <c r="Q962" t="inlineStr"/>
+      <c r="R962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr"/>
@@ -22069,6 +23389,7 @@
       <c r="O963" t="inlineStr"/>
       <c r="P963" t="inlineStr"/>
       <c r="Q963" t="inlineStr"/>
+      <c r="R963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr"/>
@@ -22088,6 +23409,7 @@
       <c r="O964" t="inlineStr"/>
       <c r="P964" t="inlineStr"/>
       <c r="Q964" t="inlineStr"/>
+      <c r="R964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr"/>
@@ -22107,6 +23429,7 @@
       <c r="O965" t="inlineStr"/>
       <c r="P965" t="inlineStr"/>
       <c r="Q965" t="inlineStr"/>
+      <c r="R965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr"/>
@@ -22126,6 +23449,7 @@
       <c r="O966" t="inlineStr"/>
       <c r="P966" t="inlineStr"/>
       <c r="Q966" t="inlineStr"/>
+      <c r="R966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr"/>
@@ -22145,6 +23469,7 @@
       <c r="O967" t="inlineStr"/>
       <c r="P967" t="inlineStr"/>
       <c r="Q967" t="inlineStr"/>
+      <c r="R967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr"/>
@@ -22164,6 +23489,7 @@
       <c r="O968" t="inlineStr"/>
       <c r="P968" t="inlineStr"/>
       <c r="Q968" t="inlineStr"/>
+      <c r="R968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr"/>
@@ -22183,6 +23509,7 @@
       <c r="O969" t="inlineStr"/>
       <c r="P969" t="inlineStr"/>
       <c r="Q969" t="inlineStr"/>
+      <c r="R969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr"/>
@@ -22202,6 +23529,7 @@
       <c r="O970" t="inlineStr"/>
       <c r="P970" t="inlineStr"/>
       <c r="Q970" t="inlineStr"/>
+      <c r="R970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr"/>
@@ -22221,6 +23549,7 @@
       <c r="O971" t="inlineStr"/>
       <c r="P971" t="inlineStr"/>
       <c r="Q971" t="inlineStr"/>
+      <c r="R971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr"/>
@@ -22240,6 +23569,7 @@
       <c r="O972" t="inlineStr"/>
       <c r="P972" t="inlineStr"/>
       <c r="Q972" t="inlineStr"/>
+      <c r="R972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr"/>
@@ -22259,6 +23589,7 @@
       <c r="O973" t="inlineStr"/>
       <c r="P973" t="inlineStr"/>
       <c r="Q973" t="inlineStr"/>
+      <c r="R973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr"/>
@@ -22278,6 +23609,7 @@
       <c r="O974" t="inlineStr"/>
       <c r="P974" t="inlineStr"/>
       <c r="Q974" t="inlineStr"/>
+      <c r="R974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr"/>
@@ -22297,6 +23629,7 @@
       <c r="O975" t="inlineStr"/>
       <c r="P975" t="inlineStr"/>
       <c r="Q975" t="inlineStr"/>
+      <c r="R975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr"/>
@@ -22316,6 +23649,7 @@
       <c r="O976" t="inlineStr"/>
       <c r="P976" t="inlineStr"/>
       <c r="Q976" t="inlineStr"/>
+      <c r="R976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr"/>
@@ -22335,6 +23669,7 @@
       <c r="O977" t="inlineStr"/>
       <c r="P977" t="inlineStr"/>
       <c r="Q977" t="inlineStr"/>
+      <c r="R977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr"/>
@@ -22354,6 +23689,7 @@
       <c r="O978" t="inlineStr"/>
       <c r="P978" t="inlineStr"/>
       <c r="Q978" t="inlineStr"/>
+      <c r="R978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr"/>
@@ -22373,6 +23709,7 @@
       <c r="O979" t="inlineStr"/>
       <c r="P979" t="inlineStr"/>
       <c r="Q979" t="inlineStr"/>
+      <c r="R979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr"/>
@@ -22392,6 +23729,7 @@
       <c r="O980" t="inlineStr"/>
       <c r="P980" t="inlineStr"/>
       <c r="Q980" t="inlineStr"/>
+      <c r="R980" t="inlineStr"/>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr"/>
@@ -22411,6 +23749,7 @@
       <c r="O981" t="inlineStr"/>
       <c r="P981" t="inlineStr"/>
       <c r="Q981" t="inlineStr"/>
+      <c r="R981" t="inlineStr"/>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr"/>
@@ -22430,6 +23769,7 @@
       <c r="O982" t="inlineStr"/>
       <c r="P982" t="inlineStr"/>
       <c r="Q982" t="inlineStr"/>
+      <c r="R982" t="inlineStr"/>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr"/>
@@ -22449,6 +23789,7 @@
       <c r="O983" t="inlineStr"/>
       <c r="P983" t="inlineStr"/>
       <c r="Q983" t="inlineStr"/>
+      <c r="R983" t="inlineStr"/>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr"/>
@@ -22468,6 +23809,7 @@
       <c r="O984" t="inlineStr"/>
       <c r="P984" t="inlineStr"/>
       <c r="Q984" t="inlineStr"/>
+      <c r="R984" t="inlineStr"/>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr"/>
@@ -22487,6 +23829,7 @@
       <c r="O985" t="inlineStr"/>
       <c r="P985" t="inlineStr"/>
       <c r="Q985" t="inlineStr"/>
+      <c r="R985" t="inlineStr"/>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr"/>
@@ -22506,6 +23849,7 @@
       <c r="O986" t="inlineStr"/>
       <c r="P986" t="inlineStr"/>
       <c r="Q986" t="inlineStr"/>
+      <c r="R986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr"/>
@@ -22525,6 +23869,7 @@
       <c r="O987" t="inlineStr"/>
       <c r="P987" t="inlineStr"/>
       <c r="Q987" t="inlineStr"/>
+      <c r="R987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr"/>
@@ -22544,6 +23889,7 @@
       <c r="O988" t="inlineStr"/>
       <c r="P988" t="inlineStr"/>
       <c r="Q988" t="inlineStr"/>
+      <c r="R988" t="inlineStr"/>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr"/>
@@ -22563,6 +23909,7 @@
       <c r="O989" t="inlineStr"/>
       <c r="P989" t="inlineStr"/>
       <c r="Q989" t="inlineStr"/>
+      <c r="R989" t="inlineStr"/>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr"/>
@@ -22582,6 +23929,7 @@
       <c r="O990" t="inlineStr"/>
       <c r="P990" t="inlineStr"/>
       <c r="Q990" t="inlineStr"/>
+      <c r="R990" t="inlineStr"/>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr"/>
@@ -22601,6 +23949,7 @@
       <c r="O991" t="inlineStr"/>
       <c r="P991" t="inlineStr"/>
       <c r="Q991" t="inlineStr"/>
+      <c r="R991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr"/>
@@ -22620,6 +23969,7 @@
       <c r="O992" t="inlineStr"/>
       <c r="P992" t="inlineStr"/>
       <c r="Q992" t="inlineStr"/>
+      <c r="R992" t="inlineStr"/>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr"/>
@@ -22639,6 +23989,7 @@
       <c r="O993" t="inlineStr"/>
       <c r="P993" t="inlineStr"/>
       <c r="Q993" t="inlineStr"/>
+      <c r="R993" t="inlineStr"/>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr"/>
@@ -22658,6 +24009,7 @@
       <c r="O994" t="inlineStr"/>
       <c r="P994" t="inlineStr"/>
       <c r="Q994" t="inlineStr"/>
+      <c r="R994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr"/>
@@ -22677,6 +24029,7 @@
       <c r="O995" t="inlineStr"/>
       <c r="P995" t="inlineStr"/>
       <c r="Q995" t="inlineStr"/>
+      <c r="R995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr"/>
@@ -22696,6 +24049,7 @@
       <c r="O996" t="inlineStr"/>
       <c r="P996" t="inlineStr"/>
       <c r="Q996" t="inlineStr"/>
+      <c r="R996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr"/>
@@ -22715,6 +24069,7 @@
       <c r="O997" t="inlineStr"/>
       <c r="P997" t="inlineStr"/>
       <c r="Q997" t="inlineStr"/>
+      <c r="R997" t="inlineStr"/>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr"/>
@@ -22734,6 +24089,7 @@
       <c r="O998" t="inlineStr"/>
       <c r="P998" t="inlineStr"/>
       <c r="Q998" t="inlineStr"/>
+      <c r="R998" t="inlineStr"/>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr"/>
@@ -22753,6 +24109,7 @@
       <c r="O999" t="inlineStr"/>
       <c r="P999" t="inlineStr"/>
       <c r="Q999" t="inlineStr"/>
+      <c r="R999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr"/>
@@ -22772,6 +24129,7 @@
       <c r="O1000" t="inlineStr"/>
       <c r="P1000" t="inlineStr"/>
       <c r="Q1000" t="inlineStr"/>
+      <c r="R1000" t="inlineStr"/>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
@@ -22833,6 +24191,7 @@
       <c r="O1001" t="inlineStr"/>
       <c r="P1001" t="inlineStr"/>
       <c r="Q1001" t="inlineStr"/>
+      <c r="R1001" t="inlineStr"/>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
@@ -22894,6 +24253,7 @@
       <c r="O1002" t="inlineStr"/>
       <c r="P1002" t="inlineStr"/>
       <c r="Q1002" t="inlineStr"/>
+      <c r="R1002" t="inlineStr"/>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
@@ -22955,6 +24315,7 @@
       <c r="O1003" t="inlineStr"/>
       <c r="P1003" t="inlineStr"/>
       <c r="Q1003" t="inlineStr"/>
+      <c r="R1003" t="inlineStr"/>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
@@ -23016,6 +24377,7 @@
       <c r="O1004" t="inlineStr"/>
       <c r="P1004" t="inlineStr"/>
       <c r="Q1004" t="inlineStr"/>
+      <c r="R1004" t="inlineStr"/>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
@@ -23077,6 +24439,7 @@
       <c r="O1005" t="inlineStr"/>
       <c r="P1005" t="inlineStr"/>
       <c r="Q1005" t="inlineStr"/>
+      <c r="R1005" t="inlineStr"/>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
@@ -23138,6 +24501,7 @@
       <c r="O1006" t="inlineStr"/>
       <c r="P1006" t="inlineStr"/>
       <c r="Q1006" t="inlineStr"/>
+      <c r="R1006" t="inlineStr"/>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
@@ -23199,6 +24563,7 @@
       <c r="O1007" t="inlineStr"/>
       <c r="P1007" t="inlineStr"/>
       <c r="Q1007" t="inlineStr"/>
+      <c r="R1007" t="inlineStr"/>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -23258,6 +24623,7 @@
       <c r="O1008" t="inlineStr"/>
       <c r="P1008" t="inlineStr"/>
       <c r="Q1008" t="inlineStr"/>
+      <c r="R1008" t="inlineStr"/>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
@@ -23319,6 +24685,7 @@
       <c r="O1009" t="inlineStr"/>
       <c r="P1009" t="inlineStr"/>
       <c r="Q1009" t="inlineStr"/>
+      <c r="R1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
@@ -23378,6 +24745,7 @@
       <c r="O1010" t="inlineStr"/>
       <c r="P1010" t="inlineStr"/>
       <c r="Q1010" t="inlineStr"/>
+      <c r="R1010" t="inlineStr"/>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
@@ -23439,6 +24807,7 @@
       <c r="O1011" t="inlineStr"/>
       <c r="P1011" t="inlineStr"/>
       <c r="Q1011" t="inlineStr"/>
+      <c r="R1011" t="inlineStr"/>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
@@ -23500,6 +24869,7 @@
       <c r="O1012" t="inlineStr"/>
       <c r="P1012" t="inlineStr"/>
       <c r="Q1012" t="inlineStr"/>
+      <c r="R1012" t="inlineStr"/>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -23561,6 +24931,7 @@
       <c r="O1013" t="inlineStr"/>
       <c r="P1013" t="inlineStr"/>
       <c r="Q1013" t="inlineStr"/>
+      <c r="R1013" t="inlineStr"/>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -23622,6 +24993,7 @@
       <c r="O1014" t="inlineStr"/>
       <c r="P1014" t="inlineStr"/>
       <c r="Q1014" t="inlineStr"/>
+      <c r="R1014" t="inlineStr"/>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
@@ -23683,6 +25055,7 @@
       <c r="O1015" t="inlineStr"/>
       <c r="P1015" t="inlineStr"/>
       <c r="Q1015" t="inlineStr"/>
+      <c r="R1015" t="inlineStr"/>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
@@ -23744,6 +25117,7 @@
       <c r="O1016" t="inlineStr"/>
       <c r="P1016" t="inlineStr"/>
       <c r="Q1016" t="inlineStr"/>
+      <c r="R1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
@@ -23805,6 +25179,7 @@
       <c r="O1017" t="inlineStr"/>
       <c r="P1017" t="inlineStr"/>
       <c r="Q1017" t="inlineStr"/>
+      <c r="R1017" t="inlineStr"/>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
@@ -23866,6 +25241,7 @@
       <c r="O1018" t="inlineStr"/>
       <c r="P1018" t="inlineStr"/>
       <c r="Q1018" t="inlineStr"/>
+      <c r="R1018" t="inlineStr"/>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
@@ -23927,6 +25303,7 @@
       <c r="O1019" t="inlineStr"/>
       <c r="P1019" t="inlineStr"/>
       <c r="Q1019" t="inlineStr"/>
+      <c r="R1019" t="inlineStr"/>
     </row>
     <row r="1020">
       <c r="A1020" t="inlineStr">
@@ -23988,6 +25365,7 @@
       <c r="O1020" t="inlineStr"/>
       <c r="P1020" t="inlineStr"/>
       <c r="Q1020" t="inlineStr"/>
+      <c r="R1020" t="inlineStr"/>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
@@ -24049,6 +25427,7 @@
       <c r="O1021" t="inlineStr"/>
       <c r="P1021" t="inlineStr"/>
       <c r="Q1021" t="inlineStr"/>
+      <c r="R1021" t="inlineStr"/>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
@@ -24110,6 +25489,7 @@
       <c r="O1022" t="inlineStr"/>
       <c r="P1022" t="inlineStr"/>
       <c r="Q1022" t="inlineStr"/>
+      <c r="R1022" t="inlineStr"/>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
@@ -24171,6 +25551,7 @@
       <c r="O1023" t="inlineStr"/>
       <c r="P1023" t="inlineStr"/>
       <c r="Q1023" t="inlineStr"/>
+      <c r="R1023" t="inlineStr"/>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
@@ -24232,6 +25613,7 @@
       <c r="O1024" t="inlineStr"/>
       <c r="P1024" t="inlineStr"/>
       <c r="Q1024" t="inlineStr"/>
+      <c r="R1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
@@ -24293,6 +25675,7 @@
       <c r="O1025" t="inlineStr"/>
       <c r="P1025" t="inlineStr"/>
       <c r="Q1025" t="inlineStr"/>
+      <c r="R1025" t="inlineStr"/>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
@@ -24354,6 +25737,7 @@
       <c r="O1026" t="inlineStr"/>
       <c r="P1026" t="inlineStr"/>
       <c r="Q1026" t="inlineStr"/>
+      <c r="R1026" t="inlineStr"/>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
@@ -24415,6 +25799,7 @@
       <c r="O1027" t="inlineStr"/>
       <c r="P1027" t="inlineStr"/>
       <c r="Q1027" t="inlineStr"/>
+      <c r="R1027" t="inlineStr"/>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
@@ -24476,6 +25861,7 @@
       <c r="O1028" t="inlineStr"/>
       <c r="P1028" t="inlineStr"/>
       <c r="Q1028" t="inlineStr"/>
+      <c r="R1028" t="inlineStr"/>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
@@ -24537,6 +25923,7 @@
       <c r="O1029" t="inlineStr"/>
       <c r="P1029" t="inlineStr"/>
       <c r="Q1029" t="inlineStr"/>
+      <c r="R1029" t="inlineStr"/>
     </row>
     <row r="1030">
       <c r="A1030" t="inlineStr">
@@ -24598,6 +25985,7 @@
       <c r="O1030" t="inlineStr"/>
       <c r="P1030" t="inlineStr"/>
       <c r="Q1030" t="inlineStr"/>
+      <c r="R1030" t="inlineStr"/>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
@@ -24659,6 +26047,7 @@
       <c r="O1031" t="inlineStr"/>
       <c r="P1031" t="inlineStr"/>
       <c r="Q1031" t="inlineStr"/>
+      <c r="R1031" t="inlineStr"/>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
@@ -24720,6 +26109,7 @@
       <c r="O1032" t="inlineStr"/>
       <c r="P1032" t="inlineStr"/>
       <c r="Q1032" t="inlineStr"/>
+      <c r="R1032" t="inlineStr"/>
     </row>
     <row r="1033">
       <c r="A1033" t="inlineStr">
@@ -24781,6 +26171,7 @@
       <c r="O1033" t="inlineStr"/>
       <c r="P1033" t="inlineStr"/>
       <c r="Q1033" t="inlineStr"/>
+      <c r="R1033" t="inlineStr"/>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
@@ -24844,6 +26235,7 @@
       <c r="O1034" t="inlineStr"/>
       <c r="P1034" t="inlineStr"/>
       <c r="Q1034" t="inlineStr"/>
+      <c r="R1034" t="inlineStr"/>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
@@ -24905,6 +26297,7 @@
       <c r="O1035" t="inlineStr"/>
       <c r="P1035" t="inlineStr"/>
       <c r="Q1035" t="inlineStr"/>
+      <c r="R1035" t="inlineStr"/>
     </row>
     <row r="1036">
       <c r="A1036" t="inlineStr">
@@ -24966,6 +26359,7 @@
       <c r="O1036" t="inlineStr"/>
       <c r="P1036" t="inlineStr"/>
       <c r="Q1036" t="inlineStr"/>
+      <c r="R1036" t="inlineStr"/>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
@@ -25027,6 +26421,7 @@
       <c r="O1037" t="inlineStr"/>
       <c r="P1037" t="inlineStr"/>
       <c r="Q1037" t="inlineStr"/>
+      <c r="R1037" t="inlineStr"/>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
@@ -25088,6 +26483,7 @@
       <c r="O1038" t="inlineStr"/>
       <c r="P1038" t="inlineStr"/>
       <c r="Q1038" t="inlineStr"/>
+      <c r="R1038" t="inlineStr"/>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
@@ -25149,6 +26545,7 @@
       <c r="O1039" t="inlineStr"/>
       <c r="P1039" t="inlineStr"/>
       <c r="Q1039" t="inlineStr"/>
+      <c r="R1039" t="inlineStr"/>
     </row>
     <row r="1040">
       <c r="A1040" t="inlineStr">
@@ -25210,6 +26607,7 @@
       <c r="O1040" t="inlineStr"/>
       <c r="P1040" t="inlineStr"/>
       <c r="Q1040" t="inlineStr"/>
+      <c r="R1040" t="inlineStr"/>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
@@ -25271,6 +26669,7 @@
       <c r="O1041" t="inlineStr"/>
       <c r="P1041" t="inlineStr"/>
       <c r="Q1041" t="inlineStr"/>
+      <c r="R1041" t="inlineStr"/>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
@@ -25332,6 +26731,7 @@
       <c r="O1042" t="inlineStr"/>
       <c r="P1042" t="inlineStr"/>
       <c r="Q1042" t="inlineStr"/>
+      <c r="R1042" t="inlineStr"/>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
@@ -25393,6 +26793,7 @@
       <c r="O1043" t="inlineStr"/>
       <c r="P1043" t="inlineStr"/>
       <c r="Q1043" t="inlineStr"/>
+      <c r="R1043" t="inlineStr"/>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
@@ -25454,6 +26855,7 @@
       <c r="O1044" t="inlineStr"/>
       <c r="P1044" t="inlineStr"/>
       <c r="Q1044" t="inlineStr"/>
+      <c r="R1044" t="inlineStr"/>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
@@ -25515,6 +26917,7 @@
       <c r="O1045" t="inlineStr"/>
       <c r="P1045" t="inlineStr"/>
       <c r="Q1045" t="inlineStr"/>
+      <c r="R1045" t="inlineStr"/>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
@@ -25576,6 +26979,7 @@
       <c r="O1046" t="inlineStr"/>
       <c r="P1046" t="inlineStr"/>
       <c r="Q1046" t="inlineStr"/>
+      <c r="R1046" t="inlineStr"/>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
@@ -25637,6 +27041,7 @@
       <c r="O1047" t="inlineStr"/>
       <c r="P1047" t="inlineStr"/>
       <c r="Q1047" t="inlineStr"/>
+      <c r="R1047" t="inlineStr"/>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
@@ -25698,6 +27103,7 @@
       <c r="O1048" t="inlineStr"/>
       <c r="P1048" t="inlineStr"/>
       <c r="Q1048" t="inlineStr"/>
+      <c r="R1048" t="inlineStr"/>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
@@ -25759,6 +27165,7 @@
       <c r="O1049" t="inlineStr"/>
       <c r="P1049" t="inlineStr"/>
       <c r="Q1049" t="inlineStr"/>
+      <c r="R1049" t="inlineStr"/>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
@@ -25820,6 +27227,7 @@
       <c r="O1050" t="inlineStr"/>
       <c r="P1050" t="inlineStr"/>
       <c r="Q1050" t="inlineStr"/>
+      <c r="R1050" t="inlineStr"/>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
@@ -25881,6 +27289,7 @@
       <c r="O1051" t="inlineStr"/>
       <c r="P1051" t="inlineStr"/>
       <c r="Q1051" t="inlineStr"/>
+      <c r="R1051" t="inlineStr"/>
     </row>
     <row r="1052">
       <c r="A1052" t="inlineStr">
@@ -25942,6 +27351,7 @@
       <c r="O1052" t="inlineStr"/>
       <c r="P1052" t="inlineStr"/>
       <c r="Q1052" t="inlineStr"/>
+      <c r="R1052" t="inlineStr"/>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
@@ -26003,6 +27413,7 @@
       <c r="O1053" t="inlineStr"/>
       <c r="P1053" t="inlineStr"/>
       <c r="Q1053" t="inlineStr"/>
+      <c r="R1053" t="inlineStr"/>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
@@ -26064,6 +27475,7 @@
       <c r="O1054" t="inlineStr"/>
       <c r="P1054" t="inlineStr"/>
       <c r="Q1054" t="inlineStr"/>
+      <c r="R1054" t="inlineStr"/>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
@@ -26125,6 +27537,7 @@
       <c r="O1055" t="inlineStr"/>
       <c r="P1055" t="inlineStr"/>
       <c r="Q1055" t="inlineStr"/>
+      <c r="R1055" t="inlineStr"/>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
@@ -26186,6 +27599,7 @@
       <c r="O1056" t="inlineStr"/>
       <c r="P1056" t="inlineStr"/>
       <c r="Q1056" t="inlineStr"/>
+      <c r="R1056" t="inlineStr"/>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
@@ -26247,6 +27661,7 @@
       <c r="O1057" t="inlineStr"/>
       <c r="P1057" t="inlineStr"/>
       <c r="Q1057" t="inlineStr"/>
+      <c r="R1057" t="inlineStr"/>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
@@ -26308,6 +27723,7 @@
       <c r="O1058" t="inlineStr"/>
       <c r="P1058" t="inlineStr"/>
       <c r="Q1058" t="inlineStr"/>
+      <c r="R1058" t="inlineStr"/>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
@@ -26369,6 +27785,7 @@
       <c r="O1059" t="inlineStr"/>
       <c r="P1059" t="inlineStr"/>
       <c r="Q1059" t="inlineStr"/>
+      <c r="R1059" t="inlineStr"/>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
@@ -26430,6 +27847,7 @@
       <c r="O1060" t="inlineStr"/>
       <c r="P1060" t="inlineStr"/>
       <c r="Q1060" t="inlineStr"/>
+      <c r="R1060" t="inlineStr"/>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
@@ -26491,6 +27909,7 @@
       <c r="O1061" t="inlineStr"/>
       <c r="P1061" t="inlineStr"/>
       <c r="Q1061" t="inlineStr"/>
+      <c r="R1061" t="inlineStr"/>
     </row>
     <row r="1062">
       <c r="A1062" t="inlineStr">
@@ -26552,6 +27971,7 @@
       <c r="O1062" t="inlineStr"/>
       <c r="P1062" t="inlineStr"/>
       <c r="Q1062" t="inlineStr"/>
+      <c r="R1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -26613,6 +28033,7 @@
       <c r="O1063" t="inlineStr"/>
       <c r="P1063" t="inlineStr"/>
       <c r="Q1063" t="inlineStr"/>
+      <c r="R1063" t="inlineStr"/>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
@@ -26674,6 +28095,7 @@
       <c r="O1064" t="inlineStr"/>
       <c r="P1064" t="inlineStr"/>
       <c r="Q1064" t="inlineStr"/>
+      <c r="R1064" t="inlineStr"/>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
@@ -26733,6 +28155,7 @@
       <c r="O1065" t="inlineStr"/>
       <c r="P1065" t="inlineStr"/>
       <c r="Q1065" t="inlineStr"/>
+      <c r="R1065" t="inlineStr"/>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
@@ -26794,6 +28217,7 @@
       <c r="O1066" t="inlineStr"/>
       <c r="P1066" t="inlineStr"/>
       <c r="Q1066" t="inlineStr"/>
+      <c r="R1066" t="inlineStr"/>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
@@ -26855,6 +28279,7 @@
       <c r="O1067" t="inlineStr"/>
       <c r="P1067" t="inlineStr"/>
       <c r="Q1067" t="inlineStr"/>
+      <c r="R1067" t="inlineStr"/>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
@@ -26916,6 +28341,7 @@
       <c r="O1068" t="inlineStr"/>
       <c r="P1068" t="inlineStr"/>
       <c r="Q1068" t="inlineStr"/>
+      <c r="R1068" t="inlineStr"/>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
@@ -26975,6 +28401,7 @@
       <c r="O1069" t="inlineStr"/>
       <c r="P1069" t="inlineStr"/>
       <c r="Q1069" t="inlineStr"/>
+      <c r="R1069" t="inlineStr"/>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
@@ -27036,6 +28463,7 @@
       <c r="O1070" t="inlineStr"/>
       <c r="P1070" t="inlineStr"/>
       <c r="Q1070" t="inlineStr"/>
+      <c r="R1070" t="inlineStr"/>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
@@ -27097,6 +28525,7 @@
       <c r="O1071" t="inlineStr"/>
       <c r="P1071" t="inlineStr"/>
       <c r="Q1071" t="inlineStr"/>
+      <c r="R1071" t="inlineStr"/>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
@@ -27158,6 +28587,7 @@
       <c r="O1072" t="inlineStr"/>
       <c r="P1072" t="inlineStr"/>
       <c r="Q1072" t="inlineStr"/>
+      <c r="R1072" t="inlineStr"/>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
@@ -27219,6 +28649,7 @@
       <c r="O1073" t="inlineStr"/>
       <c r="P1073" t="inlineStr"/>
       <c r="Q1073" t="inlineStr"/>
+      <c r="R1073" t="inlineStr"/>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
@@ -27280,6 +28711,7 @@
       <c r="O1074" t="inlineStr"/>
       <c r="P1074" t="inlineStr"/>
       <c r="Q1074" t="inlineStr"/>
+      <c r="R1074" t="inlineStr"/>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
@@ -27341,6 +28773,7 @@
       <c r="O1075" t="inlineStr"/>
       <c r="P1075" t="inlineStr"/>
       <c r="Q1075" t="inlineStr"/>
+      <c r="R1075" t="inlineStr"/>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
@@ -27402,6 +28835,7 @@
       <c r="O1076" t="inlineStr"/>
       <c r="P1076" t="inlineStr"/>
       <c r="Q1076" t="inlineStr"/>
+      <c r="R1076" t="inlineStr"/>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
@@ -27463,6 +28897,7 @@
       <c r="O1077" t="inlineStr"/>
       <c r="P1077" t="inlineStr"/>
       <c r="Q1077" t="inlineStr"/>
+      <c r="R1077" t="inlineStr"/>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
@@ -27524,6 +28959,7 @@
       <c r="O1078" t="inlineStr"/>
       <c r="P1078" t="inlineStr"/>
       <c r="Q1078" t="inlineStr"/>
+      <c r="R1078" t="inlineStr"/>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
@@ -27585,6 +29021,7 @@
       <c r="O1079" t="inlineStr"/>
       <c r="P1079" t="inlineStr"/>
       <c r="Q1079" t="inlineStr"/>
+      <c r="R1079" t="inlineStr"/>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -27646,6 +29083,7 @@
       <c r="O1080" t="inlineStr"/>
       <c r="P1080" t="inlineStr"/>
       <c r="Q1080" t="inlineStr"/>
+      <c r="R1080" t="inlineStr"/>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
@@ -27707,6 +29145,7 @@
       <c r="O1081" t="inlineStr"/>
       <c r="P1081" t="inlineStr"/>
       <c r="Q1081" t="inlineStr"/>
+      <c r="R1081" t="inlineStr"/>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
@@ -27768,6 +29207,7 @@
       <c r="O1082" t="inlineStr"/>
       <c r="P1082" t="inlineStr"/>
       <c r="Q1082" t="inlineStr"/>
+      <c r="R1082" t="inlineStr"/>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
@@ -27827,6 +29267,7 @@
       <c r="O1083" t="inlineStr"/>
       <c r="P1083" t="inlineStr"/>
       <c r="Q1083" t="inlineStr"/>
+      <c r="R1083" t="inlineStr"/>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
@@ -27888,6 +29329,7 @@
       <c r="O1084" t="inlineStr"/>
       <c r="P1084" t="inlineStr"/>
       <c r="Q1084" t="inlineStr"/>
+      <c r="R1084" t="inlineStr"/>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
@@ -27949,6 +29391,7 @@
       <c r="O1085" t="inlineStr"/>
       <c r="P1085" t="inlineStr"/>
       <c r="Q1085" t="inlineStr"/>
+      <c r="R1085" t="inlineStr"/>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
@@ -28010,6 +29453,7 @@
       <c r="O1086" t="inlineStr"/>
       <c r="P1086" t="inlineStr"/>
       <c r="Q1086" t="inlineStr"/>
+      <c r="R1086" t="inlineStr"/>
     </row>
     <row r="1087">
       <c r="A1087" t="inlineStr">
@@ -28071,6 +29515,7 @@
       <c r="O1087" t="inlineStr"/>
       <c r="P1087" t="inlineStr"/>
       <c r="Q1087" t="inlineStr"/>
+      <c r="R1087" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
@@ -11534,7 +11534,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
@@ -11724,7 +11724,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -11838,7 +11838,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -11876,7 +11876,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -11914,7 +11914,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>

--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R283"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
           <t>NELSON GONCALVES</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -572,7 +572,7 @@
       <c r="J2" t="n">
         <v>50</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L2" t="inlineStr">
@@ -585,11 +585,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -605,7 +600,7 @@
           <t>IZABEL MARQUES MACIEL</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -634,7 +629,7 @@
       <c r="J3" t="n">
         <v>50</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="L3" t="inlineStr">
@@ -647,11 +642,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -667,7 +657,7 @@
           <t>BATISTA ARRUDA DA SILVA</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -696,7 +686,7 @@
       <c r="J4" t="n">
         <v>50</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L4" t="inlineStr">
@@ -709,11 +699,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -729,7 +714,7 @@
           <t>SILME PIRES GOMES DE SIQUEIRA</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -758,7 +743,7 @@
       <c r="J5" t="n">
         <v>50</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -771,11 +756,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -791,7 +771,7 @@
           <t>ARILENE ROUSE DA SILVA</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -820,7 +800,7 @@
       <c r="J6" t="n">
         <v>50</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L6" t="inlineStr">
@@ -833,11 +813,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -853,7 +828,7 @@
           <t>RENATO GARCEZ DE GODOI</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -882,7 +857,7 @@
       <c r="J7" t="n">
         <v>50</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L7" t="inlineStr">
@@ -895,11 +870,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -915,7 +885,7 @@
           <t>LORENA NEVES SIQUEIRA FERREIRA</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -944,7 +914,7 @@
       <c r="J8" t="n">
         <v>50</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="L8" t="inlineStr">
@@ -957,11 +927,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -977,7 +942,7 @@
           <t>ALAIDE NELSON DE ALMEIDA</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1006,7 +971,7 @@
       <c r="J9" t="n">
         <v>50</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L9" t="inlineStr">
@@ -1019,11 +984,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1039,7 +999,7 @@
           <t>LUZIMARA MARQUES AGRA</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1068,7 +1028,7 @@
       <c r="J10" t="n">
         <v>50</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L10" t="inlineStr">
@@ -1081,11 +1041,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1101,7 +1056,7 @@
           <t>VANUZA FERREIRA CARDOSO</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1130,7 +1085,7 @@
       <c r="J11" t="n">
         <v>50</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L11" t="inlineStr">
@@ -1143,11 +1098,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1163,7 +1113,7 @@
           <t>THIAGO AZEREDO DE SOUZA</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1192,7 +1142,7 @@
       <c r="J12" t="n">
         <v>50</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L12" t="inlineStr">
@@ -1205,11 +1155,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1225,7 +1170,7 @@
           <t>JANUARIO RICARDO RODRIGUES DE LIMA</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1254,7 +1199,7 @@
       <c r="J13" t="n">
         <v>50</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L13" t="inlineStr">
@@ -1287,7 +1232,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1303,7 +1247,7 @@
           <t>MARIA APARECIDA SOUZA SILVA</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -1332,7 +1276,7 @@
       <c r="J14" t="n">
         <v>50</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L14" t="inlineStr">
@@ -1365,7 +1309,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1381,7 +1324,7 @@
           <t>CYNTIA RAQUEL OLIVEIRA LOPES ALVES</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E15" t="inlineStr">
@@ -1410,7 +1353,7 @@
       <c r="J15" t="n">
         <v>75</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L15" t="inlineStr">
@@ -1423,11 +1366,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1443,7 +1381,7 @@
           <t>ELEANDRO MATOSO FLEITA</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E16" t="inlineStr">
@@ -1472,7 +1410,7 @@
       <c r="J16" t="n">
         <v>50</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L16" t="inlineStr">
@@ -1485,11 +1423,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1505,7 +1438,7 @@
           <t>DANA REGINA DOS SANTOS</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E17" t="inlineStr">
@@ -1534,7 +1467,7 @@
       <c r="J17" t="n">
         <v>50</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L17" t="inlineStr">
@@ -1547,11 +1480,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1567,7 +1495,7 @@
           <t>NATALIA RAMOS DOS SANTOS</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -1596,7 +1524,7 @@
       <c r="J18" t="n">
         <v>50</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="L18" t="inlineStr">
@@ -1609,11 +1537,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1629,7 +1552,7 @@
           <t>MADALENA APARECIDA CORDEIRO</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -1658,7 +1581,7 @@
       <c r="J19" t="n">
         <v>50</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L19" t="inlineStr">
@@ -1671,11 +1594,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1691,7 +1609,7 @@
           <t>CLEITON DE ARAUJO SILVA</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -1720,7 +1638,7 @@
       <c r="J20" t="n">
         <v>50</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L20" t="inlineStr">
@@ -1733,11 +1651,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1753,7 +1666,7 @@
           <t>EDSON LOPES DA ROCHA</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -1782,7 +1695,6 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>EM VIDA</t>
@@ -1793,11 +1705,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1813,7 +1720,7 @@
           <t>ANDREIA LOPES DA ROCHA</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -1842,7 +1749,7 @@
       <c r="J22" t="n">
         <v>50</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L22" t="inlineStr">
@@ -1855,11 +1762,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1875,7 +1777,7 @@
           <t>ALESSANDRA LOURINI</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -1904,7 +1806,7 @@
       <c r="J23" t="n">
         <v>50</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L23" t="inlineStr">
@@ -1937,7 +1839,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1953,7 +1854,7 @@
           <t>TALINI DEBORA DA SILVA</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -1982,7 +1883,6 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -2013,7 +1913,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2029,7 +1928,7 @@
           <t>LUANA APARECIDA OVANDO MOREL</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -2058,7 +1957,7 @@
       <c r="J25" t="n">
         <v>50</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L25" t="inlineStr">
@@ -2091,7 +1990,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2107,7 +2005,7 @@
           <t>NELI LUIZA DE ANDRADE</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -2136,7 +2034,7 @@
       <c r="J26" t="n">
         <v>50</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L26" t="inlineStr">
@@ -2169,7 +2067,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2185,7 +2082,7 @@
           <t>CLEONICE PEREIRA DA SILVA</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -2214,7 +2111,6 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -2245,7 +2141,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2261,7 +2156,7 @@
           <t>THIAGO RODRIGUES PEREIRA</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -2290,7 +2185,6 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -2321,7 +2215,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2337,7 +2230,7 @@
           <t>ADRIANA MARTINS FERREIRA</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -2366,7 +2259,7 @@
       <c r="J29" t="n">
         <v>50</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L29" t="inlineStr">
@@ -2379,11 +2272,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2399,7 +2287,7 @@
           <t>GABRIEL FLEITAS DA SILVA</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -2428,7 +2316,7 @@
       <c r="J30" t="n">
         <v>160</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L30" t="inlineStr">
@@ -2461,7 +2349,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2477,7 +2364,7 @@
           <t>MARIA APARECIDA SEABRA</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E31" t="inlineStr">
@@ -2506,7 +2393,7 @@
       <c r="J31" t="n">
         <v>50</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L31" t="inlineStr">
@@ -2539,7 +2426,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2555,7 +2441,7 @@
           <t>MICHELE LILIANE PEREIRA</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E32" t="inlineStr">
@@ -2584,7 +2470,7 @@
       <c r="J32" t="n">
         <v>160</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L32" t="inlineStr">
@@ -2617,7 +2503,6 @@
           <t>Ligações</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2633,7 +2518,7 @@
           <t>MARCIO JOSE DOS PASSOS</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E33" t="inlineStr">
@@ -2662,7 +2547,7 @@
       <c r="J33" t="n">
         <v>160</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L33" t="inlineStr">
@@ -2695,7 +2580,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2711,7 +2595,7 @@
           <t>GISELI SILVA DE SOUZA</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E34" t="inlineStr">
@@ -2740,7 +2624,7 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L34" t="inlineStr">
@@ -2753,11 +2637,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2773,7 +2652,7 @@
           <t>SILVANE ALVES BARBOSA DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E35" t="inlineStr">
@@ -2802,7 +2681,7 @@
       <c r="J35" t="n">
         <v>50</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L35" t="inlineStr">
@@ -2815,11 +2694,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2835,7 +2709,7 @@
           <t>MARIA LUCILENE MAZARIM DA COSTA</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E36" t="inlineStr">
@@ -2864,7 +2738,7 @@
       <c r="J36" t="n">
         <v>50</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L36" t="inlineStr">
@@ -2897,7 +2771,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2913,7 +2786,7 @@
           <t>CAROLINE DEFENDI MELLO</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E37" t="inlineStr">
@@ -2942,7 +2815,7 @@
       <c r="J37" t="n">
         <v>50</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L37" t="inlineStr">
@@ -2955,11 +2828,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2975,7 +2843,7 @@
           <t>ALDECI SEBASTIAO DE SOUZA</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -3004,7 +2872,6 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -3015,11 +2882,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3035,7 +2897,7 @@
           <t>JANAINA SANTOS LEITE</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E39" t="inlineStr">
@@ -3064,7 +2926,7 @@
       <c r="J39" t="n">
         <v>50</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L39" t="inlineStr">
@@ -3077,11 +2939,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3097,7 +2954,7 @@
           <t>JOAO VAGNER MORAES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E40" t="inlineStr">
@@ -3126,7 +2983,7 @@
       <c r="J40" t="n">
         <v>50</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L40" t="inlineStr">
@@ -3139,11 +2996,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3159,7 +3011,7 @@
           <t>ANTONIO MIGUEL ARAUJO LIMA</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E41" t="inlineStr">
@@ -3188,7 +3040,7 @@
       <c r="J41" t="n">
         <v>50</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L41" t="inlineStr">
@@ -3201,11 +3053,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3221,7 +3068,7 @@
           <t>EDER LOURENCO CHIMENEZ GABILAN</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E42" t="inlineStr">
@@ -3250,7 +3097,7 @@
       <c r="J42" t="n">
         <v>160</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="K42" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L42" t="inlineStr">
@@ -3263,11 +3110,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3283,7 +3125,7 @@
           <t>JEFFERSON CARLOS SANTOS</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E43" t="inlineStr">
@@ -3312,7 +3154,7 @@
       <c r="J43" t="n">
         <v>160</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L43" t="inlineStr">
@@ -3325,11 +3167,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3345,7 +3182,7 @@
           <t>CECILIA SPANGUER NOGUEIRA</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E44" t="inlineStr">
@@ -3374,7 +3211,7 @@
       <c r="J44" t="n">
         <v>50</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L44" t="inlineStr">
@@ -3387,11 +3224,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3407,7 +3239,7 @@
           <t>SANDRA REGINA DA SILVA CARVALHO</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E45" t="inlineStr">
@@ -3436,7 +3268,7 @@
       <c r="J45" t="n">
         <v>50</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L45" t="inlineStr">
@@ -3449,11 +3281,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3469,7 +3296,7 @@
           <t>ZILMA PEREIRA DA SILVA PINTO</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E46" t="inlineStr">
@@ -3498,7 +3325,7 @@
       <c r="J46" t="n">
         <v>50</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K46" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L46" t="inlineStr">
@@ -3511,11 +3338,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3531,7 +3353,7 @@
           <t>ROSANA COSTA PEREIRA</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E47" t="inlineStr">
@@ -3560,7 +3382,7 @@
       <c r="J47" t="n">
         <v>50</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L47" t="inlineStr">
@@ -3573,11 +3395,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3593,7 +3410,7 @@
           <t>ADRIANA DA SILVA RAMOS</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E48" t="inlineStr">
@@ -3622,7 +3439,7 @@
       <c r="J48" t="n">
         <v>50</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L48" t="inlineStr">
@@ -3635,11 +3452,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3655,7 +3467,7 @@
           <t>FRANCIELA APARECIDA GONCALVES MARQUES</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E49" t="inlineStr">
@@ -3684,7 +3496,7 @@
       <c r="J49" t="n">
         <v>50</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L49" t="inlineStr">
@@ -3697,11 +3509,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3717,7 +3524,7 @@
           <t>JOSE FRANCISCO DA SILVA</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="3" t="n">
         <v>45816</v>
       </c>
       <c r="E50" t="inlineStr">
@@ -3746,7 +3553,7 @@
       <c r="J50" t="n">
         <v>50</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L50" t="inlineStr">
@@ -3759,11 +3566,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3779,7 +3581,7 @@
           <t>CLEUZA DE FATIMA RODRIGUES MATOSO</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E51" t="inlineStr">
@@ -3808,7 +3610,7 @@
       <c r="J51" t="n">
         <v>50</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L51" t="inlineStr">
@@ -3821,11 +3623,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3841,7 +3638,7 @@
           <t>VALTER ALVES COELHO</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E52" t="inlineStr">
@@ -3870,7 +3667,7 @@
       <c r="J52" t="n">
         <v>50</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L52" t="inlineStr">
@@ -3883,11 +3680,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3903,7 +3695,7 @@
           <t>ANDRESSA FRANCA PEREIRA</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -3932,7 +3724,7 @@
       <c r="J53" t="n">
         <v>75</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L53" t="inlineStr">
@@ -3945,11 +3737,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3965,7 +3752,7 @@
           <t>KETELYN KEILLA VELOSO DE CAMPOS</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -3994,7 +3781,7 @@
       <c r="J54" t="n">
         <v>50</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K54" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L54" t="inlineStr">
@@ -4007,11 +3794,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4027,7 +3809,7 @@
           <t>FABIANA THEOTONIO DOMINGUES</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E55" t="inlineStr">
@@ -4056,7 +3838,7 @@
       <c r="J55" t="n">
         <v>50</v>
       </c>
-      <c r="K55" s="2" t="n">
+      <c r="K55" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L55" t="inlineStr">
@@ -4069,11 +3851,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4089,7 +3866,7 @@
           <t>JOAO BATISTA BERNAL GONZALEZ</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -4118,7 +3895,7 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="K56" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L56" t="inlineStr">
@@ -4131,11 +3908,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4151,7 +3923,7 @@
           <t>ALEXANDRE NANTES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E57" t="inlineStr">
@@ -4180,7 +3952,7 @@
       <c r="J57" t="n">
         <v>185</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L57" t="inlineStr">
@@ -4193,11 +3965,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4213,7 +3980,7 @@
           <t>ROSA MARIA VIEIRA FERNANDES</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E58" t="inlineStr">
@@ -4242,7 +4009,7 @@
       <c r="J58" t="n">
         <v>160</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K58" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L58" t="inlineStr">
@@ -4255,11 +4022,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4275,7 +4037,7 @@
           <t>VANDERSON APARECIDO DE SOUZA</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E59" t="inlineStr">
@@ -4304,7 +4066,7 @@
       <c r="J59" t="n">
         <v>160</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="K59" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="L59" t="inlineStr">
@@ -4317,11 +4079,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4337,7 +4094,7 @@
           <t>DENIS WILLIAN RUFINO DA SILVA</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E60" t="inlineStr">
@@ -4366,7 +4123,7 @@
       <c r="J60" t="n">
         <v>50</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L60" t="inlineStr">
@@ -4379,11 +4136,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4399,7 +4151,7 @@
           <t>ALICE RAQUEL ANTUNES</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E61" t="inlineStr">
@@ -4428,7 +4180,7 @@
       <c r="J61" t="n">
         <v>41</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L61" t="inlineStr">
@@ -4461,7 +4213,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4477,7 +4228,7 @@
           <t>MARISTELA CANISSO VALESE</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E62" t="inlineStr">
@@ -4506,7 +4257,7 @@
       <c r="J62" t="n">
         <v>160</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="K62" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L62" t="inlineStr">
@@ -4539,7 +4290,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4555,7 +4305,7 @@
           <t>FATIMA FERREIRA RODRIGUES FROTA</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E63" t="inlineStr">
@@ -4584,7 +4334,7 @@
       <c r="J63" t="n">
         <v>160</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L63" t="inlineStr">
@@ -4617,7 +4367,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4633,7 +4382,7 @@
           <t>ADRIANA CRISTINA LONGHI AGUIAR</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E64" t="inlineStr">
@@ -4662,7 +4411,7 @@
       <c r="J64" t="n">
         <v>160</v>
       </c>
-      <c r="K64" s="2" t="n">
+      <c r="K64" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L64" t="inlineStr">
@@ -4695,7 +4444,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4711,7 +4459,7 @@
           <t>JAQUELINE DA SILVA FELIPE</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E65" t="inlineStr">
@@ -4740,7 +4488,7 @@
       <c r="J65" t="n">
         <v>160</v>
       </c>
-      <c r="K65" s="2" t="n">
+      <c r="K65" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L65" t="inlineStr">
@@ -4773,7 +4521,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4789,7 +4536,7 @@
           <t>JORGE FRANCISCO FERREIRA DA SILVA</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E66" t="inlineStr">
@@ -4818,7 +4565,7 @@
       <c r="J66" t="n">
         <v>160</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L66" t="inlineStr">
@@ -4851,7 +4598,6 @@
           <t>Plataforma People</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4867,7 +4613,7 @@
           <t>CARLA DA SILVA BARROS</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E67" t="inlineStr">
@@ -4896,7 +4642,7 @@
       <c r="J67" t="n">
         <v>190</v>
       </c>
-      <c r="K67" s="2" t="n">
+      <c r="K67" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L67" t="inlineStr">
@@ -4929,7 +4675,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4945,7 +4690,7 @@
           <t>JONAS APARECIDO DE CASTRO RODRIGUES</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E68" t="inlineStr">
@@ -4974,7 +4719,7 @@
       <c r="J68" t="n">
         <v>160</v>
       </c>
-      <c r="K68" s="2" t="n">
+      <c r="K68" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L68" t="inlineStr">
@@ -5007,7 +4752,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5023,7 +4767,7 @@
           <t>JESSICA DE LIMA PAGNONCELLI</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E69" t="inlineStr">
@@ -5052,7 +4796,7 @@
       <c r="J69" t="n">
         <v>160</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="K69" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L69" t="inlineStr">
@@ -5085,7 +4829,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5101,7 +4844,7 @@
           <t>GIORDANA NUNES DE SANTANA SANTOS GOMES</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E70" t="inlineStr">
@@ -5130,7 +4873,6 @@
       <c r="J70" t="n">
         <v>0</v>
       </c>
-      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -5161,7 +4903,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5177,7 +4918,7 @@
           <t>ELISANGELA GOMES CANHETE</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E71" t="inlineStr">
@@ -5206,7 +4947,6 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -5237,7 +4977,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5253,7 +4992,7 @@
           <t>ADENILSA STAINER CHARAO</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E72" t="inlineStr">
@@ -5282,7 +5021,6 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -5313,7 +5051,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5329,7 +5066,7 @@
           <t>ELIZEU OLIVEIRA DIAS</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E73" t="inlineStr">
@@ -5358,7 +5095,7 @@
       <c r="J73" t="n">
         <v>50</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="K73" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L73" t="inlineStr">
@@ -5371,11 +5108,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5391,7 +5123,7 @@
           <t>MARIA NILZA ALMINO</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E74" t="inlineStr">
@@ -5420,7 +5152,7 @@
       <c r="J74" t="n">
         <v>50</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="K74" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L74" t="inlineStr">
@@ -5453,7 +5185,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5469,7 +5200,7 @@
           <t>GEDSON CLEBER MARQUES DA SILVA</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E75" t="inlineStr">
@@ -5498,7 +5229,7 @@
       <c r="J75" t="n">
         <v>50</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K75" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L75" t="inlineStr">
@@ -5531,7 +5262,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5547,7 +5277,7 @@
           <t>ANA PAULA GARGANTINI MACHADO</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E76" t="inlineStr">
@@ -5576,7 +5306,7 @@
       <c r="J76" t="n">
         <v>70</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="K76" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L76" t="inlineStr">
@@ -5609,7 +5339,6 @@
           <t>Contatos do telefone</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5625,7 +5354,7 @@
           <t>MARCELI MONTEIRO DAVILA</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E77" t="inlineStr">
@@ -5654,7 +5383,7 @@
       <c r="J77" t="n">
         <v>50</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K77" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L77" t="inlineStr">
@@ -5687,7 +5416,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5703,7 +5431,7 @@
           <t>TANIA MARIA PEREIRA SOUZA</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E78" t="inlineStr">
@@ -5732,7 +5460,7 @@
       <c r="J78" t="n">
         <v>160</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K78" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L78" t="inlineStr">
@@ -5745,11 +5473,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5765,7 +5488,7 @@
           <t>CLELMA CRISTINA DA SILVA</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E79" t="inlineStr">
@@ -5794,7 +5517,7 @@
       <c r="J79" t="n">
         <v>200</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K79" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L79" t="inlineStr">
@@ -5807,11 +5530,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5827,7 +5545,7 @@
           <t>HALCIONE MOREIRA VINCIGUERA</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E80" t="inlineStr">
@@ -5856,7 +5574,7 @@
       <c r="J80" t="n">
         <v>50</v>
       </c>
-      <c r="K80" s="2" t="n">
+      <c r="K80" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L80" t="inlineStr">
@@ -5889,7 +5607,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5905,7 +5622,7 @@
           <t>CELIA VIEIRA</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E81" t="inlineStr">
@@ -5934,7 +5651,7 @@
       <c r="J81" t="n">
         <v>50</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="K81" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L81" t="inlineStr">
@@ -5947,11 +5664,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5967,7 +5679,7 @@
           <t>MARCIA DA SILVA RODRIGUES</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E82" t="inlineStr">
@@ -5996,7 +5708,7 @@
       <c r="J82" t="n">
         <v>50</v>
       </c>
-      <c r="K82" s="2" t="n">
+      <c r="K82" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L82" t="inlineStr">
@@ -6009,11 +5721,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6029,7 +5736,7 @@
           <t>EDINALDO NAZARETH DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E83" t="inlineStr">
@@ -6058,7 +5765,7 @@
       <c r="J83" t="n">
         <v>50</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K83" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L83" t="inlineStr">
@@ -6071,11 +5778,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6091,7 +5793,7 @@
           <t>MAURO ANTUNES</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E84" t="inlineStr">
@@ -6120,7 +5822,7 @@
       <c r="J84" t="n">
         <v>50</v>
       </c>
-      <c r="K84" s="2" t="n">
+      <c r="K84" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L84" t="inlineStr">
@@ -6133,11 +5835,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6153,7 +5850,7 @@
           <t>SOLANGE TELLES DAVID</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E85" t="inlineStr">
@@ -6182,7 +5879,7 @@
       <c r="J85" t="n">
         <v>50</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="K85" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L85" t="inlineStr">
@@ -6195,11 +5892,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6215,7 +5907,7 @@
           <t>VALDIRENE DA CONCEICAO SANTOS</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E86" t="inlineStr">
@@ -6244,7 +5936,7 @@
       <c r="J86" t="n">
         <v>50</v>
       </c>
-      <c r="K86" s="2" t="n">
+      <c r="K86" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L86" t="inlineStr">
@@ -6257,11 +5949,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6277,7 +5964,7 @@
           <t>ELAINE VICENTE</t>
         </is>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E87" t="inlineStr">
@@ -6306,7 +5993,7 @@
       <c r="J87" t="n">
         <v>50</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="K87" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L87" t="inlineStr">
@@ -6319,11 +6006,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6339,7 +6021,7 @@
           <t>WANIA ALINE CHAVES</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E88" t="inlineStr">
@@ -6368,7 +6050,7 @@
       <c r="J88" t="n">
         <v>160</v>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="K88" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L88" t="inlineStr">
@@ -6401,7 +6083,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6417,7 +6098,7 @@
           <t>SIMONE EMIDIO ONOFRE</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E89" t="inlineStr">
@@ -6446,7 +6127,7 @@
       <c r="J89" t="n">
         <v>160</v>
       </c>
-      <c r="K89" s="2" t="n">
+      <c r="K89" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L89" t="inlineStr">
@@ -6479,7 +6160,6 @@
           <t>Dourados</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6495,7 +6175,7 @@
           <t>MONIQUE FIORAVANTI SANSAO BAZAN</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E90" t="inlineStr">
@@ -6524,7 +6204,7 @@
       <c r="J90" t="n">
         <v>160</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="K90" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L90" t="inlineStr">
@@ -6557,7 +6237,6 @@
           <t>Pessoal</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6573,7 +6252,7 @@
           <t>ALEXANDRA APARECIDA DE ARAUJO FIGUEIREDO</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E91" t="inlineStr">
@@ -6602,7 +6281,7 @@
       <c r="J91" t="n">
         <v>160</v>
       </c>
-      <c r="K91" s="2" t="n">
+      <c r="K91" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L91" t="inlineStr">
@@ -6615,11 +6294,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6635,7 +6309,7 @@
           <t>MARCELO MARQUES DE FREITAS SILVA</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E92" t="inlineStr">
@@ -6664,7 +6338,7 @@
       <c r="J92" t="n">
         <v>160</v>
       </c>
-      <c r="K92" s="2" t="n">
+      <c r="K92" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L92" t="inlineStr">
@@ -6697,7 +6371,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6713,7 +6386,7 @@
           <t>NEDINA FERREIRA CORREA</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E93" t="inlineStr">
@@ -6742,7 +6415,7 @@
       <c r="J93" t="n">
         <v>160</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="K93" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L93" t="inlineStr">
@@ -6775,7 +6448,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6791,7 +6463,7 @@
           <t>ROZELI DE FATIMA BUENO</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E94" t="inlineStr">
@@ -6820,7 +6492,7 @@
       <c r="J94" t="n">
         <v>160</v>
       </c>
-      <c r="K94" s="2" t="n">
+      <c r="K94" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L94" t="inlineStr">
@@ -6833,11 +6505,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6853,7 +6520,7 @@
           <t>ANA PAULA DOS SANTOS MACIEL</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E95" t="inlineStr">
@@ -6882,7 +6549,7 @@
       <c r="J95" t="n">
         <v>160</v>
       </c>
-      <c r="K95" s="2" t="n">
+      <c r="K95" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L95" t="inlineStr">
@@ -6915,7 +6582,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6931,7 +6597,7 @@
           <t>MARTA MARIA DE MACEDO</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E96" t="inlineStr">
@@ -6960,7 +6626,7 @@
       <c r="J96" t="n">
         <v>160</v>
       </c>
-      <c r="K96" s="2" t="n">
+      <c r="K96" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L96" t="inlineStr">
@@ -6993,7 +6659,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7009,7 +6674,7 @@
           <t>SARA KALINA AUGUSTO FLORENCIO CAVALI</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E97" t="inlineStr">
@@ -7038,7 +6703,7 @@
       <c r="J97" t="n">
         <v>160</v>
       </c>
-      <c r="K97" s="2" t="n">
+      <c r="K97" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L97" t="inlineStr">
@@ -7051,11 +6716,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7071,7 +6731,7 @@
           <t>MARIA JULIANA DA CONCEICAO BENDER</t>
         </is>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E98" t="inlineStr">
@@ -7100,7 +6760,7 @@
       <c r="J98" t="n">
         <v>160</v>
       </c>
-      <c r="K98" s="2" t="n">
+      <c r="K98" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L98" t="inlineStr">
@@ -7133,7 +6793,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7149,7 +6808,7 @@
           <t>MARCIANA ROBERTO</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E99" t="inlineStr">
@@ -7178,7 +6837,7 @@
       <c r="J99" t="n">
         <v>160</v>
       </c>
-      <c r="K99" s="2" t="n">
+      <c r="K99" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L99" t="inlineStr">
@@ -7211,7 +6870,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7227,7 +6885,7 @@
           <t>JEFERSON SOUZA LENZ</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E100" t="inlineStr">
@@ -7256,7 +6914,7 @@
       <c r="J100" t="n">
         <v>160</v>
       </c>
-      <c r="K100" s="2" t="n">
+      <c r="K100" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L100" t="inlineStr">
@@ -7289,7 +6947,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7305,7 +6962,7 @@
           <t>LEILA CAIRES LOPES</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E101" t="inlineStr">
@@ -7334,7 +6991,7 @@
       <c r="J101" t="n">
         <v>160</v>
       </c>
-      <c r="K101" s="2" t="n">
+      <c r="K101" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L101" t="inlineStr">
@@ -7367,7 +7024,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7383,7 +7039,7 @@
           <t>FERNANDA ESPINDOLA PORTELA</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E102" t="inlineStr">
@@ -7412,7 +7068,7 @@
       <c r="J102" t="n">
         <v>160</v>
       </c>
-      <c r="K102" s="2" t="n">
+      <c r="K102" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L102" t="inlineStr">
@@ -7445,7 +7101,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7461,7 +7116,7 @@
           <t>ISABELA DE ALENCAR GONCALES</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E103" t="inlineStr">
@@ -7490,7 +7145,7 @@
       <c r="J103" t="n">
         <v>160</v>
       </c>
-      <c r="K103" s="2" t="n">
+      <c r="K103" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L103" t="inlineStr">
@@ -7523,7 +7178,6 @@
           <t>Plataforma People</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7539,7 +7193,7 @@
           <t>GEISIANE CLARA DA SILVA SOUZA</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E104" t="inlineStr">
@@ -7568,7 +7222,7 @@
       <c r="J104" t="n">
         <v>160</v>
       </c>
-      <c r="K104" s="2" t="n">
+      <c r="K104" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L104" t="inlineStr">
@@ -7601,7 +7255,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7617,7 +7270,7 @@
           <t>GILBERTO DOS SANTOS</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E105" t="inlineStr">
@@ -7646,7 +7299,7 @@
       <c r="J105" t="n">
         <v>50</v>
       </c>
-      <c r="K105" s="2" t="n">
+      <c r="K105" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L105" t="inlineStr">
@@ -7679,7 +7332,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7695,7 +7347,7 @@
           <t>MIRIAN GIMENES DA SILVA</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E106" t="inlineStr">
@@ -7724,7 +7376,7 @@
       <c r="J106" t="n">
         <v>155</v>
       </c>
-      <c r="K106" s="2" t="n">
+      <c r="K106" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L106" t="inlineStr">
@@ -7757,7 +7409,6 @@
           <t>ANTONIO MARCOS RENOVATO</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7773,7 +7424,7 @@
           <t>PRISCILA MELLO DOS SANTOS</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E107" t="inlineStr">
@@ -7802,7 +7453,7 @@
       <c r="J107" t="n">
         <v>50</v>
       </c>
-      <c r="K107" s="2" t="n">
+      <c r="K107" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L107" t="inlineStr">
@@ -7835,7 +7486,6 @@
           <t>Contatos do telefone</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7851,7 +7501,7 @@
           <t>DAIANE VIEIRA MARTINS</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E108" t="inlineStr">
@@ -7880,7 +7530,7 @@
       <c r="J108" t="n">
         <v>50</v>
       </c>
-      <c r="K108" s="2" t="n">
+      <c r="K108" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L108" t="inlineStr">
@@ -7913,7 +7563,6 @@
           <t>Plataforma People</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7929,7 +7578,7 @@
           <t>MARY LUCI SANTOS DE SOUZA</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E109" t="inlineStr">
@@ -7958,7 +7607,7 @@
       <c r="J109" t="n">
         <v>50</v>
       </c>
-      <c r="K109" s="2" t="n">
+      <c r="K109" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L109" t="inlineStr">
@@ -7991,7 +7640,6 @@
           <t>Dourados</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8007,7 +7655,7 @@
           <t>RUFINA ROMERO DA CUNHA</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E110" t="inlineStr">
@@ -8036,7 +7684,7 @@
       <c r="J110" t="n">
         <v>50</v>
       </c>
-      <c r="K110" s="2" t="n">
+      <c r="K110" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L110" t="inlineStr">
@@ -8069,7 +7717,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8085,7 +7732,7 @@
           <t>PATRICIA DA SILVA BUARQUE GUSMAO BARBOSA</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E111" t="inlineStr">
@@ -8114,7 +7761,7 @@
       <c r="J111" t="n">
         <v>50</v>
       </c>
-      <c r="K111" s="2" t="n">
+      <c r="K111" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L111" t="inlineStr">
@@ -8147,7 +7794,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8163,7 +7809,7 @@
           <t>JOAO PAES DA SILVA</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E112" t="inlineStr">
@@ -8192,7 +7838,7 @@
       <c r="J112" t="n">
         <v>50</v>
       </c>
-      <c r="K112" s="2" t="n">
+      <c r="K112" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L112" t="inlineStr">
@@ -8225,7 +7871,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8241,7 +7886,7 @@
           <t>MARCIO GABRIEL FERREIRA FRANCA</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E113" t="inlineStr">
@@ -8270,7 +7915,7 @@
       <c r="J113" t="n">
         <v>50</v>
       </c>
-      <c r="K113" s="2" t="n">
+      <c r="K113" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L113" t="inlineStr">
@@ -8303,7 +7948,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8319,7 +7963,7 @@
           <t>VANESSA ROBERTO</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E114" t="inlineStr">
@@ -8348,7 +7992,7 @@
       <c r="J114" t="n">
         <v>50</v>
       </c>
-      <c r="K114" s="2" t="n">
+      <c r="K114" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L114" t="inlineStr">
@@ -8381,7 +8025,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8397,7 +8040,7 @@
           <t>RAISSA NATIELY VIEGAS MARTINS</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E115" t="inlineStr">
@@ -8426,7 +8069,7 @@
       <c r="J115" t="n">
         <v>50</v>
       </c>
-      <c r="K115" s="2" t="n">
+      <c r="K115" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L115" t="inlineStr">
@@ -8459,7 +8102,6 @@
           <t>Ligações</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8475,7 +8117,7 @@
           <t>MARIA NADIR HAVEROTH</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E116" t="inlineStr">
@@ -8504,7 +8146,7 @@
       <c r="J116" t="n">
         <v>180</v>
       </c>
-      <c r="K116" s="2" t="n">
+      <c r="K116" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L116" t="inlineStr">
@@ -8517,11 +8159,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8537,7 +8174,7 @@
           <t>KLEBER PEREIRA RODRIGUES</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E117" t="inlineStr">
@@ -8566,7 +8203,7 @@
       <c r="J117" t="n">
         <v>160</v>
       </c>
-      <c r="K117" s="2" t="n">
+      <c r="K117" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L117" t="inlineStr">
@@ -8579,11 +8216,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8599,7 +8231,7 @@
           <t>JOAO SANPATI JUNIOR</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E118" t="inlineStr">
@@ -8628,7 +8260,7 @@
       <c r="J118" t="n">
         <v>160</v>
       </c>
-      <c r="K118" s="2" t="n">
+      <c r="K118" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L118" t="inlineStr">
@@ -8641,11 +8273,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8661,7 +8288,7 @@
           <t>OZINEIDE BENTO FERREIRA</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E119" t="inlineStr">
@@ -8690,7 +8317,7 @@
       <c r="J119" t="n">
         <v>160</v>
       </c>
-      <c r="K119" s="2" t="n">
+      <c r="K119" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L119" t="inlineStr">
@@ -8723,7 +8350,6 @@
           <t>CLEISSON AZEVEDO</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8739,7 +8365,7 @@
           <t>LUCINEIA CECILIO DE ALMEIDA</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E120" t="inlineStr">
@@ -8768,7 +8394,7 @@
       <c r="J120" t="n">
         <v>50</v>
       </c>
-      <c r="K120" s="2" t="n">
+      <c r="K120" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="L120" t="inlineStr">
@@ -8781,11 +8407,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8801,7 +8422,7 @@
           <t>CRIPIANO DA ROZA PAZETRO</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="E121" t="inlineStr">
@@ -8830,7 +8451,6 @@
       <c r="J121" t="n">
         <v>0</v>
       </c>
-      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -8841,11 +8461,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8861,7 +8476,7 @@
           <t>ADEMIR LIMA</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E122" t="inlineStr">
@@ -8890,7 +8505,7 @@
       <c r="J122" t="n">
         <v>71</v>
       </c>
-      <c r="K122" s="2" t="n">
+      <c r="K122" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L122" t="inlineStr">
@@ -8903,11 +8518,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8923,7 +8533,7 @@
           <t>MARCIA TERESA FERNANDES</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E123" t="inlineStr">
@@ -8952,7 +8562,7 @@
       <c r="J123" t="n">
         <v>50</v>
       </c>
-      <c r="K123" s="2" t="n">
+      <c r="K123" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="L123" t="inlineStr">
@@ -8965,11 +8575,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8985,7 +8590,7 @@
           <t>CRISTIANI GAIOLA AUGUSTO</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E124" t="inlineStr">
@@ -9014,7 +8619,7 @@
       <c r="J124" t="n">
         <v>50</v>
       </c>
-      <c r="K124" s="2" t="n">
+      <c r="K124" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L124" t="inlineStr">
@@ -9027,11 +8632,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9047,7 +8647,7 @@
           <t>LEA DE CASTRO BAPTISTA</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E125" t="inlineStr">
@@ -9076,7 +8676,6 @@
       <c r="J125" t="n">
         <v>0</v>
       </c>
-      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -9087,11 +8686,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9107,7 +8701,7 @@
           <t>RENATA KERLE GONCALVES GARCIA</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E126" t="inlineStr">
@@ -9136,7 +8730,7 @@
       <c r="J126" t="n">
         <v>50</v>
       </c>
-      <c r="K126" s="2" t="n">
+      <c r="K126" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L126" t="inlineStr">
@@ -9149,11 +8743,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9169,7 +8758,7 @@
           <t>DANIELI OLIVEIRA LIMA</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E127" t="inlineStr">
@@ -9198,7 +8787,7 @@
       <c r="J127" t="n">
         <v>75</v>
       </c>
-      <c r="K127" s="2" t="n">
+      <c r="K127" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L127" t="inlineStr">
@@ -9211,11 +8800,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9231,7 +8815,7 @@
           <t>TEREZINHA PAIXAO DA SILVA</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E128" t="inlineStr">
@@ -9260,7 +8844,7 @@
       <c r="J128" t="n">
         <v>50</v>
       </c>
-      <c r="K128" s="2" t="n">
+      <c r="K128" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L128" t="inlineStr">
@@ -9273,11 +8857,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9293,7 +8872,7 @@
           <t>EDEMILSON SILVA DE SANTANA</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E129" t="inlineStr">
@@ -9322,7 +8901,7 @@
       <c r="J129" t="n">
         <v>75</v>
       </c>
-      <c r="K129" s="2" t="n">
+      <c r="K129" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L129" t="inlineStr">
@@ -9335,11 +8914,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9355,7 +8929,7 @@
           <t>JOAO GUILHERME PEREIRA NOVAIS</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E130" t="inlineStr">
@@ -9384,7 +8958,6 @@
       <c r="J130" t="n">
         <v>0</v>
       </c>
-      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -9395,11 +8968,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9415,7 +8983,7 @@
           <t>GILMAR PINTO TEIXEIRA</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E131" t="inlineStr">
@@ -9444,7 +9012,7 @@
       <c r="J131" t="n">
         <v>75</v>
       </c>
-      <c r="K131" s="2" t="n">
+      <c r="K131" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L131" t="inlineStr">
@@ -9457,11 +9025,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9477,7 +9040,7 @@
           <t>JAINE DOS SANTOS ROCHA DA SILVA</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E132" t="inlineStr">
@@ -9506,7 +9069,7 @@
       <c r="J132" t="n">
         <v>100</v>
       </c>
-      <c r="K132" s="2" t="n">
+      <c r="K132" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L132" t="inlineStr">
@@ -9539,7 +9102,6 @@
           <t>Plataforma People</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9555,7 +9117,7 @@
           <t>MARGARETE DA FONSECA GONCALVES</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E133" t="inlineStr">
@@ -9584,7 +9146,7 @@
       <c r="J133" t="n">
         <v>50</v>
       </c>
-      <c r="K133" s="2" t="n">
+      <c r="K133" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L133" t="inlineStr">
@@ -9597,11 +9159,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9617,7 +9174,7 @@
           <t>DAIANE LIMA DA SILVA</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E134" t="inlineStr">
@@ -9646,7 +9203,7 @@
       <c r="J134" t="n">
         <v>50</v>
       </c>
-      <c r="K134" s="2" t="n">
+      <c r="K134" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L134" t="inlineStr">
@@ -9659,11 +9216,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9679,7 +9231,7 @@
           <t>EUNICE PAES DA SILVA</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E135" t="inlineStr">
@@ -9710,7 +9262,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K135" s="2" t="n">
+      <c r="K135" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L135" t="inlineStr">
@@ -9723,11 +9275,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9743,7 +9290,7 @@
           <t>MARCOS DE FREITAS BARBOSA</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E136" t="inlineStr">
@@ -9772,7 +9319,7 @@
       <c r="J136" t="n">
         <v>50</v>
       </c>
-      <c r="K136" s="2" t="n">
+      <c r="K136" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L136" t="inlineStr">
@@ -9785,11 +9332,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9805,7 +9347,7 @@
           <t>MARCOS HENRIQUE GOMES CARVALHO</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E137" t="inlineStr">
@@ -9834,7 +9376,7 @@
       <c r="J137" t="n">
         <v>50</v>
       </c>
-      <c r="K137" s="2" t="n">
+      <c r="K137" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L137" t="inlineStr">
@@ -9847,11 +9389,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9867,7 +9404,7 @@
           <t>ANDREI MIRANDA ROSOLEN</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E138" t="inlineStr">
@@ -9896,7 +9433,7 @@
       <c r="J138" t="n">
         <v>50</v>
       </c>
-      <c r="K138" s="2" t="n">
+      <c r="K138" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L138" t="inlineStr">
@@ -9909,11 +9446,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9929,7 +9461,7 @@
           <t>SONIA DIAS FRANCO CARDOSO</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E139" t="inlineStr">
@@ -9958,7 +9490,7 @@
       <c r="J139" t="n">
         <v>50</v>
       </c>
-      <c r="K139" s="2" t="n">
+      <c r="K139" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L139" t="inlineStr">
@@ -9971,11 +9503,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9991,7 +9518,7 @@
           <t>LUCIANA OLIVEIRA DOS SANTOS PADUINA</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E140" t="inlineStr">
@@ -10020,7 +9547,7 @@
       <c r="J140" t="n">
         <v>50</v>
       </c>
-      <c r="K140" s="2" t="n">
+      <c r="K140" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L140" t="inlineStr">
@@ -10053,7 +9580,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10069,7 +9595,7 @@
           <t>VAGNER DE LIMA ROCHA</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E141" t="inlineStr">
@@ -10098,7 +9624,7 @@
       <c r="J141" t="n">
         <v>50</v>
       </c>
-      <c r="K141" s="2" t="n">
+      <c r="K141" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L141" t="inlineStr">
@@ -10111,11 +9637,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10131,7 +9652,7 @@
           <t>BRENDA BALDUINO DOS SANTOS</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E142" t="inlineStr">
@@ -10160,7 +9681,7 @@
       <c r="J142" t="n">
         <v>50</v>
       </c>
-      <c r="K142" s="2" t="n">
+      <c r="K142" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L142" t="inlineStr">
@@ -10193,7 +9714,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10209,7 +9729,7 @@
           <t>JACIRA SILVA IGABRIDAO</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E143" t="inlineStr">
@@ -10238,7 +9758,7 @@
       <c r="J143" t="n">
         <v>50</v>
       </c>
-      <c r="K143" s="2" t="n">
+      <c r="K143" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L143" t="inlineStr">
@@ -10251,11 +9771,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10271,7 +9786,7 @@
           <t>NAURI LOPES CORREA</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E144" t="inlineStr">
@@ -10300,7 +9815,7 @@
       <c r="J144" t="n">
         <v>50</v>
       </c>
-      <c r="K144" s="2" t="n">
+      <c r="K144" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L144" t="inlineStr">
@@ -10313,11 +9828,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10333,7 +9843,7 @@
           <t>EDNEIA PEREIRA ROSA</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E145" t="inlineStr">
@@ -10362,7 +9872,7 @@
       <c r="J145" t="n">
         <v>50</v>
       </c>
-      <c r="K145" s="2" t="n">
+      <c r="K145" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L145" t="inlineStr">
@@ -10375,11 +9885,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10395,7 +9900,7 @@
           <t>CAMILA GOMES DOS SANTOS</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E146" t="inlineStr">
@@ -10424,7 +9929,7 @@
       <c r="J146" t="n">
         <v>50</v>
       </c>
-      <c r="K146" s="2" t="n">
+      <c r="K146" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L146" t="inlineStr">
@@ -10437,11 +9942,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10457,7 +9957,7 @@
           <t>GRACIELI CAETANO TAMANHO</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E147" t="inlineStr">
@@ -10486,7 +9986,7 @@
       <c r="J147" t="n">
         <v>50</v>
       </c>
-      <c r="K147" s="2" t="n">
+      <c r="K147" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="L147" t="inlineStr">
@@ -10499,11 +9999,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10519,7 +10014,7 @@
           <t>ANDERSON MEDINA ARGUELHO</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E148" t="inlineStr">
@@ -10548,7 +10043,7 @@
       <c r="J148" t="n">
         <v>50</v>
       </c>
-      <c r="K148" s="2" t="n">
+      <c r="K148" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L148" t="inlineStr">
@@ -10561,11 +10056,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10581,7 +10071,7 @@
           <t>CARLOS ALBERTO ANTUNES AQUINO</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E149" t="inlineStr">
@@ -10610,7 +10100,7 @@
       <c r="J149" t="n">
         <v>50</v>
       </c>
-      <c r="K149" s="2" t="n">
+      <c r="K149" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L149" t="inlineStr">
@@ -10643,7 +10133,6 @@
           <t>Dourados</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10659,7 +10148,7 @@
           <t>VANESA GEMNICZAK</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E150" t="inlineStr">
@@ -10690,7 +10179,7 @@
           <t>83,5</t>
         </is>
       </c>
-      <c r="K150" s="2" t="n">
+      <c r="K150" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L150" t="inlineStr">
@@ -10703,11 +10192,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10723,7 +10207,7 @@
           <t>SERGIO DIEGO AYRES</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E151" t="inlineStr">
@@ -10754,7 +10238,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K151" s="2" t="n">
+      <c r="K151" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L151" t="inlineStr">
@@ -10767,11 +10251,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10787,7 +10266,7 @@
           <t>SOLANGE TEREZINHA ENINGER HAHN</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E152" t="inlineStr">
@@ -10818,7 +10297,7 @@
           <t>141,5</t>
         </is>
       </c>
-      <c r="K152" s="2" t="n">
+      <c r="K152" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L152" t="inlineStr">
@@ -10831,11 +10310,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10851,7 +10325,7 @@
           <t>MYCAELA CRISTINA PEREIRA GRUTZMANN</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E153" t="inlineStr">
@@ -10880,7 +10354,7 @@
       <c r="J153" t="n">
         <v>100</v>
       </c>
-      <c r="K153" s="2" t="n">
+      <c r="K153" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L153" t="inlineStr">
@@ -10893,11 +10367,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10913,7 +10382,7 @@
           <t>EDSON SOARES ROSA</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E154" t="inlineStr">
@@ -10942,7 +10411,7 @@
       <c r="J154" t="n">
         <v>160</v>
       </c>
-      <c r="K154" s="2" t="n">
+      <c r="K154" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L154" t="inlineStr">
@@ -10955,11 +10424,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10975,7 +10439,7 @@
           <t>ANITA SCHAEFER</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E155" t="inlineStr">
@@ -11004,7 +10468,7 @@
       <c r="J155" t="n">
         <v>160</v>
       </c>
-      <c r="K155" s="2" t="n">
+      <c r="K155" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L155" t="inlineStr">
@@ -11017,11 +10481,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11037,7 +10496,7 @@
           <t>ANGELICA MUHLBEIER</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E156" t="inlineStr">
@@ -11066,7 +10525,7 @@
       <c r="J156" t="n">
         <v>101</v>
       </c>
-      <c r="K156" s="2" t="n">
+      <c r="K156" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L156" t="inlineStr">
@@ -11079,11 +10538,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11099,7 +10553,7 @@
           <t>GELSO DOS SANTOS ROCHA</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E157" t="inlineStr">
@@ -11130,7 +10584,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K157" s="2" t="n">
+      <c r="K157" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="L157" t="inlineStr">
@@ -11143,11 +10597,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11163,7 +10612,7 @@
           <t>RITA GERMANO DA SILVA BOONE</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E158" t="inlineStr">
@@ -11192,7 +10641,7 @@
       <c r="J158" t="n">
         <v>100</v>
       </c>
-      <c r="K158" s="2" t="n">
+      <c r="K158" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L158" t="inlineStr">
@@ -11205,11 +10654,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11225,7 +10669,7 @@
           <t>ALBERTO MARTINS COUTINHO</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E159" t="inlineStr">
@@ -11254,7 +10698,7 @@
       <c r="J159" t="n">
         <v>160</v>
       </c>
-      <c r="K159" s="2" t="n">
+      <c r="K159" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L159" t="inlineStr">
@@ -11267,11 +10711,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11287,7 +10726,7 @@
           <t>JOAQUIM CORREIA DO PRADO FILHO</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E160" t="inlineStr">
@@ -11316,7 +10755,6 @@
       <c r="J160" t="n">
         <v>0</v>
       </c>
-      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>PAX PRIMAVERA</t>
@@ -11327,11 +10765,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11347,7 +10780,7 @@
           <t>DIRCEU CASTRO FREIRE</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E161" t="inlineStr">
@@ -11376,7 +10809,7 @@
       <c r="J161" t="n">
         <v>50</v>
       </c>
-      <c r="K161" s="2" t="n">
+      <c r="K161" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L161" t="inlineStr">
@@ -11389,11 +10822,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11409,7 +10837,7 @@
           <t>ROSANGELA MARIA BIZERRA RODRIGUES</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E162" t="inlineStr">
@@ -11438,7 +10866,7 @@
       <c r="J162" t="n">
         <v>50</v>
       </c>
-      <c r="K162" s="2" t="n">
+      <c r="K162" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L162" t="inlineStr">
@@ -11451,11 +10879,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11471,7 +10894,7 @@
           <t>BIANCA DE AGUIAR RODRIGUES</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E163" t="inlineStr">
@@ -11500,7 +10923,7 @@
       <c r="J163" t="n">
         <v>50</v>
       </c>
-      <c r="K163" s="2" t="n">
+      <c r="K163" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L163" t="inlineStr">
@@ -11513,11 +10936,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11533,7 +10951,7 @@
           <t>NARCISO CANDIDO DE SOUZA</t>
         </is>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E164" t="inlineStr">
@@ -11562,7 +10980,7 @@
       <c r="J164" t="n">
         <v>50</v>
       </c>
-      <c r="K164" s="2" t="n">
+      <c r="K164" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L164" t="inlineStr">
@@ -11575,11 +10993,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11595,7 +11008,7 @@
           <t>ADECINA SILVA DE LIMA MORAES</t>
         </is>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E165" t="inlineStr">
@@ -11624,7 +11037,7 @@
       <c r="J165" t="n">
         <v>50</v>
       </c>
-      <c r="K165" s="2" t="n">
+      <c r="K165" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L165" t="inlineStr">
@@ -11637,11 +11050,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11657,7 +11065,7 @@
           <t>BRUNA DA SILVA SOUZA BRITO</t>
         </is>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E166" t="inlineStr">
@@ -11686,7 +11094,7 @@
       <c r="J166" t="n">
         <v>50</v>
       </c>
-      <c r="K166" s="2" t="n">
+      <c r="K166" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L166" t="inlineStr">
@@ -11699,11 +11107,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11719,7 +11122,7 @@
           <t>RENAN DA SILVA SANTOS</t>
         </is>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E167" t="inlineStr">
@@ -11748,7 +11151,7 @@
       <c r="J167" t="n">
         <v>50</v>
       </c>
-      <c r="K167" s="2" t="n">
+      <c r="K167" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L167" t="inlineStr">
@@ -11761,11 +11164,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11781,7 +11179,7 @@
           <t>KHRYSTHYANY TOMOE NAKAHARA</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E168" t="inlineStr">
@@ -11810,7 +11208,7 @@
       <c r="J168" t="n">
         <v>50</v>
       </c>
-      <c r="K168" s="2" t="n">
+      <c r="K168" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L168" t="inlineStr">
@@ -11823,11 +11221,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11843,7 +11236,7 @@
           <t>SIMONE APARECIDA NUNES VASQUE</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E169" t="inlineStr">
@@ -11872,7 +11265,7 @@
       <c r="J169" t="n">
         <v>50</v>
       </c>
-      <c r="K169" s="2" t="n">
+      <c r="K169" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L169" t="inlineStr">
@@ -11885,11 +11278,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11905,7 +11293,7 @@
           <t>CRISTINA TEIXEIRA CUSTODIO</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E170" t="inlineStr">
@@ -11934,7 +11322,7 @@
       <c r="J170" t="n">
         <v>50</v>
       </c>
-      <c r="K170" s="2" t="n">
+      <c r="K170" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L170" t="inlineStr">
@@ -11947,11 +11335,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11967,7 +11350,7 @@
           <t>JANE APARECIDA FARIA MEDINA DIAS</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E171" t="inlineStr">
@@ -11996,7 +11379,6 @@
       <c r="J171" t="n">
         <v>0</v>
       </c>
-      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -12007,11 +11389,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12027,7 +11404,7 @@
           <t>GRACIELI NUNES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E172" t="inlineStr">
@@ -12056,7 +11433,7 @@
       <c r="J172" t="n">
         <v>50</v>
       </c>
-      <c r="K172" s="2" t="n">
+      <c r="K172" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L172" t="inlineStr">
@@ -12069,11 +11446,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12089,7 +11461,7 @@
           <t>JOANA FERMINO DOS SANTOS</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E173" t="inlineStr">
@@ -12118,7 +11490,7 @@
       <c r="J173" t="n">
         <v>50</v>
       </c>
-      <c r="K173" s="2" t="n">
+      <c r="K173" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L173" t="inlineStr">
@@ -12131,11 +11503,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12151,7 +11518,7 @@
           <t>ROSANGELA LUCIA DA DILVA</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E174" t="inlineStr">
@@ -12180,7 +11547,7 @@
       <c r="J174" t="n">
         <v>50</v>
       </c>
-      <c r="K174" s="2" t="n">
+      <c r="K174" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L174" t="inlineStr">
@@ -12213,7 +11580,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12229,7 +11595,7 @@
           <t>LUCAS LARA AGUIAR</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E175" t="inlineStr">
@@ -12258,7 +11624,7 @@
       <c r="J175" t="n">
         <v>50</v>
       </c>
-      <c r="K175" s="2" t="n">
+      <c r="K175" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L175" t="inlineStr">
@@ -12271,11 +11637,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12291,7 +11652,7 @@
           <t>CRISTIANA NUNES DA SILVA</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E176" t="inlineStr">
@@ -12320,7 +11681,7 @@
       <c r="J176" t="n">
         <v>50</v>
       </c>
-      <c r="K176" s="2" t="n">
+      <c r="K176" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L176" t="inlineStr">
@@ -12353,7 +11714,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12369,7 +11729,7 @@
           <t>ANDREIA AVANCO SCARPIN</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E177" t="inlineStr">
@@ -12398,7 +11758,7 @@
       <c r="J177" t="n">
         <v>50</v>
       </c>
-      <c r="K177" s="2" t="n">
+      <c r="K177" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L177" t="inlineStr">
@@ -12431,7 +11791,6 @@
           <t>HandChat</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12447,7 +11806,7 @@
           <t>HEMERSON CABRAL VEGA</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E178" t="inlineStr">
@@ -12476,7 +11835,7 @@
       <c r="J178" t="n">
         <v>50</v>
       </c>
-      <c r="K178" s="2" t="n">
+      <c r="K178" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="L178" t="inlineStr">
@@ -12489,11 +11848,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12509,7 +11863,7 @@
           <t>SILVANA FAUSTINA RODRIGUES BARBOSA</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E179" t="inlineStr">
@@ -12538,7 +11892,7 @@
       <c r="J179" t="n">
         <v>50</v>
       </c>
-      <c r="K179" s="2" t="n">
+      <c r="K179" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L179" t="inlineStr">
@@ -12551,11 +11905,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12571,7 +11920,7 @@
           <t>ADAO AGULERA VARGAS</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E180" t="inlineStr">
@@ -12600,7 +11949,7 @@
       <c r="J180" t="n">
         <v>50</v>
       </c>
-      <c r="K180" s="2" t="n">
+      <c r="K180" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L180" t="inlineStr">
@@ -12613,11 +11962,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12633,7 +11977,7 @@
           <t>MARIA DE FATIMA CRAMOLISK</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E181" t="inlineStr">
@@ -12662,7 +12006,7 @@
       <c r="J181" t="n">
         <v>50</v>
       </c>
-      <c r="K181" s="2" t="n">
+      <c r="K181" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L181" t="inlineStr">
@@ -12675,11 +12019,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12695,7 +12034,7 @@
           <t>JULIANA DE SOUZA PENACHO</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E182" t="inlineStr">
@@ -12724,7 +12063,7 @@
       <c r="J182" t="n">
         <v>50</v>
       </c>
-      <c r="K182" s="2" t="n">
+      <c r="K182" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L182" t="inlineStr">
@@ -12737,11 +12076,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12757,7 +12091,7 @@
           <t>ROSANGELA APARECIDA DOS SANTOS AJALA</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E183" t="inlineStr">
@@ -12786,7 +12120,7 @@
       <c r="J183" t="n">
         <v>50</v>
       </c>
-      <c r="K183" s="2" t="n">
+      <c r="K183" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L183" t="inlineStr">
@@ -12799,11 +12133,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12819,7 +12148,7 @@
           <t>LUCIANA COSTA DE SOUZA</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E184" t="inlineStr">
@@ -12848,7 +12177,7 @@
       <c r="J184" t="n">
         <v>160</v>
       </c>
-      <c r="K184" s="2" t="n">
+      <c r="K184" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L184" t="inlineStr">
@@ -12861,11 +12190,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12881,7 +12205,7 @@
           <t>THAISY MENDES DA CONCEICAO</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E185" t="inlineStr">
@@ -12910,7 +12234,7 @@
       <c r="J185" t="n">
         <v>50</v>
       </c>
-      <c r="K185" s="2" t="n">
+      <c r="K185" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L185" t="inlineStr">
@@ -12943,7 +12267,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12959,7 +12282,7 @@
           <t>CLAUDINEIA BATISTA DE ANDRADE</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E186" t="inlineStr">
@@ -12988,7 +12311,7 @@
       <c r="J186" t="n">
         <v>50</v>
       </c>
-      <c r="K186" s="2" t="n">
+      <c r="K186" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L186" t="inlineStr">
@@ -13021,7 +12344,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13037,7 +12359,7 @@
           <t>ELISABETHE DE OLIVEIRA DA SILVA</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E187" t="inlineStr">
@@ -13068,7 +12390,7 @@
           <t>62,75</t>
         </is>
       </c>
-      <c r="K187" s="2" t="n">
+      <c r="K187" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L187" t="inlineStr">
@@ -13081,11 +12403,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13101,7 +12418,7 @@
           <t>SHEILA LEITE DE OLIVEIRA RODRIGUES</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E188" t="inlineStr">
@@ -13132,7 +12449,7 @@
           <t>104,5</t>
         </is>
       </c>
-      <c r="K188" s="2" t="n">
+      <c r="K188" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L188" t="inlineStr">
@@ -13145,11 +12462,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13165,7 +12477,7 @@
           <t>MARIA APARECIDA DA SILVA NEVES</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E189" t="inlineStr">
@@ -13196,7 +12508,7 @@
           <t>83,5</t>
         </is>
       </c>
-      <c r="K189" s="2" t="n">
+      <c r="K189" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L189" t="inlineStr">
@@ -13209,11 +12521,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13229,7 +12536,7 @@
           <t>QUELZA CRISTINA DE LEMOS COSTA</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E190" t="inlineStr">
@@ -13260,7 +12567,7 @@
           <t>126,5</t>
         </is>
       </c>
-      <c r="K190" s="2" t="n">
+      <c r="K190" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L190" t="inlineStr">
@@ -13273,11 +12580,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13293,7 +12595,7 @@
           <t>IZABEL CRISTINA FERREIRA ALVES</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E191" t="inlineStr">
@@ -13324,7 +12626,7 @@
           <t>126,5</t>
         </is>
       </c>
-      <c r="K191" s="2" t="n">
+      <c r="K191" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L191" t="inlineStr">
@@ -13337,11 +12639,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13357,7 +12654,7 @@
           <t>ROSANGELA BAPTISTA DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E192" t="inlineStr">
@@ -13388,7 +12685,7 @@
           <t>126,5</t>
         </is>
       </c>
-      <c r="K192" s="2" t="n">
+      <c r="K192" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L192" t="inlineStr">
@@ -13401,11 +12698,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13421,7 +12713,7 @@
           <t>DAVI DE SOUZA RIBEIRO</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E193" t="inlineStr">
@@ -13452,7 +12744,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K193" s="2" t="n">
+      <c r="K193" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L193" t="inlineStr">
@@ -13465,11 +12757,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13485,7 +12772,7 @@
           <t>SARAH DE SOUZA REIS</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E194" t="inlineStr">
@@ -13516,7 +12803,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K194" s="2" t="n">
+      <c r="K194" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L194" t="inlineStr">
@@ -13529,11 +12816,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13549,7 +12831,7 @@
           <t>EDILENE CORREIA DE LIRA</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E195" t="inlineStr">
@@ -13580,7 +12862,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K195" s="2" t="n">
+      <c r="K195" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L195" t="inlineStr">
@@ -13593,11 +12875,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13613,7 +12890,7 @@
           <t>ANA LUCIA DOS SANTOS</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E196" t="inlineStr">
@@ -13644,7 +12921,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K196" s="2" t="n">
+      <c r="K196" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L196" t="inlineStr">
@@ -13657,11 +12934,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13677,7 +12949,7 @@
           <t>JANE DE SOUZA GUEDES VESPASIANO</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E197" t="inlineStr">
@@ -13708,7 +12980,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K197" s="2" t="n">
+      <c r="K197" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L197" t="inlineStr">
@@ -13721,11 +12993,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13741,7 +13008,7 @@
           <t>MARILUCE INACIO DA SILVA</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E198" t="inlineStr">
@@ -13772,7 +13039,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K198" s="2" t="n">
+      <c r="K198" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L198" t="inlineStr">
@@ -13785,11 +13052,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13805,7 +13067,7 @@
           <t>EDILSON ABILIO DA SILVA</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E199" t="inlineStr">
@@ -13836,7 +13098,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K199" s="2" t="n">
+      <c r="K199" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="L199" t="inlineStr">
@@ -13849,11 +13111,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13869,7 +13126,7 @@
           <t>MARGARIDA MELO DO NASCIMENTO</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E200" t="inlineStr">
@@ -13898,7 +13155,6 @@
       <c r="J200" t="n">
         <v>0</v>
       </c>
-      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -13909,11 +13165,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13929,7 +13180,7 @@
           <t>TAIS NERY CORREIA SILVA</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E201" t="inlineStr">
@@ -13958,7 +13209,7 @@
       <c r="J201" t="n">
         <v>50</v>
       </c>
-      <c r="K201" s="2" t="n">
+      <c r="K201" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L201" t="inlineStr">
@@ -13971,11 +13222,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13991,7 +13237,7 @@
           <t>FERMINA PARRA ALFONSO</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E202" t="inlineStr">
@@ -14020,7 +13266,7 @@
       <c r="J202" t="n">
         <v>130000</v>
       </c>
-      <c r="K202" s="2" t="n">
+      <c r="K202" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L202" t="inlineStr">
@@ -14033,11 +13279,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14053,7 +13294,7 @@
           <t>ISABEL VEGA RUIZ</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E203" t="inlineStr">
@@ -14082,7 +13323,7 @@
       <c r="J203" t="n">
         <v>108000</v>
       </c>
-      <c r="K203" s="2" t="n">
+      <c r="K203" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L203" t="inlineStr">
@@ -14095,11 +13336,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14115,7 +13351,7 @@
           <t>NORMA ESTELVINA JAIME DE LANDOLFI</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E204" t="inlineStr">
@@ -14144,7 +13380,7 @@
       <c r="J204" t="n">
         <v>108000</v>
       </c>
-      <c r="K204" s="2" t="n">
+      <c r="K204" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L204" t="inlineStr">
@@ -14157,11 +13393,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14177,7 +13408,7 @@
           <t>VICTOR ALFONSO SILVA GOMEZ</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E205" t="inlineStr">
@@ -14206,7 +13437,7 @@
       <c r="J205" t="n">
         <v>108000</v>
       </c>
-      <c r="K205" s="2" t="n">
+      <c r="K205" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L205" t="inlineStr">
@@ -14219,11 +13450,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14239,7 +13465,7 @@
           <t>LIDIA ALDANA AGUERO</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E206" t="inlineStr">
@@ -14268,7 +13494,7 @@
       <c r="J206" t="n">
         <v>130000</v>
       </c>
-      <c r="K206" s="2" t="n">
+      <c r="K206" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L206" t="inlineStr">
@@ -14281,11 +13507,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14301,7 +13522,7 @@
           <t>MARINA ESPINOLA</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E207" t="inlineStr">
@@ -14330,7 +13551,7 @@
       <c r="J207" t="n">
         <v>130000</v>
       </c>
-      <c r="K207" s="2" t="n">
+      <c r="K207" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L207" t="inlineStr">
@@ -14343,11 +13564,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14363,7 +13579,7 @@
           <t>ANASTACIO GONZALEZ LOPEZ</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E208" t="inlineStr">
@@ -14392,7 +13608,7 @@
       <c r="J208" t="n">
         <v>130000</v>
       </c>
-      <c r="K208" s="2" t="n">
+      <c r="K208" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L208" t="inlineStr">
@@ -14405,11 +13621,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14425,7 +13636,7 @@
           <t>EVA CELIA DELGADO BRITEZ</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E209" t="inlineStr">
@@ -14454,7 +13665,7 @@
       <c r="J209" t="n">
         <v>108000</v>
       </c>
-      <c r="K209" s="2" t="n">
+      <c r="K209" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L209" t="inlineStr">
@@ -14467,11 +13678,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14487,7 +13693,7 @@
           <t>SARA ELENA LESME MARQUES</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E210" t="inlineStr">
@@ -14516,7 +13722,7 @@
       <c r="J210" t="n">
         <v>108000</v>
       </c>
-      <c r="K210" s="2" t="n">
+      <c r="K210" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L210" t="inlineStr">
@@ -14529,11 +13735,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14549,7 +13750,7 @@
           <t>BETTY ZUNILDA SALINAS</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E211" t="inlineStr">
@@ -14578,7 +13779,7 @@
       <c r="J211" t="n">
         <v>130000</v>
       </c>
-      <c r="K211" s="2" t="n">
+      <c r="K211" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L211" t="inlineStr">
@@ -14591,11 +13792,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N211" t="inlineStr"/>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14611,7 +13807,7 @@
           <t>ADA ESTELA AQUINO DE LOPEZ</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="E212" t="inlineStr">
@@ -14640,7 +13836,6 @@
       <c r="J212" t="n">
         <v>0</v>
       </c>
-      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -14651,11 +13846,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N212" t="inlineStr"/>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14671,7 +13861,7 @@
           <t>ANA MARIA NASCIMENTO MARIANO</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E213" t="inlineStr">
@@ -14700,7 +13890,7 @@
       <c r="J213" t="n">
         <v>50</v>
       </c>
-      <c r="K213" s="2" t="n">
+      <c r="K213" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L213" t="inlineStr">
@@ -14713,11 +13903,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N213" t="inlineStr"/>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14733,7 +13918,7 @@
           <t>JADSON OLIVEIRA RECALDE</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E214" t="inlineStr">
@@ -14762,7 +13947,7 @@
       <c r="J214" t="n">
         <v>50</v>
       </c>
-      <c r="K214" s="2" t="n">
+      <c r="K214" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L214" t="inlineStr">
@@ -14775,11 +13960,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14795,7 +13975,7 @@
           <t>NELSON TELES DA SILVA</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E215" t="inlineStr">
@@ -14824,7 +14004,7 @@
       <c r="J215" t="n">
         <v>50</v>
       </c>
-      <c r="K215" s="2" t="n">
+      <c r="K215" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L215" t="inlineStr">
@@ -14837,11 +14017,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N215" t="inlineStr"/>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14857,7 +14032,7 @@
           <t>ADOLFO ARAUJO</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E216" t="inlineStr">
@@ -14886,7 +14061,7 @@
       <c r="J216" t="n">
         <v>50</v>
       </c>
-      <c r="K216" s="2" t="n">
+      <c r="K216" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L216" t="inlineStr">
@@ -14899,11 +14074,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N216" t="inlineStr"/>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14919,7 +14089,7 @@
           <t>MADELENA SANGUINA</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E217" t="inlineStr">
@@ -14948,7 +14118,7 @@
       <c r="J217" t="n">
         <v>50</v>
       </c>
-      <c r="K217" s="2" t="n">
+      <c r="K217" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L217" t="inlineStr">
@@ -14961,11 +14131,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14981,7 +14146,7 @@
           <t>EURICO FERNANDES DA SILVA</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E218" t="inlineStr">
@@ -15010,7 +14175,7 @@
       <c r="J218" t="n">
         <v>50</v>
       </c>
-      <c r="K218" s="2" t="n">
+      <c r="K218" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L218" t="inlineStr">
@@ -15023,11 +14188,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N218" t="inlineStr"/>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15043,7 +14203,7 @@
           <t>LUCILENE CRISTALDO VELASQUES</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E219" t="inlineStr">
@@ -15072,7 +14232,7 @@
       <c r="J219" t="n">
         <v>160</v>
       </c>
-      <c r="K219" s="2" t="n">
+      <c r="K219" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L219" t="inlineStr">
@@ -15085,11 +14245,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr"/>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15105,7 +14260,7 @@
           <t>DAIANE DE SOUZA</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="E220" t="inlineStr">
@@ -15134,7 +14289,6 @@
       <c r="J220" t="n">
         <v>0</v>
       </c>
-      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -15145,11 +14299,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr"/>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15165,7 +14314,7 @@
           <t>ROSE LUCIA GOMES MARTINEZ</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E221" t="inlineStr">
@@ -15194,7 +14343,7 @@
       <c r="J221" t="n">
         <v>50</v>
       </c>
-      <c r="K221" s="2" t="n">
+      <c r="K221" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L221" t="inlineStr">
@@ -15207,11 +14356,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr"/>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15227,7 +14371,7 @@
           <t>JACIANE WIECZOREK</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E222" t="inlineStr">
@@ -15256,7 +14400,7 @@
       <c r="J222" t="n">
         <v>160</v>
       </c>
-      <c r="K222" s="2" t="n">
+      <c r="K222" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L222" t="inlineStr">
@@ -15269,11 +14413,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15289,7 +14428,7 @@
           <t>ROSALVA FERREIRA AVILA</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E223" t="inlineStr">
@@ -15318,7 +14457,7 @@
       <c r="J223" t="n">
         <v>50</v>
       </c>
-      <c r="K223" s="2" t="n">
+      <c r="K223" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L223" t="inlineStr">
@@ -15331,11 +14470,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15351,7 +14485,7 @@
           <t>ILSON MARQUES MEDEIROS</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E224" t="inlineStr">
@@ -15380,7 +14514,7 @@
       <c r="J224" t="n">
         <v>50</v>
       </c>
-      <c r="K224" s="2" t="n">
+      <c r="K224" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L224" t="inlineStr">
@@ -15393,11 +14527,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N224" t="inlineStr"/>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15413,7 +14542,7 @@
           <t>THAINARA BIANCA AJALA ZABALLOS</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E225" t="inlineStr">
@@ -15442,7 +14571,7 @@
       <c r="J225" t="n">
         <v>0</v>
       </c>
-      <c r="K225" s="2" t="n">
+      <c r="K225" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L225" t="inlineStr">
@@ -15455,11 +14584,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15475,7 +14599,7 @@
           <t>JOSIANE DA SILVA BALMBIL SCHIMITS</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E226" t="inlineStr">
@@ -15504,7 +14628,7 @@
       <c r="J226" t="n">
         <v>50</v>
       </c>
-      <c r="K226" s="2" t="n">
+      <c r="K226" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L226" t="inlineStr">
@@ -15517,11 +14641,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15537,7 +14656,7 @@
           <t>MARIA LUCIA MEDINA DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E227" t="inlineStr">
@@ -15566,7 +14685,7 @@
       <c r="J227" t="n">
         <v>50</v>
       </c>
-      <c r="K227" s="2" t="n">
+      <c r="K227" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L227" t="inlineStr">
@@ -15579,11 +14698,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15599,7 +14713,7 @@
           <t>DEBORAH DE OLIVEIRA GOMES</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E228" t="inlineStr">
@@ -15628,7 +14742,7 @@
       <c r="J228" t="n">
         <v>50</v>
       </c>
-      <c r="K228" s="2" t="n">
+      <c r="K228" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L228" t="inlineStr">
@@ -15641,11 +14755,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15661,7 +14770,7 @@
           <t>ELZIRA MARINA MARQUES</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E229" t="inlineStr">
@@ -15690,7 +14799,7 @@
       <c r="J229" t="n">
         <v>50</v>
       </c>
-      <c r="K229" s="2" t="n">
+      <c r="K229" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L229" t="inlineStr">
@@ -15703,11 +14812,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15723,7 +14827,7 @@
           <t>CAROLINA SARACHO</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E230" t="inlineStr">
@@ -15752,7 +14856,7 @@
       <c r="J230" t="n">
         <v>50</v>
       </c>
-      <c r="K230" s="2" t="n">
+      <c r="K230" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L230" t="inlineStr">
@@ -15765,11 +14869,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15785,7 +14884,7 @@
           <t>JOICE CHINAIDER MACHADO SANABRIA</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E231" t="inlineStr">
@@ -15814,7 +14913,7 @@
       <c r="J231" t="n">
         <v>160</v>
       </c>
-      <c r="K231" s="2" t="n">
+      <c r="K231" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L231" t="inlineStr">
@@ -15827,11 +14926,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15847,7 +14941,7 @@
           <t>IVANETE DE LIMA</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E232" t="inlineStr">
@@ -15876,7 +14970,6 @@
       <c r="J232" t="n">
         <v>0</v>
       </c>
-      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -15887,11 +14980,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N232" t="inlineStr"/>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15907,7 +14995,7 @@
           <t>MATEUS NAPOLEAO ANDRE</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E233" t="inlineStr">
@@ -15936,7 +15024,7 @@
       <c r="J233" t="n">
         <v>50</v>
       </c>
-      <c r="K233" s="2" t="n">
+      <c r="K233" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L233" t="inlineStr">
@@ -15969,7 +15057,6 @@
           <t>Plataforma People</t>
         </is>
       </c>
-      <c r="R233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -15985,7 +15072,7 @@
           <t>GILCILANE RIQUELME DOS SANTOS SILVA</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E234" t="inlineStr">
@@ -16014,7 +15101,7 @@
       <c r="J234" t="n">
         <v>50</v>
       </c>
-      <c r="K234" s="2" t="n">
+      <c r="K234" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L234" t="inlineStr">
@@ -16027,11 +15114,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16047,7 +15129,7 @@
           <t>LUCIENE DOS SANTOS SOUZA</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E235" t="inlineStr">
@@ -16076,7 +15158,7 @@
       <c r="J235" t="n">
         <v>50</v>
       </c>
-      <c r="K235" s="2" t="n">
+      <c r="K235" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L235" t="inlineStr">
@@ -16089,11 +15171,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16109,7 +15186,7 @@
           <t>FELICIANA DUTRA SIMAO</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E236" t="inlineStr">
@@ -16138,7 +15215,7 @@
       <c r="J236" t="n">
         <v>160</v>
       </c>
-      <c r="K236" s="2" t="n">
+      <c r="K236" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L236" t="inlineStr">
@@ -16171,7 +15248,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16187,7 +15263,7 @@
           <t>VALDEMIR DIAS BUENO</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E237" t="inlineStr">
@@ -16216,7 +15292,7 @@
       <c r="J237" t="n">
         <v>100</v>
       </c>
-      <c r="K237" s="2" t="n">
+      <c r="K237" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L237" t="inlineStr">
@@ -16229,11 +15305,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16249,7 +15320,7 @@
           <t>IZABEL DA CONCEICAO DA SILVA</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E238" t="inlineStr">
@@ -16278,7 +15349,7 @@
       <c r="J238" t="n">
         <v>100</v>
       </c>
-      <c r="K238" s="2" t="n">
+      <c r="K238" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L238" t="inlineStr">
@@ -16291,11 +15362,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16311,7 +15377,7 @@
           <t>CLAUDECIR TAVARES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E239" t="inlineStr">
@@ -16340,7 +15406,7 @@
       <c r="J239" t="n">
         <v>50</v>
       </c>
-      <c r="K239" s="2" t="n">
+      <c r="K239" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L239" t="inlineStr">
@@ -16353,11 +15419,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16373,7 +15434,7 @@
           <t>LIVIA DA SILVA SANTOS</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E240" t="inlineStr">
@@ -16402,7 +15463,7 @@
       <c r="J240" t="n">
         <v>50</v>
       </c>
-      <c r="K240" s="2" t="n">
+      <c r="K240" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L240" t="inlineStr">
@@ -16415,11 +15476,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16435,7 +15491,7 @@
           <t>IRANI DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E241" t="inlineStr">
@@ -16464,7 +15520,7 @@
       <c r="J241" t="n">
         <v>50</v>
       </c>
-      <c r="K241" s="2" t="n">
+      <c r="K241" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L241" t="inlineStr">
@@ -16477,11 +15533,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16497,7 +15548,7 @@
           <t>JOSIAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E242" t="inlineStr">
@@ -16526,7 +15577,7 @@
       <c r="J242" t="n">
         <v>50</v>
       </c>
-      <c r="K242" s="2" t="n">
+      <c r="K242" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L242" t="inlineStr">
@@ -16539,11 +15590,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N242" t="inlineStr"/>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16559,7 +15605,7 @@
           <t>TIAGO DE CASTRO FERREIRA</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
+      <c r="D243" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E243" t="inlineStr">
@@ -16588,7 +15634,7 @@
       <c r="J243" t="n">
         <v>50</v>
       </c>
-      <c r="K243" s="2" t="n">
+      <c r="K243" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L243" t="inlineStr">
@@ -16601,11 +15647,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16621,7 +15662,7 @@
           <t>ROSIMELI GONCALVES FERREIRA</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
+      <c r="D244" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E244" t="inlineStr">
@@ -16650,7 +15691,7 @@
       <c r="J244" t="n">
         <v>50</v>
       </c>
-      <c r="K244" s="2" t="n">
+      <c r="K244" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L244" t="inlineStr">
@@ -16663,11 +15704,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N244" t="inlineStr"/>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16683,7 +15719,7 @@
           <t>LENICE RAQUEL KUNZ</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E245" t="inlineStr">
@@ -16712,7 +15748,6 @@
       <c r="J245" t="n">
         <v>0</v>
       </c>
-      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>NOVO</t>
@@ -16723,11 +15758,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16743,7 +15773,7 @@
           <t>JACIRA CRISPIN DA FONSECA</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E246" t="inlineStr">
@@ -16772,7 +15802,7 @@
       <c r="J246" t="n">
         <v>41</v>
       </c>
-      <c r="K246" s="2" t="n">
+      <c r="K246" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L246" t="inlineStr">
@@ -16785,11 +15815,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16805,7 +15830,7 @@
           <t>JULIO CESAR GALDINO DA CONCEICAO</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E247" t="inlineStr">
@@ -16834,7 +15859,7 @@
       <c r="J247" t="n">
         <v>50</v>
       </c>
-      <c r="K247" s="2" t="n">
+      <c r="K247" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L247" t="inlineStr">
@@ -16847,11 +15872,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16867,7 +15887,7 @@
           <t>ROSNEIDE APARECIDA VENTURA</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E248" t="inlineStr">
@@ -16896,7 +15916,7 @@
       <c r="J248" t="n">
         <v>50</v>
       </c>
-      <c r="K248" s="2" t="n">
+      <c r="K248" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L248" t="inlineStr">
@@ -16909,11 +15929,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16929,7 +15944,7 @@
           <t>LUCINETE DA COSTA SILVA</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E249" t="inlineStr">
@@ -16958,7 +15973,7 @@
       <c r="J249" t="n">
         <v>50</v>
       </c>
-      <c r="K249" s="2" t="n">
+      <c r="K249" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L249" t="inlineStr">
@@ -16991,7 +16006,6 @@
           <t>Supervisor</t>
         </is>
       </c>
-      <c r="R249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17007,7 +16021,7 @@
           <t>EVA APARECIDA CONDE LIMA</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E250" t="inlineStr">
@@ -17036,7 +16050,7 @@
       <c r="J250" t="n">
         <v>50</v>
       </c>
-      <c r="K250" s="2" t="n">
+      <c r="K250" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L250" t="inlineStr">
@@ -17069,7 +16083,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17085,7 +16098,7 @@
           <t>GISLAINE DE LIRA DA SILVA</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E251" t="inlineStr">
@@ -17114,7 +16127,7 @@
       <c r="J251" t="n">
         <v>50</v>
       </c>
-      <c r="K251" s="2" t="n">
+      <c r="K251" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L251" t="inlineStr">
@@ -17127,11 +16140,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N251" t="inlineStr"/>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17147,7 +16155,7 @@
           <t>JOSIANE MARTINS MENDONCA LOPES</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E252" t="inlineStr">
@@ -17176,7 +16184,7 @@
       <c r="J252" t="n">
         <v>50</v>
       </c>
-      <c r="K252" s="2" t="n">
+      <c r="K252" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="L252" t="inlineStr">
@@ -17209,7 +16217,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17225,7 +16232,7 @@
           <t>VALDEIR PEREIRA DOS SANTOS</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="E253" t="inlineStr">
@@ -17254,7 +16261,7 @@
       <c r="J253" t="n">
         <v>50</v>
       </c>
-      <c r="K253" s="2" t="n">
+      <c r="K253" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="L253" t="inlineStr">
@@ -17267,11 +16274,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17287,7 +16289,7 @@
           <t>LUCINEI GARCIA BELETATO</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E254" t="inlineStr">
@@ -17316,7 +16318,7 @@
       <c r="J254" t="n">
         <v>50</v>
       </c>
-      <c r="K254" s="2" t="n">
+      <c r="K254" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="L254" t="inlineStr">
@@ -17349,7 +16351,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17365,7 +16366,7 @@
           <t>ROSANGELA TEODORO DE FREITAS</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E255" t="inlineStr">
@@ -17394,7 +16395,7 @@
       <c r="J255" t="n">
         <v>50</v>
       </c>
-      <c r="K255" s="2" t="n">
+      <c r="K255" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L255" t="inlineStr">
@@ -17427,7 +16428,6 @@
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17443,7 +16443,7 @@
           <t>FERNANDO MARCONATO DA SILVA</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="E256" t="inlineStr">
@@ -17472,7 +16472,7 @@
       <c r="J256" t="n">
         <v>50</v>
       </c>
-      <c r="K256" s="2" t="n">
+      <c r="K256" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L256" t="inlineStr">
@@ -17505,7 +16505,6 @@
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17521,7 +16520,7 @@
           <t>DANIEL SIMIONI</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E257" t="inlineStr">
@@ -17552,7 +16551,7 @@
           <t>75,5</t>
         </is>
       </c>
-      <c r="K257" s="2" t="n">
+      <c r="K257" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L257" t="inlineStr">
@@ -17565,11 +16564,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N257" t="inlineStr"/>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17585,7 +16579,7 @@
           <t>CLAUDEMILSON ALVES FERREIRA</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E258" t="inlineStr">
@@ -17614,7 +16608,7 @@
       <c r="J258" t="n">
         <v>65</v>
       </c>
-      <c r="K258" s="2" t="n">
+      <c r="K258" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="L258" t="inlineStr">
@@ -17627,11 +16621,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N258" t="inlineStr"/>
-      <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17647,7 +16636,7 @@
           <t>LEONILDA KOLAKOWSKI RIBOLDI</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="E259" t="inlineStr">
@@ -17678,7 +16667,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K259" s="2" t="n">
+      <c r="K259" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="L259" t="inlineStr">
@@ -17691,11 +16680,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N259" t="inlineStr"/>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17711,7 +16695,7 @@
           <t>DIRCE APARECIDA DOS SANTOS</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="E260" t="inlineStr">
@@ -17742,7 +16726,7 @@
           <t>101,5</t>
         </is>
       </c>
-      <c r="K260" s="2" t="n">
+      <c r="K260" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="L260" t="inlineStr">
@@ -17755,11 +16739,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N260" t="inlineStr"/>
-      <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr"/>
-      <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17775,7 +16754,7 @@
           <t>SOLANGE SOARES DOS SANTOS MARTINS BORGES</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E261" t="inlineStr">
@@ -17804,7 +16783,7 @@
       <c r="J261" t="n">
         <v>325</v>
       </c>
-      <c r="K261" s="2" t="n">
+      <c r="K261" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L261" t="inlineStr">
@@ -17817,11 +16796,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N261" t="inlineStr"/>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -17837,7 +16811,7 @@
           <t>VALMIR LOPES</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E262" t="inlineStr">
@@ -17866,7 +16840,7 @@
       <c r="J262" t="n">
         <v>65</v>
       </c>
-      <c r="K262" s="2" t="n">
+      <c r="K262" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L262" t="inlineStr">
@@ -17879,11 +16853,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N262" t="inlineStr"/>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
-      <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17899,7 +16868,7 @@
           <t>ALEXANDRA TACIANA DRESCH MARQUES DA SILVA</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="E263" t="inlineStr">
@@ -17928,7 +16897,7 @@
       <c r="J263" t="n">
         <v>65</v>
       </c>
-      <c r="K263" s="2" t="n">
+      <c r="K263" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="L263" t="inlineStr">
@@ -17941,11 +16910,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N263" t="inlineStr"/>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17961,7 +16925,7 @@
           <t>ROSANA RESENDE</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="E264" t="inlineStr">
@@ -17990,7 +16954,7 @@
       <c r="J264" t="n">
         <v>65</v>
       </c>
-      <c r="K264" s="2" t="n">
+      <c r="K264" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="L264" t="inlineStr">
@@ -18003,11 +16967,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18023,7 +16982,7 @@
           <t>MARIA LEONICE ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="E265" t="inlineStr">
@@ -18052,7 +17011,7 @@
       <c r="J265" t="n">
         <v>65</v>
       </c>
-      <c r="K265" s="2" t="n">
+      <c r="K265" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L265" t="inlineStr">
@@ -18065,11 +17024,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N265" t="inlineStr"/>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -18085,7 +17039,7 @@
           <t>ALDOIR CONRAD</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="E266" t="inlineStr">
@@ -18114,7 +17068,7 @@
       <c r="J266" t="n">
         <v>65</v>
       </c>
-      <c r="K266" s="2" t="n">
+      <c r="K266" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="L266" t="inlineStr">
@@ -18127,11 +17081,6 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18147,7 +17096,7 @@
           <t>EDILEUZA ASSUNÇÃO COSTA</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="E267" t="inlineStr">
@@ -18176,7 +17125,7 @@
       <c r="J267" t="n">
         <v>76</v>
       </c>
-      <c r="K267" s="2" t="n">
+      <c r="K267" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="L267" t="inlineStr">
@@ -18189,619 +17138,745 @@
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="N267" t="inlineStr"/>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
-      <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
+          <t>MARYANA RAMOS ORTLIEB REINKE</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>FABIANA DA COSTA MACIEL MOLINA</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Wellia de Sousa</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>Indicação - Recepções</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rio Brilhante </t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ARNOBIO BENITES DIAS</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>JESSICA MARIA</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>Luana Mikaela Garcia Da Costa</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>CLAUDIA CRISTINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>FABIO SALAMONI DE MATOS</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Filtro Inadimplente</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>ADRIANA DA SILVA CELESTINO</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Andressa Honorio Pereira</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>Cobrador - GO</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>RUBENS PEREIRA MIRANDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>MARCOS ANTONIO</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Indicação de Cliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
           <t>JACOB APARECIDO DE SOUZA</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
-      <c r="N268" t="inlineStr"/>
-      <c r="O268" t="inlineStr">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
         </is>
       </c>
-      <c r="P268" t="inlineStr">
+      <c r="P276" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q268" t="inlineStr">
+      <c r="Q276" t="inlineStr">
         <is>
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr"/>
-      <c r="B269" t="inlineStr"/>
-      <c r="C269" t="inlineStr">
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
         <is>
           <t>PIETRA</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
-      <c r="N269" t="inlineStr"/>
-      <c r="O269" t="inlineStr">
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
         <is>
           <t>Sandi Suellen Ferreira</t>
         </is>
       </c>
-      <c r="P269" t="inlineStr">
+      <c r="P277" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q269" t="inlineStr">
+      <c r="Q277" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr"/>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="inlineStr">
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
         <is>
           <t>ADELIA ALVES DE MIRANDA</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
-      <c r="N270" t="inlineStr"/>
-      <c r="O270" t="inlineStr">
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
         </is>
       </c>
-      <c r="P270" t="inlineStr">
+      <c r="P278" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q270" t="inlineStr">
+      <c r="Q278" t="inlineStr">
         <is>
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr"/>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr">
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
         <is>
           <t>ELIZEU DIAS</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="inlineStr"/>
-      <c r="N271" t="inlineStr"/>
-      <c r="O271" t="inlineStr">
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
         </is>
       </c>
-      <c r="P271" t="inlineStr">
+      <c r="P279" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q271" t="inlineStr">
+      <c r="Q279" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr"/>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr">
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
         <is>
           <t>ADECINA SILVA LIMA</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
-      <c r="N272" t="inlineStr"/>
-      <c r="O272" t="inlineStr">
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
         <is>
           <t>Luana Mikaela Garcia Da Costa</t>
         </is>
       </c>
-      <c r="P272" t="inlineStr">
+      <c r="P280" t="inlineStr">
         <is>
           <t>Indicação - Recepções</t>
         </is>
       </c>
-      <c r="Q272" t="inlineStr">
+      <c r="Q280" t="inlineStr">
         <is>
           <t>Dourados</t>
         </is>
       </c>
-      <c r="R272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr"/>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="inlineStr">
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
         <is>
           <t>ALEXANDRA AP ARAUJO</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="inlineStr"/>
-      <c r="N273" t="inlineStr"/>
-      <c r="O273" t="inlineStr">
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
         </is>
       </c>
-      <c r="P273" t="inlineStr">
+      <c r="P281" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q273" t="inlineStr">
+      <c r="Q281" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr"/>
-      <c r="B274" t="inlineStr"/>
-      <c r="C274" t="inlineStr">
+    </row>
+    <row r="282">
+      <c r="C282" t="inlineStr">
         <is>
           <t>ROZELI BUENO</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="inlineStr"/>
-      <c r="N274" t="inlineStr"/>
-      <c r="O274" t="inlineStr">
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
         </is>
       </c>
-      <c r="P274" t="inlineStr">
+      <c r="P282" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q274" t="inlineStr">
+      <c r="Q282" t="inlineStr">
         <is>
           <t>Indicação de Cliente</t>
         </is>
       </c>
-      <c r="R274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr"/>
-      <c r="B275" t="inlineStr"/>
-      <c r="C275" t="inlineStr">
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
         <is>
           <t>MARCELO SOARES</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
-      <c r="N275" t="inlineStr"/>
-      <c r="O275" t="inlineStr">
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
         </is>
       </c>
-      <c r="P275" t="inlineStr">
+      <c r="P283" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q275" t="inlineStr">
+      <c r="Q283" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr"/>
-      <c r="B276" t="inlineStr"/>
-      <c r="C276" t="inlineStr">
+    </row>
+    <row r="284">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ROBERTA LOPES</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Televendas</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
         <is>
           <t>DENIS WILLIAM</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="inlineStr"/>
-      <c r="N276" t="inlineStr"/>
-      <c r="O276" t="inlineStr">
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
         <is>
           <t>Luana Mikaela Garcia Da Costa</t>
         </is>
       </c>
-      <c r="P276" t="inlineStr">
+      <c r="P285" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q276" t="inlineStr">
+      <c r="Q285" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr">
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
         <is>
           <t>REGENILDA CELINA ALVES DA SILVA MUNIZ</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="inlineStr"/>
-      <c r="N277" t="inlineStr"/>
-      <c r="O277" t="inlineStr">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
         </is>
       </c>
-      <c r="P277" t="inlineStr">
+      <c r="P286" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q277" t="inlineStr">
+      <c r="Q286" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr"/>
-      <c r="B278" t="inlineStr"/>
-      <c r="C278" t="inlineStr">
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
         <is>
           <t>JOSE RAMAO DOS SANTOS</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr"/>
-      <c r="O278" t="inlineStr">
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
         </is>
       </c>
-      <c r="P278" t="inlineStr">
+      <c r="P287" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q278" t="inlineStr">
+      <c r="Q287" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr"/>
-      <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr">
+    </row>
+    <row r="288">
+      <c r="C288" t="inlineStr">
         <is>
           <t>IZOLDINO ALVES</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="inlineStr"/>
-      <c r="N279" t="inlineStr"/>
-      <c r="O279" t="inlineStr">
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
         <is>
           <t>Luana Mikaela Garcia Da Costa</t>
         </is>
       </c>
-      <c r="P279" t="inlineStr">
+      <c r="P288" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q279" t="inlineStr">
+      <c r="Q288" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr"/>
-      <c r="B280" t="inlineStr"/>
-      <c r="C280" t="inlineStr">
+    </row>
+    <row r="289">
+      <c r="C289" t="inlineStr">
         <is>
           <t>MARIA DA CONCEIÇÃO MARTINS DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
-      <c r="O280" t="inlineStr">
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
         </is>
       </c>
-      <c r="P280" t="inlineStr">
+      <c r="P289" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q280" t="inlineStr">
+      <c r="Q289" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr"/>
-      <c r="B281" t="inlineStr"/>
-      <c r="C281" t="inlineStr">
+    </row>
+    <row r="290">
+      <c r="C290" t="inlineStr">
         <is>
           <t>WALDECY PAIVA DE AGUIAR</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="inlineStr"/>
-      <c r="N281" t="inlineStr"/>
-      <c r="O281" t="inlineStr">
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
         <is>
           <t>Luana Mikaela Garcia Da Costa</t>
         </is>
       </c>
-      <c r="P281" t="inlineStr">
+      <c r="P290" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q281" t="inlineStr">
+      <c r="Q290" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr"/>
-      <c r="B282" t="inlineStr"/>
-      <c r="C282" t="inlineStr">
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
         <is>
           <t>SARA KALINA MARQUES</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="inlineStr"/>
-      <c r="N282" t="inlineStr"/>
-      <c r="O282" t="inlineStr">
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
         </is>
       </c>
-      <c r="P282" t="inlineStr">
+      <c r="P291" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q282" t="inlineStr">
+      <c r="Q291" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr"/>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="inlineStr">
+    </row>
+    <row r="292">
+      <c r="C292" t="inlineStr">
         <is>
           <t>JOSE ARLINDO DA SILVA</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
-      <c r="O283" t="inlineStr">
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
         </is>
       </c>
-      <c r="P283" t="inlineStr">
+      <c r="P292" t="inlineStr">
         <is>
           <t>Televendas</t>
         </is>
       </c>
-      <c r="Q283" t="inlineStr">
+      <c r="Q292" t="inlineStr">
         <is>
           <t>Filtro Inadimplente</t>
         </is>
       </c>
-      <c r="R283" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>NAIANNNY GUERRIERI</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>LUIZ HENRIQUE AGUIAR</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -19840,7 +19840,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -19867,7 +19867,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -19894,7 +19894,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -20002,7 +20002,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -20029,7 +20029,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -20083,7 +20083,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -20137,7 +20137,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -20164,7 +20164,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -20245,7 +20245,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">

--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -26466,7 +26466,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -26493,7 +26493,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -26547,7 +26547,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -26682,7 +26682,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -26736,7 +26736,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -26790,7 +26790,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -26817,7 +26817,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -26844,7 +26844,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -26871,7 +26871,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -26898,7 +26898,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -27006,7 +27006,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -27060,7 +27060,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">

--- a/uploads/resultado.xlsx
+++ b/uploads/resultado.xlsx
@@ -26466,7 +26466,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -26493,7 +26493,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -26547,7 +26547,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -26682,7 +26682,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -26736,7 +26736,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -26790,7 +26790,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -26817,7 +26817,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -26844,7 +26844,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -26871,7 +26871,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -26898,7 +26898,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -27006,7 +27006,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -27060,7 +27060,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
